--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
@@ -785,7 +785,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(68, 68)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(68, 68)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>(68, 68)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(46, 46)</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(46, 46)</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="G211" s="2" t="n">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="G214" s="2" t="n">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="G215" s="2" t="n">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="G216" s="2" t="n">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="G217" s="2" t="n">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G218" s="2" t="n">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G224" s="2" t="n">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G226" s="2" t="n">

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(66, 66)</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(66, 66)</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(66, 66)</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
@@ -785,7 +785,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
@@ -3130,7 +3130,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>82749</v>
+        <v>82738</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3138,31 +3138,31 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.5</v>
       </c>
       <c r="E68" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
         <v>45174.375</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>(54, 54)</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>45174.16666666666</v>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-09-05 11:58:00</t>
+          <t>2023-09-05 13:55:00</t>
         </is>
       </c>
       <c r="J68" s="3" t="n">
-        <v>0.3319444444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="69">
@@ -3170,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82749</v>
+        <v>82738</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3178,31 +3178,31 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45174.70486111111</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
         <v>45174.375</v>
       </c>
-      <c r="E69" s="2" t="n">
-        <v>45174.49652777778</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>(54, 54)</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>45174.16666666666</v>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-09-05 11:58:00</t>
+          <t>2023-09-05 13:55:00</t>
         </is>
       </c>
       <c r="J69" s="3" t="n">
-        <v>0.3319444444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="70">
@@ -3214,18 +3214,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.375</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
@@ -3250,39 +3250,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82959</v>
+        <v>82749</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45174.40486111111</v>
+        <v>45174.375</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.49652777778</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45174.27986111111</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-09-05 06:43:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-09-05 15:04:00</t>
+          <t>2023-09-05 11:58:00</t>
         </is>
       </c>
       <c r="J71" s="3" t="n">
-        <v>0.3479166666666667</v>
+        <v>0.3319444444444444</v>
       </c>
     </row>
     <row r="72">
@@ -3290,39 +3290,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82959</v>
+        <v>82749</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.49652777778</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.62361111111</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45174.27986111111</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-09-05 06:43:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2023-09-05 15:04:00</t>
+          <t>2023-09-05 11:58:00</t>
         </is>
       </c>
       <c r="J72" s="3" t="n">
-        <v>0.3479166666666667</v>
+        <v>0.3319444444444444</v>
       </c>
     </row>
     <row r="73">
@@ -3334,31 +3334,31 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.42569444444</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45174.75277777778</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(65, 65)</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45174.27986111111</v>
+        <v>45174.30069444444</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-09-05 06:43:00</t>
+          <t>2023-09-05 07:13:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2023-09-05 15:04:00</t>
+          <t>2023-09-05 15:34:00</t>
         </is>
       </c>
       <c r="J73" s="3" t="n">
@@ -3370,39 +3370,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83082</v>
+        <v>82959</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.60069444445</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(65, 65)</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.30069444444</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-09-05 12:20:00</t>
+          <t>2023-09-05 07:13:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2023-09-05 14:00:00</t>
+          <t>2023-09-05 15:34:00</t>
         </is>
       </c>
       <c r="J74" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3479166666666667</v>
       </c>
     </row>
     <row r="75">
@@ -3410,39 +3410,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83083</v>
+        <v>82959</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.60069444445</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.77361111111</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(65, 65)</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.30069444444</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2023-09-05 12:20:00</t>
+          <t>2023-09-05 07:13:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2023-09-05 14:00:00</t>
+          <t>2023-09-05 15:34:00</t>
         </is>
       </c>
       <c r="J75" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3479166666666667</v>
       </c>
     </row>
     <row r="76">
@@ -3450,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83085</v>
+        <v>83082</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
@@ -3490,39 +3490,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83094</v>
+        <v>83083</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.70833333334</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45174.14583333334</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-09-05 03:30:00</t>
+          <t>2023-09-05 12:20:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2023-09-05 11:24:00</t>
+          <t>2023-09-05 14:00:00</t>
         </is>
       </c>
       <c r="J77" s="3" t="n">
-        <v>0.3291666666666667</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="78">
@@ -3530,39 +3530,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83094</v>
+        <v>83085</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.70833333334</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45174.14583333334</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-09-05 03:30:00</t>
+          <t>2023-09-05 12:20:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2023-09-05 11:24:00</t>
+          <t>2023-09-05 14:00:00</t>
         </is>
       </c>
       <c r="J78" s="3" t="n">
-        <v>0.3291666666666667</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="79">
@@ -3574,18 +3574,18 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45174.6</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
@@ -3610,39 +3610,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83100</v>
+        <v>83094</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.14583333334</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-09-05 10:00:00</t>
+          <t>2023-09-05 03:30:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2023-09-05 18:35:00</t>
+          <t>2023-09-05 11:24:00</t>
         </is>
       </c>
       <c r="J80" s="3" t="n">
-        <v>0.3576388888888889</v>
+        <v>0.3291666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -3650,39 +3650,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83100</v>
+        <v>83094</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.6</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.14583333334</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-09-05 10:00:00</t>
+          <t>2023-09-05 03:30:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2023-09-05 18:35:00</t>
+          <t>2023-09-05 11:24:00</t>
         </is>
       </c>
       <c r="J81" s="3" t="n">
-        <v>0.3576388888888889</v>
+        <v>0.3291666666666667</v>
       </c>
     </row>
     <row r="82">
@@ -3694,18 +3694,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45174.89930555555</v>
+        <v>45174.625</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
@@ -3730,39 +3730,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83111</v>
+        <v>83100</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45174.66944444444</v>
+        <v>45174.625</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45174.72916666666</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45174.54444444444</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-09-05 13:04:00</t>
+          <t>2023-09-05 10:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2023-09-05 20:26:00</t>
+          <t>2023-09-05 18:35:00</t>
         </is>
       </c>
       <c r="J83" s="3" t="n">
-        <v>0.3069444444444445</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="84">
@@ -3770,39 +3770,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83111</v>
+        <v>83100</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45174.72916666666</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45174.85069444445</v>
+        <v>45174.89930555555</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45174.54444444444</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2023-09-05 13:04:00</t>
+          <t>2023-09-05 10:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2023-09-05 20:26:00</t>
+          <t>2023-09-05 18:35:00</t>
         </is>
       </c>
       <c r="J84" s="3" t="n">
-        <v>0.3069444444444445</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="85">
@@ -3814,18 +3814,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45174.85069444445</v>
+        <v>45174.66944444444</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45174.97638888889</v>
+        <v>45174.72916666666</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
@@ -3850,39 +3850,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83136</v>
+        <v>83111</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45174.33611111111</v>
+        <v>45174.72916666666</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45174.40555555555</v>
+        <v>45174.85069444445</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45174.21111111111</v>
+        <v>45174.54444444444</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-09-05 05:04:00</t>
+          <t>2023-09-05 13:04:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2023-09-05 06:44:00</t>
+          <t>2023-09-05 20:26:00</t>
         </is>
       </c>
       <c r="J86" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3069444444444445</v>
       </c>
     </row>
     <row r="87">
@@ -3890,39 +3890,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83142</v>
+        <v>83111</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45174.65347222222</v>
+        <v>45174.85069444445</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.97638888889</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45174.52847222222</v>
+        <v>45174.54444444444</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-09-05 12:41:00</t>
+          <t>2023-09-05 13:04:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2023-09-05 19:52:00</t>
+          <t>2023-09-05 20:26:00</t>
         </is>
       </c>
       <c r="J87" s="3" t="n">
-        <v>0.2993055555555555</v>
+        <v>0.3069444444444445</v>
       </c>
     </row>
     <row r="88">
@@ -3930,39 +3930,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83142</v>
+        <v>83136</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.33611111111</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45174.82986111111</v>
+        <v>45174.40555555555</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45174.52847222222</v>
+        <v>45174.21111111111</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2023-09-05 12:41:00</t>
+          <t>2023-09-05 05:04:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2023-09-05 19:52:00</t>
+          <t>2023-09-05 06:44:00</t>
         </is>
       </c>
       <c r="J88" s="3" t="n">
-        <v>0.2993055555555555</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="89">
@@ -3974,18 +3974,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45174.82986111111</v>
+        <v>45174.65347222222</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45174.95277777778</v>
+        <v>45174.70833333334</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(46, 46)</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
@@ -4010,39 +4010,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83147</v>
+        <v>83142</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45174.37638888889</v>
+        <v>45174.70833333334</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45174.44583333333</v>
+        <v>45174.82986111111</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(46, 46)</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45174.25138888889</v>
+        <v>45174.52847222222</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-09-05 06:02:00</t>
+          <t>2023-09-05 12:41:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2023-09-05 07:42:00</t>
+          <t>2023-09-05 19:52:00</t>
         </is>
       </c>
       <c r="J90" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2993055555555555</v>
       </c>
     </row>
     <row r="91">
@@ -4050,18 +4050,18 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83156</v>
+        <v>83142</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45174.82986111111</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.95277777778</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4069,20 +4069,20 @@
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45174.23819444444</v>
+        <v>45174.52847222222</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-09-05 05:43:00</t>
+          <t>2023-09-05 12:41:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 19:52:00</t>
         </is>
       </c>
       <c r="J91" s="3" t="n">
-        <v>0.175</v>
+        <v>0.2993055555555555</v>
       </c>
     </row>
     <row r="92">
@@ -4090,39 +4090,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83156</v>
+        <v>83147</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.37638888889</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.44583333333</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45174.23819444444</v>
+        <v>45174.25138888889</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2023-09-05 05:43:00</t>
+          <t>2023-09-05 06:02:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 07:42:00</t>
         </is>
       </c>
       <c r="J92" s="3" t="n">
-        <v>0.175</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="93">
@@ -4130,39 +4130,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83160</v>
+        <v>83156</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45174.36805555555</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45174.24305555555</v>
+        <v>45174.23819444444</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2023-09-05 05:50:00</t>
+          <t>2023-09-05 05:43:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2023-09-05 07:30:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J93" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="94">
@@ -4170,30 +4170,30 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83165</v>
+        <v>83156</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45174.3625</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45174.2375</v>
+        <v>45174.23819444444</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-09-05 05:42:00</t>
+          <t>2023-09-05 05:43:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="J94" s="3" t="n">
-        <v>0.1756944444444444</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="95">
@@ -4210,39 +4210,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83165</v>
+        <v>83160</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.36805555555</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.4375</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45174.2375</v>
+        <v>45174.24305555555</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-09-05 05:42:00</t>
+          <t>2023-09-05 05:50:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 07:30:00</t>
         </is>
       </c>
       <c r="J95" s="3" t="n">
-        <v>0.1756944444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="96">
@@ -4250,39 +4250,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>83167</v>
+        <v>83165</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45174.38472222222</v>
+        <v>45174.3625</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45174.45416666667</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45174.25972222222</v>
+        <v>45174.2375</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023-09-05 06:14:00</t>
+          <t>2023-09-05 05:42:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2023-09-05 07:54:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J96" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.1756944444444444</v>
       </c>
     </row>
     <row r="97">
@@ -4290,39 +4290,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>83168</v>
+        <v>83165</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45174.44444444445</v>
+        <v>45174.2375</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2023-09-05 10:40:00</t>
+          <t>2023-09-05 05:42:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2023-09-05 17:54:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J97" s="3" t="n">
-        <v>0.3013888888888889</v>
+        <v>0.1756944444444444</v>
       </c>
     </row>
     <row r="98">
@@ -4330,39 +4330,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>83168</v>
+        <v>83167</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.38472222222</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.45416666667</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45174.44444444445</v>
+        <v>45174.25972222222</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-09-05 10:40:00</t>
+          <t>2023-09-05 06:14:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2023-09-05 17:54:00</t>
+          <t>2023-09-05 07:54:00</t>
         </is>
       </c>
       <c r="J98" s="3" t="n">
-        <v>0.3013888888888889</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="99">
@@ -4374,18 +4374,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.56944444445</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45174.87083333333</v>
+        <v>45174.625</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
@@ -4410,39 +4410,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>83170</v>
+        <v>83168</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.625</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45174.48333333333</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45174.28888888889</v>
+        <v>45174.44444444445</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-09-05 06:56:00</t>
+          <t>2023-09-05 10:40:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2023-09-05 08:36:00</t>
+          <t>2023-09-05 17:54:00</t>
         </is>
       </c>
       <c r="J100" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="101">
@@ -4450,39 +4450,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>83181</v>
+        <v>83168</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45174.34583333333</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45174.41527777778</v>
+        <v>45174.87083333333</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45174.22083333333</v>
+        <v>45174.44444444445</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-09-05 05:18:00</t>
+          <t>2023-09-05 10:40:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2023-09-05 06:58:00</t>
+          <t>2023-09-05 17:54:00</t>
         </is>
       </c>
       <c r="J101" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="102">
@@ -4490,39 +4490,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>83182</v>
+        <v>83170</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45174.57291666666</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.48333333333</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45174.44791666666</v>
+        <v>45174.28888888889</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-09-05 10:45:00</t>
+          <t>2023-09-05 06:56:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2023-09-05 14:55:00</t>
+          <t>2023-09-05 08:36:00</t>
         </is>
       </c>
       <c r="J102" s="3" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="103">
@@ -4530,39 +4530,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>83182</v>
+        <v>83181</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45174.625</v>
+        <v>45174.34583333333</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.41527777778</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45174.44791666666</v>
+        <v>45174.22083333333</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2023-09-05 10:45:00</t>
+          <t>2023-09-05 05:18:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2023-09-05 14:55:00</t>
+          <t>2023-09-05 06:58:00</t>
         </is>
       </c>
       <c r="J103" s="3" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="104">
@@ -4570,7 +4570,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>83185</v>
+        <v>83182</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -4578,31 +4578,31 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45174.56875</v>
+        <v>45174.57291666666</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>45174.625</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45174.44791666666</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2023-09-05 10:39:00</t>
+          <t>2023-09-05 10:45:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2023-09-05 17:46:00</t>
+          <t>2023-09-05 14:55:00</t>
         </is>
       </c>
       <c r="J104" s="3" t="n">
-        <v>0.2965277777777778</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="105">
@@ -4610,7 +4610,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>83185</v>
+        <v>83182</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4625,24 +4625,24 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45174.44791666666</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-09-05 10:39:00</t>
+          <t>2023-09-05 10:45:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2023-09-05 17:46:00</t>
+          <t>2023-09-05 14:55:00</t>
         </is>
       </c>
       <c r="J105" s="3" t="n">
-        <v>0.2965277777777778</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="106">
@@ -4650,39 +4650,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>83185</v>
+        <v>83184</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.50902777778</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45174.86527777778</v>
+        <v>45174.5625</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45174.38402777778</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-09-05 10:39:00</t>
+          <t>2023-09-05 09:13:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2023-09-05 17:46:00</t>
+          <t>2023-09-05 16:13:00</t>
         </is>
       </c>
       <c r="J106" s="3" t="n">
-        <v>0.2965277777777778</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -4690,35 +4690,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83186</v>
+        <v>83184</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45174.5625</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.68402777778</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45174.23819444444</v>
+        <v>45174.38402777778</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-09-05 05:43:00</t>
+          <t>2023-09-05 09:13:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2023-09-05 12:43:00</t>
+          <t>2023-09-05 16:13:00</t>
         </is>
       </c>
       <c r="J107" s="3" t="n">
@@ -4730,35 +4730,35 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83186</v>
+        <v>83184</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.68402777778</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.80069444444</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45174.23819444444</v>
+        <v>45174.38402777778</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2023-09-05 05:43:00</t>
+          <t>2023-09-05 09:13:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2023-09-05 12:43:00</t>
+          <t>2023-09-05 16:13:00</t>
         </is>
       </c>
       <c r="J108" s="3" t="n">
@@ -4770,39 +4770,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83186</v>
+        <v>83185</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.56875</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45174.625</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45174.23819444444</v>
+        <v>45174.44375</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-09-05 05:43:00</t>
+          <t>2023-09-05 10:39:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2023-09-05 12:43:00</t>
+          <t>2023-09-05 17:46:00</t>
         </is>
       </c>
       <c r="J109" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2965277777777778</v>
       </c>
     </row>
     <row r="110">
@@ -4810,39 +4810,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83192</v>
+        <v>83185</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45174.38055555556</v>
+        <v>45174.625</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45174.45</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45174.25555555556</v>
+        <v>45174.44375</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-09-05 06:08:00</t>
+          <t>2023-09-05 10:39:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2023-09-05 07:48:00</t>
+          <t>2023-09-05 17:46:00</t>
         </is>
       </c>
       <c r="J110" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2965277777777778</v>
       </c>
     </row>
     <row r="111">
@@ -4850,39 +4850,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83198</v>
+        <v>83185</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="E111" s="2" t="n">
+        <v>45174.86527777778</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="n">
         <v>45174.44375</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>(32, 32)</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="n">
-        <v>45174.24930555555</v>
-      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2023-09-05 05:59:00</t>
+          <t>2023-09-05 10:39:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2023-09-05 07:39:00</t>
+          <t>2023-09-05 17:46:00</t>
         </is>
       </c>
       <c r="J111" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2965277777777778</v>
       </c>
     </row>
     <row r="112">
@@ -4890,39 +4890,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83205</v>
+        <v>83186</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45174.36597222222</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45174.43541666667</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45174.24097222222</v>
+        <v>45174.23819444444</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2023-09-05 05:47:00</t>
+          <t>2023-09-05 05:43:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2023-09-05 07:27:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J112" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -4930,39 +4930,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>83210</v>
+        <v>83186</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45174.40763888889</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45174.47708333333</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45174.28263888889</v>
+        <v>45174.23819444444</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-09-05 06:47:00</t>
+          <t>2023-09-05 05:43:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2023-09-05 08:27:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J113" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="114">
@@ -4970,39 +4970,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>83214</v>
+        <v>83186</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45174.33055555556</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45174.4</v>
+        <v>45174.65486111111</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45174.20555555556</v>
+        <v>45174.23819444444</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-09-05 04:56:00</t>
+          <t>2023-09-05 05:43:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2023-09-05 06:36:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J114" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="115">
@@ -5010,7 +5010,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83217</v>
+        <v>83187</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5018,31 +5018,31 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45174.34236111111</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45174.21736111111</v>
+        <v>45174.20833333334</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2023-09-05 05:13:00</t>
+          <t>2023-09-05 05:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2023-09-05 09:25:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J115" s="3" t="n">
-        <v>0.175</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="116">
@@ -5050,7 +5050,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>83217</v>
+        <v>83187</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5058,31 +5058,31 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45174.21736111111</v>
+        <v>45174.20833333334</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2023-09-05 05:13:00</t>
+          <t>2023-09-05 05:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2023-09-05 09:25:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J116" s="3" t="n">
-        <v>0.175</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="117">
@@ -5090,39 +5090,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>83219</v>
+        <v>83187</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45174.36180555556</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45174.43125</v>
+        <v>45174.65486111111</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45174.23680555556</v>
+        <v>45174.20833333334</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2023-09-05 05:41:00</t>
+          <t>2023-09-05 05:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2023-09-05 07:21:00</t>
+          <t>2023-09-05 12:43:00</t>
         </is>
       </c>
       <c r="J117" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="118">
@@ -5130,39 +5130,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>83227</v>
+        <v>83192</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45174.21944444445</v>
+        <v>45174.38055555556</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.45</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45174.09444444445</v>
+        <v>45174.25555555556</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-09-05 02:16:00</t>
+          <t>2023-09-05 06:08:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2023-09-05 06:25:00</t>
+          <t>2023-09-05 07:48:00</t>
         </is>
       </c>
       <c r="J118" s="3" t="n">
-        <v>0.1729166666666667</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="119">
@@ -5170,39 +5170,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>83227</v>
+        <v>83198</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45174.39236111111</v>
+        <v>45174.44375</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45174.09444444445</v>
+        <v>45174.24930555555</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-09-05 02:16:00</t>
+          <t>2023-09-05 05:59:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2023-09-05 06:25:00</t>
+          <t>2023-09-05 07:39:00</t>
         </is>
       </c>
       <c r="J119" s="3" t="n">
-        <v>0.1729166666666667</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="120">
@@ -5210,39 +5210,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>83230</v>
+        <v>83203</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45174.34027777778</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45174.40972222222</v>
+        <v>45174.75</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45174.21527777778</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-09-05 05:10:00</t>
+          <t>2023-09-05 13:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2023-09-05 06:50:00</t>
+          <t>2023-09-05 21:35:00</t>
         </is>
       </c>
       <c r="J120" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="121">
@@ -5250,39 +5250,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>83232</v>
+        <v>83203</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45174.34166666667</v>
+        <v>45174.75</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45174.41111111111</v>
+        <v>45174.87152777778</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45174.21666666667</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-09-05 05:12:00</t>
+          <t>2023-09-05 13:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2023-09-05 06:52:00</t>
+          <t>2023-09-05 21:35:00</t>
         </is>
       </c>
       <c r="J121" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="122">
@@ -5290,39 +5290,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>83257</v>
+        <v>83203</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.87152777778</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45175.02430555555</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 13:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 21:35:00</t>
         </is>
       </c>
       <c r="J122" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="123">
@@ -5330,39 +5330,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>83257</v>
+        <v>83205</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.36597222222</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.43541666667</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.24097222222</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 05:47:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 07:27:00</t>
         </is>
       </c>
       <c r="J123" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="124">
@@ -5370,39 +5370,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>83261</v>
+        <v>83210</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.40763888889</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.47708333333</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45174.20833333334</v>
+        <v>45174.28263888889</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2023-09-05 05:00:00</t>
+          <t>2023-09-05 06:47:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 08:27:00</t>
         </is>
       </c>
       <c r="J124" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="125">
@@ -5410,39 +5410,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>83261</v>
+        <v>83214</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.33055555556</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.4</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45174.20833333334</v>
+        <v>45174.20555555556</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2023-09-05 05:00:00</t>
+          <t>2023-09-05 04:56:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 06:36:00</t>
         </is>
       </c>
       <c r="J125" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="126">
@@ -5450,7 +5450,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>83263</v>
+        <v>83215</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -5458,31 +5458,31 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.57152777778</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.625</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.44652777778</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 10:43:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2023-09-05 08:55:00</t>
+          <t>2023-09-05 14:55:00</t>
         </is>
       </c>
       <c r="J126" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="127">
@@ -5490,7 +5490,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>83263</v>
+        <v>83215</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -5498,31 +5498,31 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.625</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.74652777778</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.44652777778</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 10:43:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2023-09-05 08:55:00</t>
+          <t>2023-09-05 14:55:00</t>
         </is>
       </c>
       <c r="J127" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="128">
@@ -5530,7 +5530,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>83271</v>
+        <v>83217</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -5538,31 +5538,31 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.34236111111</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(68, 68)</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.21736111111</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 05:13:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 09:25:00</t>
         </is>
       </c>
       <c r="J128" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="129">
@@ -5570,7 +5570,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83271</v>
+        <v>83217</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -5578,31 +5578,31 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.51736111111</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(68, 68)</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.21736111111</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 05:13:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 09:25:00</t>
         </is>
       </c>
       <c r="J129" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="130">
@@ -5610,39 +5610,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>83271</v>
+        <v>83219</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.36180555556</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.43125</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.23680555556</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 05:41:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 07:21:00</t>
         </is>
       </c>
       <c r="J130" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="131">
@@ -5650,7 +5650,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>83272</v>
+        <v>83221</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -5658,31 +5658,31 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.5</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.375</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 16:43:00</t>
         </is>
       </c>
       <c r="J131" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="132">
@@ -5690,7 +5690,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>83272</v>
+        <v>83221</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -5698,31 +5698,31 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.375</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 16:43:00</t>
         </is>
       </c>
       <c r="J132" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="133">
@@ -5730,39 +5730,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>83272</v>
+        <v>83221</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.82152777778</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45174.19861111111</v>
+        <v>45174.375</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2023-09-05 04:46:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2023-09-05 12:30:00</t>
+          <t>2023-09-05 16:43:00</t>
         </is>
       </c>
       <c r="J133" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3215277777777778</v>
       </c>
     </row>
     <row r="134">
@@ -5770,7 +5770,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>83273</v>
+        <v>83222</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -5778,31 +5778,31 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.29861111111</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.17361111111</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 04:10:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 11:24:00</t>
         </is>
       </c>
       <c r="J134" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="135">
@@ -5810,7 +5810,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>83273</v>
+        <v>83222</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -5818,31 +5818,31 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.17361111111</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 04:10:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 11:24:00</t>
         </is>
       </c>
       <c r="J135" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="136">
@@ -5850,39 +5850,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>83273</v>
+        <v>83222</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.6</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.17361111111</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 04:10:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 11:24:00</t>
         </is>
       </c>
       <c r="J136" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="137">
@@ -5890,7 +5890,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>83274</v>
+        <v>83226</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -5898,31 +5898,31 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.36041666667</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.23541666667</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 05:39:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J137" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="138">
@@ -5930,7 +5930,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>83274</v>
+        <v>83226</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -5938,31 +5938,31 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.23541666667</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 05:39:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J138" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="139">
@@ -5970,39 +5970,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>83274</v>
+        <v>83227</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.21944444445</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45174.30277777778</v>
+        <v>45174.09444444445</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2023-09-05 07:16:00</t>
+          <t>2023-09-05 02:16:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2023-09-05 15:00:00</t>
+          <t>2023-09-05 06:25:00</t>
         </is>
       </c>
       <c r="J139" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.1729166666666667</v>
       </c>
     </row>
     <row r="140">
@@ -6010,39 +6010,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>83275</v>
+        <v>83227</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.39236111111</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.09444444445</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 02:16:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 06:25:00</t>
         </is>
       </c>
       <c r="J140" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.1729166666666667</v>
       </c>
     </row>
     <row r="141">
@@ -6050,39 +6050,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>83275</v>
+        <v>83230</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.34027777778</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.40972222222</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.21527777778</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 05:10:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 06:50:00</t>
         </is>
       </c>
       <c r="J141" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="142">
@@ -6090,39 +6090,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>83275</v>
+        <v>83232</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.34166666667</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.41111111111</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.21666666667</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 05:12:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 06:52:00</t>
         </is>
       </c>
       <c r="J142" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="143">
@@ -6130,7 +6130,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>83276</v>
+        <v>83257</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -6138,31 +6138,31 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.375</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.25</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 06:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 10:55:00</t>
         </is>
       </c>
       <c r="J143" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="144">
@@ -6170,7 +6170,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>83276</v>
+        <v>83257</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -6178,31 +6178,31 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.57986111111</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.25</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 06:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 10:55:00</t>
         </is>
       </c>
       <c r="J144" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="145">
@@ -6210,39 +6210,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>83276</v>
+        <v>83261</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.20833333334</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2023-09-05 10:16:00</t>
+          <t>2023-09-05 05:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2023-09-05 18:00:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J145" s="3" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="146">
@@ -6250,39 +6250,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>83284</v>
+        <v>83261</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45174.41805555556</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>45174.47916666666</v>
+        <v>45174.53819444445</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.20833333334</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2023-09-05 07:02:00</t>
+          <t>2023-09-05 05:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2023-09-05 14:23:00</t>
+          <t>2023-09-05 09:55:00</t>
         </is>
       </c>
       <c r="J146" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="147">
@@ -6290,39 +6290,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>83284</v>
+        <v>83263</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45174.47916666666</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>45174.60069444445</v>
+        <v>45174.375</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2023-09-05 07:02:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2023-09-05 14:23:00</t>
+          <t>2023-09-05 08:55:00</t>
         </is>
       </c>
       <c r="J147" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="148">
@@ -6330,39 +6330,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>83284</v>
+        <v>83263</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45174.60069444445</v>
+        <v>45174.375</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>45174.72430555556</v>
+        <v>45174.49652777778</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2023-09-05 07:02:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2023-09-05 14:23:00</t>
+          <t>2023-09-05 08:55:00</t>
         </is>
       </c>
       <c r="J148" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="149">
@@ -6370,7 +6370,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>83285</v>
+        <v>83271</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -6378,31 +6378,31 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>45174.35416666666</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45174.16805555556</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-09-05 04:02:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2023-09-05 11:23:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J149" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="150">
@@ -6410,7 +6410,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>83285</v>
+        <v>83271</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -6425,24 +6425,24 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45174.16805555556</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2023-09-05 04:02:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2023-09-05 11:23:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J150" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="151">
@@ -6450,39 +6450,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>83285</v>
+        <v>83271</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
         <v>45174.47569444445</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>45174.59930555556</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>45174.16805555556</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2023-09-05 04:02:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2023-09-05 11:23:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J151" s="3" t="n">
-        <v>0.30625</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="152">
@@ -6490,7 +6490,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>83296</v>
+        <v>83272</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -6498,31 +6498,31 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2023-09-05 09:30:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2023-09-05 13:55:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J152" s="3" t="n">
-        <v>0.1840277777777778</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="153">
@@ -6530,7 +6530,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>83296</v>
+        <v>83272</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -6538,31 +6538,31 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2023-09-05 09:30:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2023-09-05 13:55:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J153" s="3" t="n">
-        <v>0.1840277777777778</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="154">
@@ -6570,39 +6570,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>83300</v>
+        <v>83272</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45174.47222222222</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.19861111111</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2023-09-05 08:20:00</t>
+          <t>2023-09-05 04:46:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2023-09-05 10:00:00</t>
+          <t>2023-09-05 12:30:00</t>
         </is>
       </c>
       <c r="J154" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="155">
@@ -6610,7 +6610,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>83306</v>
+        <v>83273</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -6618,31 +6618,31 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45174.22916666666</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45174.3125</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45174.10416666666</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2023-09-05 02:30:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2023-09-05 07:25:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J155" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="156">
@@ -6650,7 +6650,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>83306</v>
+        <v>83273</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -6658,31 +6658,31 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45174.3125</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.57986111111</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>45174.10416666666</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2023-09-05 02:30:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2023-09-05 07:25:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J156" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="157">
@@ -6690,39 +6690,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>83308</v>
+        <v>83273</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45174.3125</v>
+        <v>45174.57986111111</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.75</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>45174.1875</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2023-09-05 04:30:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2023-09-05 09:25:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J157" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="158">
@@ -6730,39 +6730,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>83308</v>
+        <v>83274</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>45174.1875</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2023-09-05 04:30:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2023-09-05 09:25:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J158" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="159">
@@ -6770,39 +6770,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>83348</v>
+        <v>83274</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.57986111111</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2023-09-05 11:52:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J159" s="3" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="160">
@@ -6810,39 +6810,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>83348</v>
+        <v>83274</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.57986111111</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.75</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.30277777778</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 07:16:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2023-09-05 11:52:00</t>
+          <t>2023-09-05 15:00:00</t>
         </is>
       </c>
       <c r="J160" s="3" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="161">
@@ -6850,39 +6850,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>83348</v>
+        <v>83275</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45174.61944444444</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2023-09-05 11:52:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J161" s="3" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="162">
@@ -6890,39 +6890,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>83351</v>
+        <v>83275</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>45174.20833333334</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2023-09-05 05:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J162" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="163">
@@ -6930,39 +6930,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>83351</v>
+        <v>83275</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.875</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>45174.20833333334</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2023-09-05 05:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2023-09-05 09:55:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J163" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="164">
@@ -6970,7 +6970,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>83352</v>
+        <v>83276</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -6978,31 +6978,31 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J164" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="165">
@@ -7010,7 +7010,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>83352</v>
+        <v>83276</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -7018,31 +7018,31 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J165" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="166">
@@ -7050,39 +7050,39 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>83353</v>
+        <v>83276</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.875</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 10:16:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 18:00:00</t>
         </is>
       </c>
       <c r="J166" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="167">
@@ -7090,39 +7090,39 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>83353</v>
+        <v>83284</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.41805555556</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 07:02:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 14:23:00</t>
         </is>
       </c>
       <c r="J167" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="168">
@@ -7130,39 +7130,39 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>83354</v>
+        <v>83284</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.60069444445</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2023-09-05 08:00:00</t>
+          <t>2023-09-05 07:02:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2023-09-05 12:55:00</t>
+          <t>2023-09-05 14:23:00</t>
         </is>
       </c>
       <c r="J168" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="169">
@@ -7170,39 +7170,39 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>83354</v>
+        <v>83284</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.60069444445</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>45174.66319444445</v>
+        <v>45174.72430555556</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2023-09-05 08:00:00</t>
+          <t>2023-09-05 07:02:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2023-09-05 12:55:00</t>
+          <t>2023-09-05 14:23:00</t>
         </is>
       </c>
       <c r="J169" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="170">
@@ -7210,7 +7210,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>83363</v>
+        <v>83285</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -7218,31 +7218,31 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.16805555556</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2023-09-05 09:00:00</t>
+          <t>2023-09-05 04:02:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2023-09-05 13:55:00</t>
+          <t>2023-09-05 11:23:00</t>
         </is>
       </c>
       <c r="J170" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="171">
@@ -7250,7 +7250,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>83363</v>
+        <v>83285</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -7258,31 +7258,31 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.16805555556</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2023-09-05 09:00:00</t>
+          <t>2023-09-05 04:02:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2023-09-05 13:55:00</t>
+          <t>2023-09-05 11:23:00</t>
         </is>
       </c>
       <c r="J171" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="172">
@@ -7290,39 +7290,39 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>83364</v>
+        <v>83285</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.47569444445</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.59930555556</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.16805555556</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 04:02:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 11:23:00</t>
         </is>
       </c>
       <c r="J172" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="173">
@@ -7330,39 +7330,39 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>83364</v>
+        <v>83296</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 09:30:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 13:55:00</t>
         </is>
       </c>
       <c r="J173" s="3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.1840277777777778</v>
       </c>
     </row>
     <row r="174">
@@ -7370,39 +7370,39 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>83375</v>
+        <v>83296</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 09:30:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2023-09-05 16:55:00</t>
+          <t>2023-09-05 13:55:00</t>
         </is>
       </c>
       <c r="J174" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.1840277777777778</v>
       </c>
     </row>
     <row r="175">
@@ -7410,39 +7410,39 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>83375</v>
+        <v>83300</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.47222222222</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 08:20:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2023-09-05 16:55:00</t>
+          <t>2023-09-05 10:00:00</t>
         </is>
       </c>
       <c r="J175" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="176">
@@ -7450,39 +7450,39 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>83375</v>
+        <v>83306</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.22916666666</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>45174.82986111111</v>
+        <v>45174.3125</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.10416666666</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 02:30:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2023-09-05 16:55:00</t>
+          <t>2023-09-05 07:25:00</t>
         </is>
       </c>
       <c r="J176" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="177">
@@ -7490,39 +7490,39 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>83376</v>
+        <v>83306</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.3125</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.43402777778</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.10416666666</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2023-09-05 08:00:00</t>
+          <t>2023-09-05 02:30:00</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2023-09-05 17:55:00</t>
+          <t>2023-09-05 07:25:00</t>
         </is>
       </c>
       <c r="J177" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="178">
@@ -7530,39 +7530,39 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>83376</v>
+        <v>83308</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.3125</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>45174.66319444445</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.1875</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2023-09-05 08:00:00</t>
+          <t>2023-09-05 04:30:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2023-09-05 17:55:00</t>
+          <t>2023-09-05 09:25:00</t>
         </is>
       </c>
       <c r="J178" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="179">
@@ -7570,39 +7570,39 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>83376</v>
+        <v>83308</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45174.66319444445</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>45174.87152777778</v>
+        <v>45174.51736111111</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.1875</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2023-09-05 08:00:00</t>
+          <t>2023-09-05 04:30:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2023-09-05 17:55:00</t>
+          <t>2023-09-05 09:25:00</t>
         </is>
       </c>
       <c r="J179" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="180">
@@ -7610,39 +7610,39 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>83378</v>
+        <v>83348</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45174.30555555555</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>45174.43055555555</v>
+        <v>45174.375</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>45174.18055555555</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2023-09-05 04:20:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2023-09-05 07:20:00</t>
+          <t>2023-09-05 11:52:00</t>
         </is>
       </c>
       <c r="J180" s="3" t="n">
-        <v>0.125</v>
+        <v>0.3277777777777778</v>
       </c>
     </row>
     <row r="181">
@@ -7650,39 +7650,39 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>83386</v>
+        <v>83348</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45174.48194444444</v>
+        <v>45174.375</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>45174.55138888889</v>
+        <v>45174.49652777778</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>45174.35694444444</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2023-09-05 08:34:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2023-09-05 10:14:00</t>
+          <t>2023-09-05 11:52:00</t>
         </is>
       </c>
       <c r="J181" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3277777777777778</v>
       </c>
     </row>
     <row r="182">
@@ -7690,39 +7690,39 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>83388</v>
+        <v>83348</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.49652777778</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>45174.44444444445</v>
+        <v>45174.61944444444</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2023-09-05 07:40:00</t>
+          <t>2023-09-05 11:52:00</t>
         </is>
       </c>
       <c r="J182" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3277777777777778</v>
       </c>
     </row>
     <row r="183">
@@ -7730,39 +7730,39 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>83527</v>
+        <v>83354</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45174.32638888889</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>45174.20138888889</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2023-09-05 04:50:00</t>
+          <t>2023-09-05 08:00:00</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2023-09-05 06:30:00</t>
+          <t>2023-09-05 12:55:00</t>
         </is>
       </c>
       <c r="J183" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="184">
@@ -7770,39 +7770,39 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>83530</v>
+        <v>83354</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.66319444445</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>45174.22222222222</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2023-09-05 05:20:00</t>
+          <t>2023-09-05 08:00:00</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 12:55:00</t>
         </is>
       </c>
       <c r="J184" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="185">
@@ -7810,39 +7810,39 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>83532</v>
+        <v>83363</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.5</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>45174.42361111111</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>45174.22916666666</v>
+        <v>45174.375</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2023-09-05 05:30:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2023-09-05 07:10:00</t>
+          <t>2023-09-05 17:04:00</t>
         </is>
       </c>
       <c r="J185" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="186">
@@ -7850,39 +7850,39 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>83541</v>
+        <v>83363</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>45174.61111111111</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.375</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2023-09-05 10:00:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2023-09-05 11:40:00</t>
+          <t>2023-09-05 17:04:00</t>
         </is>
       </c>
       <c r="J186" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="187">
@@ -7890,39 +7890,39 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>83547</v>
+        <v>83363</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45174.44861111111</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>45174.51805555556</v>
+        <v>45174.83611111111</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.375</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2023-09-05 07:46:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2023-09-05 09:26:00</t>
+          <t>2023-09-05 17:04:00</t>
         </is>
       </c>
       <c r="J187" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="188">
@@ -7930,39 +7930,39 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>83551</v>
+        <v>83364</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45174.54305555556</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>45174.6125</v>
+        <v>45174.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>45174.41805555556</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2023-09-05 10:02:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2023-09-05 11:42:00</t>
+          <t>2023-09-05 15:04:00</t>
         </is>
       </c>
       <c r="J188" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="189">
@@ -7970,39 +7970,39 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>83556</v>
+        <v>83364</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45174.44513888889</v>
+        <v>45174.5</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>45174.51458333333</v>
+        <v>45174.62152777778</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>45174.32013888889</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2023-09-05 07:41:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2023-09-05 09:21:00</t>
+          <t>2023-09-05 15:04:00</t>
         </is>
       </c>
       <c r="J189" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="190">
@@ -8010,39 +8010,39 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>83558</v>
+        <v>83364</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45174.55208333334</v>
+        <v>45174.62152777778</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.75277777778</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>45174.42708333334</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2023-09-05 10:15:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 15:04:00</t>
         </is>
       </c>
       <c r="J190" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="191">
@@ -8050,39 +8050,39 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>83562</v>
+        <v>83375</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>45174.54583333333</v>
+        <v>45174.5</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>45174.35138888889</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2023-09-05 08:26:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2023-09-05 10:06:00</t>
+          <t>2023-09-05 16:55:00</t>
         </is>
       </c>
       <c r="J191" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="192">
@@ -8090,39 +8090,39 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>83584</v>
+        <v>83375</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45174.46041666667</v>
+        <v>45174.5</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>45174.52986111111</v>
+        <v>45174.62152777778</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>45174.33541666667</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2023-09-05 08:03:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2023-09-05 09:43:00</t>
+          <t>2023-09-05 16:55:00</t>
         </is>
       </c>
       <c r="J192" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="193">
@@ -8130,39 +8130,39 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>83600</v>
+        <v>83375</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.62152777778</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>45174.50347222222</v>
+        <v>45174.82986111111</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>45174.30902777778</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2023-09-05 07:25:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2023-09-05 09:05:00</t>
+          <t>2023-09-05 16:55:00</t>
         </is>
       </c>
       <c r="J193" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="194">
@@ -8170,39 +8170,39 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>83601</v>
+        <v>83376</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45174.47013888889</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>45174.53958333333</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45174.34513888889</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2023-09-05 08:17:00</t>
+          <t>2023-09-05 08:00:00</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2023-09-05 09:57:00</t>
+          <t>2023-09-05 17:55:00</t>
         </is>
       </c>
       <c r="J194" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="195">
@@ -8210,39 +8210,39 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>83602</v>
+        <v>83376</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45174.47777777778</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>45174.54722222222</v>
+        <v>45174.66319444445</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45174.35277777778</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2023-09-05 08:28:00</t>
+          <t>2023-09-05 08:00:00</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2023-09-05 10:08:00</t>
+          <t>2023-09-05 17:55:00</t>
         </is>
       </c>
       <c r="J195" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="196">
@@ -8250,39 +8250,39 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>83614</v>
+        <v>83376</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45174.42986111111</v>
+        <v>45174.66319444445</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>45174.49930555555</v>
+        <v>45174.87152777778</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45174.30486111111</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2023-09-05 07:19:00</t>
+          <t>2023-09-05 08:00:00</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2023-09-05 08:59:00</t>
+          <t>2023-09-05 17:55:00</t>
         </is>
       </c>
       <c r="J196" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="197">
@@ -8290,39 +8290,39 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>83615</v>
+        <v>83378</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45174.47916666666</v>
+        <v>45174.30555555555</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>45174.54861111111</v>
+        <v>45174.43055555555</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.18055555555</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2023-09-05 08:30:00</t>
+          <t>2023-09-05 04:20:00</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2023-09-05 10:10:00</t>
+          <t>2023-09-05 07:20:00</t>
         </is>
       </c>
       <c r="J197" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="198">
@@ -8330,7 +8330,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>83617</v>
+        <v>83386</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -8338,27 +8338,27 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45174.44166666667</v>
+        <v>45174.48194444444</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>45174.51111111111</v>
+        <v>45174.55138888889</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45174.31666666667</v>
+        <v>45174.35694444444</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2023-09-05 07:36:00</t>
+          <t>2023-09-05 08:34:00</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2023-09-05 09:16:00</t>
+          <t>2023-09-05 10:14:00</t>
         </is>
       </c>
       <c r="J198" s="3" t="n">
@@ -8370,7 +8370,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>83623</v>
+        <v>83388</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -8378,27 +8378,27 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45174.43611111111</v>
+        <v>45174.375</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>45174.50555555556</v>
+        <v>45174.44444444445</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45174.31111111111</v>
+        <v>45174.25</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2023-09-05 07:28:00</t>
+          <t>2023-09-05 06:00:00</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2023-09-05 09:08:00</t>
+          <t>2023-09-05 07:40:00</t>
         </is>
       </c>
       <c r="J199" s="3" t="n">
@@ -8410,7 +8410,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>83634</v>
+        <v>83527</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -8418,27 +8418,27 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45174.33194444444</v>
+        <v>45174.32638888889</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>45174.40138888889</v>
+        <v>45174.39583333334</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45174.20694444444</v>
+        <v>45174.20138888889</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2023-09-05 04:58:00</t>
+          <t>2023-09-05 04:50:00</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2023-09-05 06:38:00</t>
+          <t>2023-09-05 06:30:00</t>
         </is>
       </c>
       <c r="J200" s="3" t="n">
@@ -8450,39 +8450,39 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>83646</v>
+        <v>83530</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45174.30763888889</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>45174.43263888889</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45174.18263888889</v>
+        <v>45174.22222222222</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2023-09-05 04:23:00</t>
+          <t>2023-09-05 05:20:00</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2023-09-05 07:23:00</t>
+          <t>2023-09-05 07:00:00</t>
         </is>
       </c>
       <c r="J201" s="3" t="n">
-        <v>0.125</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="202">
@@ -8490,39 +8490,39 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>83650</v>
+        <v>83532</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.42361111111</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(66, 66)</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.22916666666</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2023-09-05 09:00:00</t>
+          <t>2023-09-05 05:30:00</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2023-09-05 18:55:00</t>
+          <t>2023-09-05 07:10:00</t>
         </is>
       </c>
       <c r="J202" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="203">
@@ -8530,39 +8530,39 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>83650</v>
+        <v>83541</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.61111111111</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2023-09-05 09:00:00</t>
+          <t>2023-09-05 10:00:00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2023-09-05 18:55:00</t>
+          <t>2023-09-05 11:40:00</t>
         </is>
       </c>
       <c r="J203" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="204">
@@ -8570,39 +8570,39 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>83650</v>
+        <v>83547</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.44861111111</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>45174.91319444445</v>
+        <v>45174.51805555556</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2023-09-05 09:00:00</t>
+          <t>2023-09-05 07:46:00</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2023-09-05 18:55:00</t>
+          <t>2023-09-05 09:26:00</t>
         </is>
       </c>
       <c r="J204" s="3" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="205">
@@ -8610,39 +8610,39 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>83651</v>
+        <v>83551</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.54305555556</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.6125</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45174.125</v>
+        <v>45174.41805555556</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2023-09-05 03:00:00</t>
+          <t>2023-09-05 10:02:00</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2023-09-05 06:00:00</t>
+          <t>2023-09-05 11:42:00</t>
         </is>
       </c>
       <c r="J205" s="3" t="n">
-        <v>0.125</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="206">
@@ -8650,39 +8650,39 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>83703</v>
+        <v>83556</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.44513888889</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.51458333333</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.32013888889</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 07:41:00</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2023-09-05 11:58:00</t>
+          <t>2023-09-05 09:21:00</t>
         </is>
       </c>
       <c r="J206" s="3" t="n">
-        <v>0.3319444444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="207">
@@ -8690,18 +8690,18 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>83703</v>
+        <v>83558</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.55208333334</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.62152777778</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.42708333334</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 10:15:00</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2023-09-05 11:58:00</t>
+          <t>2023-09-05 11:55:00</t>
         </is>
       </c>
       <c r="J207" s="3" t="n">
-        <v>0.3319444444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="208">
@@ -8730,18 +8730,18 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>83703</v>
+        <v>83562</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.47638888889</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.54583333333</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8749,20 +8749,20 @@
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45174.16666666666</v>
+        <v>45174.35138888889</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2023-09-05 04:00:00</t>
+          <t>2023-09-05 08:26:00</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2023-09-05 11:58:00</t>
+          <t>2023-09-05 10:06:00</t>
         </is>
       </c>
       <c r="J208" s="3" t="n">
-        <v>0.3319444444444444</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="209">
@@ -8770,39 +8770,39 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>83728</v>
+        <v>83584</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45174.30138888889</v>
+        <v>45174.46041666667</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.52986111111</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45174.17638888889</v>
+        <v>45174.33541666667</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2023-09-05 04:14:00</t>
+          <t>2023-09-05 08:03:00</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 09:43:00</t>
         </is>
       </c>
       <c r="J209" s="3" t="n">
-        <v>0.3201388888888889</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="210">
@@ -8810,39 +8810,39 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>83728</v>
+        <v>83600</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.43402777778</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>45174.45486111111</v>
+        <v>45174.50347222222</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45174.17638888889</v>
+        <v>45174.30902777778</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2023-09-05 04:14:00</t>
+          <t>2023-09-05 07:25:00</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 09:05:00</t>
         </is>
       </c>
       <c r="J210" s="3" t="n">
-        <v>0.3201388888888889</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="211">
@@ -8850,18 +8850,18 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>83728</v>
+        <v>83601</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45174.45486111111</v>
+        <v>45174.47013888889</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.53958333333</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8869,20 +8869,20 @@
         </is>
       </c>
       <c r="G211" s="2" t="n">
-        <v>45174.17638888889</v>
+        <v>45174.34513888889</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2023-09-05 04:14:00</t>
+          <t>2023-09-05 08:17:00</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 09:57:00</t>
         </is>
       </c>
       <c r="J211" s="3" t="n">
-        <v>0.3201388888888889</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="212">
@@ -8890,39 +8890,39 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>83745</v>
+        <v>83602</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45174.35138888889</v>
+        <v>45174.47777777778</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.54722222222</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
-        <v>45174.22638888889</v>
+        <v>45174.35277777778</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2023-09-05 05:26:00</t>
+          <t>2023-09-05 08:28:00</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2023-09-05 08:26:00</t>
+          <t>2023-09-05 10:08:00</t>
         </is>
       </c>
       <c r="J212" s="3" t="n">
-        <v>0.125</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="213">
@@ -8930,7 +8930,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>83748</v>
+        <v>83614</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -8938,27 +8938,27 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.42986111111</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.49930555555</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
-        <v>45174.22222222222</v>
+        <v>45174.30486111111</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2023-09-05 05:20:00</t>
+          <t>2023-09-05 07:19:00</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2023-09-05 07:00:00</t>
+          <t>2023-09-05 08:59:00</t>
         </is>
       </c>
       <c r="J213" s="3" t="n">
@@ -8970,7 +8970,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>83749</v>
+        <v>83615</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -8978,31 +8978,31 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.54861111111</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="G214" s="2" t="n">
-        <v>45174.22222222222</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2023-09-05 05:20:00</t>
+          <t>2023-09-05 08:30:00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 10:10:00</t>
         </is>
       </c>
       <c r="J214" s="3" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="215">
@@ -9010,39 +9010,39 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>83749</v>
+        <v>83617</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.44166666667</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.51111111111</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G215" s="2" t="n">
-        <v>45174.22222222222</v>
+        <v>45174.31666666667</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2023-09-05 05:20:00</t>
+          <t>2023-09-05 07:36:00</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 09:16:00</t>
         </is>
       </c>
       <c r="J215" s="3" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="216">
@@ -9050,39 +9050,39 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>83749</v>
+        <v>83623</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.43611111111</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.50555555556</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="G216" s="2" t="n">
-        <v>45174.22222222222</v>
+        <v>45174.31111111111</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2023-09-05 05:20:00</t>
+          <t>2023-09-05 07:28:00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2023-09-05 11:55:00</t>
+          <t>2023-09-05 09:08:00</t>
         </is>
       </c>
       <c r="J216" s="3" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="217">
@@ -9090,39 +9090,39 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>83764</v>
+        <v>83634</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45174.29513888889</v>
+        <v>45174.33194444444</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>45174.42013888889</v>
+        <v>45174.40138888889</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="G217" s="2" t="n">
-        <v>45174.17013888889</v>
+        <v>45174.20694444444</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2023-09-05 04:05:00</t>
+          <t>2023-09-05 04:58:00</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2023-09-05 07:05:00</t>
+          <t>2023-09-05 06:38:00</t>
         </is>
       </c>
       <c r="J217" s="3" t="n">
-        <v>0.125</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="218">
@@ -9130,39 +9130,39 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>83786</v>
+        <v>83646</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.30763888889</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.43263888889</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="G218" s="2" t="n">
-        <v>45174.14583333334</v>
+        <v>45174.18263888889</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2023-09-05 03:30:00</t>
+          <t>2023-09-05 04:23:00</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2023-09-05 11:05:00</t>
+          <t>2023-09-05 07:23:00</t>
         </is>
       </c>
       <c r="J218" s="3" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="219">
@@ -9170,39 +9170,39 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>83786</v>
+        <v>83650</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.5</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
-        <v>45174.14583333334</v>
+        <v>45174.375</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2023-09-05 03:30:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2023-09-05 11:05:00</t>
+          <t>2023-09-05 18:55:00</t>
         </is>
       </c>
       <c r="J219" s="3" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="220">
@@ -9210,39 +9210,39 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>83786</v>
+        <v>83650</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>45174.58680555555</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
-        <v>45174.14583333334</v>
+        <v>45174.375</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2023-09-05 03:30:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2023-09-05 11:05:00</t>
+          <t>2023-09-05 18:55:00</t>
         </is>
       </c>
       <c r="J220" s="3" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="221">
@@ -9250,39 +9250,39 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>83835</v>
+        <v>83650</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.70486111111</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.91319444445</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
-        <v>45174.28888888889</v>
+        <v>45174.375</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2023-09-05 06:56:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 18:55:00</t>
         </is>
       </c>
       <c r="J221" s="3" t="n">
-        <v>0.1659722222222222</v>
+        <v>0.4131944444444444</v>
       </c>
     </row>
     <row r="222">
@@ -9290,39 +9290,39 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>83835</v>
+        <v>83651</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.25</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.375</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45174.28888888889</v>
+        <v>45174.125</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2023-09-05 06:56:00</t>
+          <t>2023-09-05 03:00:00</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2023-09-05 10:55:00</t>
+          <t>2023-09-05 06:00:00</t>
         </is>
       </c>
       <c r="J222" s="3" t="n">
-        <v>0.1659722222222222</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="223">
@@ -9330,7 +9330,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>83888</v>
+        <v>83701</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -9338,27 +9338,27 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.5</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.56944444445</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.375</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2023-09-05 12:20:00</t>
+          <t>2023-09-05 09:00:00</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2023-09-05 14:00:00</t>
+          <t>2023-09-05 10:40:00</t>
         </is>
       </c>
       <c r="J223" s="3" t="n">
@@ -9370,7 +9370,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>83895</v>
+        <v>83702</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -9378,27 +9378,27 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45174.49861111111</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>45174.55416666667</v>
+        <v>45174.56805555556</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="G224" s="2" t="n">
-        <v>45174.35972222222</v>
+        <v>45174.37361111111</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2023-09-05 08:38:00</t>
+          <t>2023-09-05 08:58:00</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2023-09-05 10:18:00</t>
+          <t>2023-09-05 10:38:00</t>
         </is>
       </c>
       <c r="J224" s="3" t="n">
@@ -9410,39 +9410,39 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>83702</v>
+        <v>83703</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45174.49861111111</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>45174.56805555556</v>
+        <v>45174.375</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
-        <v>45174.37361111111</v>
+        <v>45174.16666666666</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2023-09-05 08:58:00</t>
+          <t>2023-09-05 04:00:00</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2023-09-05 10:38:00</t>
+          <t>2023-09-05 11:58:00</t>
         </is>
       </c>
       <c r="J225" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.3319444444444444</v>
       </c>
     </row>
     <row r="226">
@@ -9450,38 +9450,1758 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>83701</v>
+        <v>83703</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45174.49652777778</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="J226" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>83703</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45174.49652777778</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45174.62361111111</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="J227" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>83728</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>45174.30138888889</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45174.33333333334</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>45174.17638888889</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:14:00</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J228" s="3" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>83728</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>45174.33333333334</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45174.45486111111</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>45174.17638888889</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:14:00</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J229" s="3" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>83728</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45174.45486111111</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45174.62152777778</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>45174.17638888889</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:14:00</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J230" s="3" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>83730</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
           <t>retiro_full_sai</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D231" s="2" t="n">
+        <v>45174.70763888889</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45174.77708333333</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>45174.58263888889</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:59:00</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:39:00</t>
+        </is>
+      </c>
+      <c r="J231" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>83745</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>45174.35138888889</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45174.47638888889</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>45174.22638888889</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:26:00</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:26:00</t>
+        </is>
+      </c>
+      <c r="J232" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>83748</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>45174.34722222222</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>(69, 69)</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="J233" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>83749</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>45174.34722222222</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J234" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>83749</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="E235" s="2" t="n">
         <v>45174.5</v>
       </c>
-      <c r="E226" s="2" t="n">
-        <v>45174.56944444445</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>(39, 39)</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="n">
-        <v>45174.375</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2023-09-05 09:00:00</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>2023-09-05 10:40:00</t>
-        </is>
-      </c>
-      <c r="J226" s="3" t="n">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J235" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>83749</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>45174.5</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45174.62152777778</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="J236" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>83764</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45174.29513888889</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45174.42013888889</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>45174.17013888889</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:05:00</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:05:00</t>
+        </is>
+      </c>
+      <c r="J237" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>83786</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45174.27083333334</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45174.35416666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="J238" s="3" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>83786</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45174.35416666666</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45174.47569444445</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="J239" s="3" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>83786</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45174.47569444445</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45174.58680555555</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="J240" s="3" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>83835</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45174.41388888889</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45174.45833333334</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="J241" s="3" t="n">
+        <v>0.1659722222222222</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>83835</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45174.45833333334</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45174.57986111111</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="J242" s="3" t="n">
+        <v>0.1659722222222222</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>83888</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45174.63888888889</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45174.70833333334</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="J243" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>83895</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45174.48472222222</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45174.55416666667</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>45174.35972222222</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:38:00</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:18:00</t>
+        </is>
+      </c>
+      <c r="J244" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>83897</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J245" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>83898</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J246" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>83899</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J247" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>83900</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J248" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>83901</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J249" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>83902</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J250" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>83903</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="J251" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>83904</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="J252" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>83905</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="J253" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>83906</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="J254" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>83907</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="J255" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>83908</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J256" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>83909</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J257" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>83910</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J258" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>83911</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J259" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>83912</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J260" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>83913</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J261" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>83914</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J262" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>83915</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J263" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>83916</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J264" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>83917</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>(68, 68)</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J265" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>83918</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>(59, 59)</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="J266" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>83919</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="J267" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>83603</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45174.64166666667</v>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45174.71111111111</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="n">
+        <v>45174.51666666667</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:24:00</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:04:00</t>
+        </is>
+      </c>
+      <c r="J268" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>83581</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45174.65694444445</v>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45174.72638888889</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>45174.53194444445</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:46:00</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:26:00</t>
+        </is>
+      </c>
+      <c r="J269" s="3" t="n">
         <v>0.06944444444444445</v>
       </c>
     </row>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81155</v>
+        <v>81144</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,14 +487,14 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.74097222222</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.79166666666</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81155</v>
+        <v>81144</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.79166666666</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45183.54513888889</v>
+        <v>45190.97555555555</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81155</v>
+        <v>81396</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45183.54513888889</v>
+        <v>45190.5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45183.66597222222</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81381</v>
+        <v>81396</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -590,27 +590,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81381</v>
+        <v>81396</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45183.50347222222</v>
+        <v>45190.86111111111</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -619,27 +619,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81381</v>
+        <v>83321</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45183.50347222222</v>
+        <v>45190.44583333333</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45183.62430555555</v>
+        <v>45190.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -648,27 +648,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81394</v>
+        <v>83321</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45183.29166666666</v>
+        <v>45190.5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.60125</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -677,27 +677,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81394</v>
+        <v>83321</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.60125</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45183.46180555555</v>
+        <v>45190.72208333333</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81394</v>
+        <v>83330</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45183.46180555555</v>
+        <v>45190.25</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45183.58263888889</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -735,23 +735,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81416</v>
+        <v>83330</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45183.49027777778</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45183.61527777778</v>
+        <v>45190.43458333334</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -764,23 +764,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>81524</v>
+        <v>83330</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45183.54722222222</v>
+        <v>45190.43458333334</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45183.61666666667</v>
+        <v>45190.55541666667</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -793,23 +793,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82532</v>
+        <v>83355</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45183.52916666667</v>
+        <v>45190.44027777778</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.50972222222</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82532</v>
+        <v>83355</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.51805555556</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -851,23 +851,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82532</v>
+        <v>83355</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45183.78333333333</v>
+        <v>45190.68708333333</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -880,23 +880,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82596</v>
+        <v>83355</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45183.3125</v>
+        <v>45190.68708333333</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.81763888889</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82596</v>
+        <v>83559</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45183.52083333334</v>
+        <v>45190.5625</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -938,23 +938,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82596</v>
+        <v>83559</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45183.52083333334</v>
+        <v>45190.5625</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45183.63819444444</v>
+        <v>45190.62708333333</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -967,23 +967,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82597</v>
+        <v>83559</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.62708333333</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.74791666667</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -996,23 +996,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82597</v>
+        <v>83602</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45183.60416666666</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1025,23 +1025,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82597</v>
+        <v>83602</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(69, 69)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45183.60416666666</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45183.72152777778</v>
+        <v>45190.54375</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1054,23 +1054,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83088</v>
+        <v>83602</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45183.69861111111</v>
+        <v>45190.54375</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.66458333333</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83088</v>
+        <v>83626</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.35972222222</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45183.875</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1112,23 +1112,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83088</v>
+        <v>83626</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45183.875</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45183.99236111111</v>
+        <v>45190.51680555556</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1141,23 +1141,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83179</v>
+        <v>83626</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>almacenamiento</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45183.42569444444</v>
+        <v>45190.5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.59027777778</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1170,23 +1170,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83179</v>
+        <v>83626</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.51680555556</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45183.53819444445</v>
+        <v>45190.63694444444</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83194</v>
+        <v>83632</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45183.46458333333</v>
+        <v>45190.3125</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45183.52083333334</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83194</v>
+        <v>83632</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45183.52083333334</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45183.64583333334</v>
+        <v>45190.46041666667</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1257,11 +1257,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83194</v>
+        <v>83632</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45183.64583333334</v>
+        <v>45190.46041666667</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45183.76458333333</v>
+        <v>45190.58125</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1286,11 +1286,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83199</v>
+        <v>83661</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45183.34236111111</v>
+        <v>45190.5</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1315,11 +1315,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83199</v>
+        <v>83661</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45183.45486111111</v>
+        <v>45190.68458333334</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1344,23 +1344,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83206</v>
+        <v>83661</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45183.50902777778</v>
+        <v>45190.68458333334</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.80541666667</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1373,23 +1373,23 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83206</v>
+        <v>83663</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.57083333333</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45183.62152777778</v>
+        <v>45190.625</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1402,23 +1402,23 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83220</v>
+        <v>83663</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45183.34305555555</v>
+        <v>45190.625</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.72625</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83220</v>
+        <v>83663</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.72625</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45183.44583333333</v>
+        <v>45190.84708333333</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1460,11 +1460,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83249</v>
+        <v>83704</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45183.32013888889</v>
+        <v>45190.29166666666</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.375</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1489,11 +1489,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83249</v>
+        <v>83704</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.375</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45183.42916666667</v>
+        <v>45190.5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1518,23 +1518,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83249</v>
+        <v>83704</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45183.42916666667</v>
+        <v>45190.5</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45183.54722222222</v>
+        <v>45190.68055555555</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1547,23 +1547,23 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83317</v>
+        <v>83708</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.37013888889</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45183.48611111111</v>
+        <v>45190.4375</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1576,23 +1576,23 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83318</v>
+        <v>83708</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45183.27916666667</v>
+        <v>45190.4375</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.53958333333</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1605,23 +1605,23 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83318</v>
+        <v>83708</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.53958333333</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.71041666667</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1634,23 +1634,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83318</v>
+        <v>83709</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.43263888889</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45183.5375</v>
+        <v>45190.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83319</v>
+        <v>83709</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45183.6125</v>
+        <v>45190.5</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.60208333333</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1692,23 +1692,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83319</v>
+        <v>83709</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.60208333333</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.77291666667</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1721,23 +1721,23 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83319</v>
+        <v>83772</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.24444444444</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45183.87083333333</v>
+        <v>45190.3125</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1750,23 +1750,23 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83320</v>
+        <v>83772</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45183.32083333333</v>
+        <v>45190.3125</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.40722222222</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1779,23 +1779,23 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83320</v>
+        <v>83772</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.40722222222</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.53986111111</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1808,23 +1808,23 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83320</v>
+        <v>83774</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.51527777778</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45183.57916666667</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83321</v>
+        <v>83774</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45183.55</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45183.61944444444</v>
+        <v>45190.67805555555</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1866,23 +1866,23 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83323</v>
+        <v>83774</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.67805555555</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.81069444444</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1895,23 +1895,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83323</v>
+        <v>83777</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.55902777778</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.62847222222</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1924,23 +1924,23 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83323</v>
+        <v>83778</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.40555555555</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45183.6625</v>
+        <v>45190.475</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1953,23 +1953,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83324</v>
+        <v>83781</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(65, 65)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45183.3625</v>
+        <v>45190.56736111111</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.63680555556</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1982,23 +1982,23 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83324</v>
+        <v>83782</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(46, 46)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.39513888889</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.46458333333</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2011,23 +2011,23 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83324</v>
+        <v>83841</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.38194444445</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45183.62083333333</v>
+        <v>45190.4375</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2040,23 +2040,23 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83327</v>
+        <v>83841</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45183.44583333333</v>
+        <v>45190.4375</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.51958333333</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2069,23 +2069,23 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83327</v>
+        <v>83841</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.51958333333</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.64041666667</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2098,27 +2098,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83327</v>
+        <v>83884</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.25</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45183.70416666667</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -2127,27 +2127,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83394</v>
+        <v>83884</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45183.47361111111</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -2156,27 +2156,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83399</v>
+        <v>83884</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(67, 67)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45183.41875</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45183.48819444444</v>
+        <v>45190.61111111111</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -2185,23 +2185,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83400</v>
+        <v>83921</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45183.52777777778</v>
+        <v>45190.71944444445</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45183.59722222222</v>
+        <v>45190.77083333334</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2214,23 +2214,23 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83405</v>
+        <v>83921</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45183.425</v>
+        <v>45190.77083333334</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45183.49444444444</v>
+        <v>45190.89583333334</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2243,23 +2243,23 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83406</v>
+        <v>83921</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45183.32916666667</v>
+        <v>45190.89583333334</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45183.39861111111</v>
+        <v>45191.01388888889</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2272,23 +2272,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83411</v>
+        <v>83935</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45183.53055555555</v>
+        <v>45190.27083333334</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45183.6</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2301,23 +2301,23 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83414</v>
+        <v>83935</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2330,23 +2330,23 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83421</v>
+        <v>83935</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.65555555555</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2359,23 +2359,23 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83433</v>
+        <v>83967</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45183.55138888889</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45183.62083333333</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83435</v>
+        <v>83967</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2397,14 +2397,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45183.54027777778</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45183.60972222222</v>
+        <v>45190.51791666666</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2417,23 +2417,23 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83436</v>
+        <v>83967</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45183.4</v>
+        <v>45190.51791666666</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.63875</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2446,11 +2446,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83441</v>
+        <v>83976</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(56, 56)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45183.42638888889</v>
+        <v>45190.57222222222</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45183.49583333333</v>
+        <v>45190.64166666667</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2475,23 +2475,23 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83454</v>
+        <v>83987</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45183.42222222222</v>
+        <v>45190.60208333333</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45183.49166666667</v>
+        <v>45190.64583333334</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2504,23 +2504,23 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83455</v>
+        <v>83987</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45183.4125</v>
+        <v>45190.64583333334</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45183.48194444444</v>
+        <v>45190.72916666666</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2533,23 +2533,23 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83456</v>
+        <v>83987</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45183.425</v>
+        <v>45190.72916666666</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45183.49444444444</v>
+        <v>45190.91666666666</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2562,23 +2562,23 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83463</v>
+        <v>83988</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45183.42708333334</v>
+        <v>45190.39375</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45183.49652777778</v>
+        <v>45190.4375</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83468</v>
+        <v>83988</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45183.40972222222</v>
+        <v>45190.4375</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.52083333334</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2620,23 +2620,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83469</v>
+        <v>83988</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45183.44375</v>
+        <v>45190.52083333334</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45183.51319444444</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2649,23 +2649,23 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83470</v>
+        <v>83991</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45183.32638888889</v>
+        <v>45190.45625</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2678,23 +2678,23 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83473</v>
+        <v>83991</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51, 51)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45183.42916666667</v>
+        <v>45190.5</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45183.49861111111</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2707,23 +2707,23 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83475</v>
+        <v>83991</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45183.43125</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45183.50069444445</v>
+        <v>45190.77083333334</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2736,23 +2736,23 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83476</v>
+        <v>83992</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(66, 66)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45183.54861111111</v>
+        <v>45190.31041666667</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45183.61805555555</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2765,23 +2765,23 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83477</v>
+        <v>83992</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(57, 57)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45183.46527777778</v>
+        <v>45190.4375</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2794,23 +2794,23 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83482</v>
+        <v>83992</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45183.40833333333</v>
+        <v>45190.4375</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45183.47777777778</v>
+        <v>45190.625</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2823,23 +2823,23 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83486</v>
+        <v>83994</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.58125</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45183.47361111111</v>
+        <v>45190.625</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2852,23 +2852,23 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83487</v>
+        <v>83994</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45183.53888888889</v>
+        <v>45190.625</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45183.60833333333</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83489</v>
+        <v>83994</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45183.42361111111</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45183.49305555555</v>
+        <v>45190.89583333334</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2910,27 +2910,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83491</v>
+        <v>84024</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45183.42291666667</v>
+        <v>45190.27847222222</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45183.49236111111</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2939,27 +2939,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83492</v>
+        <v>84024</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45183.52916666667</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45183.59861111111</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2968,27 +2968,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83504</v>
+        <v>84024</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45183.54305555556</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45183.6125</v>
+        <v>45190.57708333333</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2997,27 +2997,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>83505</v>
+        <v>84025</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45183.43333333333</v>
+        <v>45190.36180555556</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45183.50277777778</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3026,27 +3026,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83509</v>
+        <v>84025</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45183.41041666667</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45183.47986111111</v>
+        <v>45190.54166666666</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3055,27 +3055,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83510</v>
+        <v>84025</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45183.41527777778</v>
+        <v>45190.54166666666</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45183.48472222222</v>
+        <v>45190.66041666667</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3084,27 +3084,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83517</v>
+        <v>84034</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.3125</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45183.61111111111</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3113,27 +3113,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83519</v>
+        <v>84034</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45183.42083333333</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45183.49027777778</v>
+        <v>45190.52083333334</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3142,27 +3142,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83524</v>
+        <v>84034</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45183.3875</v>
+        <v>45190.52083333334</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45183.45694444444</v>
+        <v>45190.64166666667</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3171,11 +3171,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83566</v>
+        <v>84036</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3200,11 +3200,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>83566</v>
+        <v>84036</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45183.61041666667</v>
+        <v>45190.53611111111</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3229,11 +3229,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>83566</v>
+        <v>84036</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3242,10 +3242,10 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45183.61041666667</v>
+        <v>45190.53611111111</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45183.81875</v>
+        <v>45190.70347222222</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3258,11 +3258,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>83597</v>
+        <v>84051</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3271,14 +3271,14 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.3125</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3287,11 +3287,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>83597</v>
+        <v>84051</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3300,14 +3300,14 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.485</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>83597</v>
+        <v>84113</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.36875</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45183.66805555556</v>
+        <v>45190.43819444445</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3345,11 +3345,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>83608</v>
+        <v>84124</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.36458333334</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.375</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3374,11 +3374,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>83608</v>
+        <v>84124</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.375</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45183.8375</v>
+        <v>45190.49583333333</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3403,23 +3403,23 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>83608</v>
+        <v>84124</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45183.8375</v>
+        <v>45190.49583333333</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45184.0125</v>
+        <v>45190.56875</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3432,11 +3432,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>83612</v>
+        <v>84125</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45183.66944444444</v>
+        <v>45190.48958333334</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45183.72916666666</v>
+        <v>45190.5</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>83612</v>
+        <v>84125</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45183.72916666666</v>
+        <v>45190.5</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45183.81041666667</v>
+        <v>45190.62083333333</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3490,23 +3490,23 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>83612</v>
+        <v>84125</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>(70, 70)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45183.81041666667</v>
+        <v>45190.62083333333</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45183.98888888889</v>
+        <v>45190.69375</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3519,11 +3519,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83629</v>
+        <v>84126</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3532,10 +3532,10 @@
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45183.25</v>
+        <v>45190.57291666666</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83629</v>
+        <v>84126</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45183.44375</v>
+        <v>45190.70416666667</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3577,23 +3577,23 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83629</v>
+        <v>84126</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45183.44375</v>
+        <v>45190.70416666667</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45183.61527777778</v>
+        <v>45190.77708333333</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3606,11 +3606,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83707</v>
+        <v>84127</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45183.26597222222</v>
+        <v>45190.65625</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3635,11 +3635,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83707</v>
+        <v>84127</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3648,10 +3648,10 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45183.42569444444</v>
+        <v>45190.7875</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3664,23 +3664,23 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83707</v>
+        <v>84127</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45183.42569444444</v>
+        <v>45190.7875</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45183.59652777778</v>
+        <v>45190.86041666667</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3693,27 +3693,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>83711</v>
+        <v>84128</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45183.53680555556</v>
+        <v>45190.875</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45183.60416666666</v>
+        <v>45190.94444444445</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3722,27 +3722,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>83711</v>
+        <v>84129</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45183.60416666666</v>
+        <v>45190.38194444445</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45183.69652777778</v>
+        <v>45190.45138888889</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3751,23 +3751,23 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83711</v>
+        <v>84130</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45183.69652777778</v>
+        <v>45190.53680555556</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45183.86736111111</v>
+        <v>45190.60416666666</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3780,23 +3780,23 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>83714</v>
+        <v>84130</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45183.49513888889</v>
+        <v>45190.60416666666</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.70625</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3809,23 +3809,23 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>83714</v>
+        <v>84130</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.70625</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45183.65486111111</v>
+        <v>45190.83680555555</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3838,23 +3838,23 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>83714</v>
+        <v>84133</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>(47, 47)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45183.65486111111</v>
+        <v>45190.32638888889</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45183.82569444444</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3867,23 +3867,23 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>83715</v>
+        <v>84138</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45183.39097222222</v>
+        <v>45190.75972222222</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.82916666667</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3896,23 +3896,23 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>83715</v>
+        <v>84140</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45183.55069444444</v>
+        <v>45190.40277777778</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3925,23 +3925,23 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>83715</v>
+        <v>84141</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45183.55069444444</v>
+        <v>45190.32847222222</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45183.72152777778</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3954,23 +3954,23 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>83723</v>
+        <v>84141</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45183.43263888889</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.49791666667</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3983,23 +3983,23 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>83723</v>
+        <v>84141</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.49791666667</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>45183.59236111111</v>
+        <v>45190.62847222222</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4012,23 +4012,23 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>83723</v>
+        <v>84142</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>45183.59236111111</v>
+        <v>45190.35277777778</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45183.76319444444</v>
+        <v>45190.42222222222</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4041,23 +4041,23 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>83839</v>
+        <v>84143</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.67222222222</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.74166666667</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4070,23 +4070,23 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>83839</v>
+        <v>84146</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.28680555556</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45183.72916666666</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4099,23 +4099,23 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>83839</v>
+        <v>84146</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>45183.72916666666</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45183.88194444445</v>
+        <v>45190.45625</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4128,23 +4128,23 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>83856</v>
+        <v>84146</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.45625</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.58680555555</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4157,23 +4157,23 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83856</v>
+        <v>84147</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.3625</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.43194444444</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4186,23 +4186,23 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>83856</v>
+        <v>84214</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>45183.5625</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45183.67916666667</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4215,23 +4215,23 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>83861</v>
+        <v>84214</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>45183.29583333333</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45183.35416666666</v>
+        <v>45190.50930555556</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4244,23 +4244,23 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>83861</v>
+        <v>84214</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>45183.35416666666</v>
+        <v>45190.50930555556</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45183.475</v>
+        <v>45190.62597222222</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4273,11 +4273,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>83933</v>
+        <v>84220</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>45183.27083333334</v>
+        <v>45190.49583333333</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45183.35416666666</v>
+        <v>45190.60416666666</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>83933</v>
+        <v>84220</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>45183.35416666666</v>
+        <v>45190.60416666666</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.72916666666</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4331,11 +4331,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>83937</v>
+        <v>84221</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>45183.43819444445</v>
+        <v>45190.32916666667</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.4375</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4360,11 +4360,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>83937</v>
+        <v>84221</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.4375</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45183.60902777778</v>
+        <v>45190.5625</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4389,23 +4389,23 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>83937</v>
+        <v>84229</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>45183.60902777778</v>
+        <v>45190.29583333333</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45183.73541666667</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4418,23 +4418,23 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>83946</v>
+        <v>84229</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>45183.31319444445</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.49916666667</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>83946</v>
+        <v>84229</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.49916666667</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.62</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4476,11 +4476,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>83948</v>
+        <v>84232</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>45183.31319444445</v>
+        <v>45190.34375</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4505,11 +4505,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>83948</v>
+        <v>84232</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4518,10 +4518,10 @@
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.52430555555</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4534,11 +4534,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>83948</v>
+        <v>84232</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4547,10 +4547,10 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.52430555555</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45183.60902777778</v>
+        <v>45190.64236111111</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4563,11 +4563,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>84009</v>
+        <v>84235</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>45183.69236111111</v>
+        <v>45190.27638888889</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4592,11 +4592,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>84009</v>
+        <v>84235</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>45183.75</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45183.82986111111</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4621,11 +4621,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>84009</v>
+        <v>84235</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>45183.82986111111</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45183.98263888889</v>
+        <v>45190.57638888889</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4650,11 +4650,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>84010</v>
+        <v>84239</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>(71, 71)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4663,14 +4663,14 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>45183.40486111111</v>
+        <v>45190.75</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.83333333334</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4679,11 +4679,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>84010</v>
+        <v>84239</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>(71, 71)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4692,14 +4692,14 @@
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.83333333334</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45183.54513888889</v>
+        <v>45190.95833333334</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4708,11 +4708,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>84010</v>
+        <v>84239</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>(71, 71)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4721,14 +4721,14 @@
         </is>
       </c>
       <c r="E148" s="2" t="n">
-        <v>45183.54513888889</v>
+        <v>45190.95833333334</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45183.66388888889</v>
+        <v>45191.11111111111</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4737,11 +4737,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>84011</v>
+        <v>84247</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4750,14 +4750,14 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>45183.36319444444</v>
+        <v>45190.57222222222</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.625</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4766,11 +4766,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>84011</v>
+        <v>84247</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4779,14 +4779,14 @@
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.625</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45183.50347222222</v>
+        <v>45190.74472222223</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4795,11 +4795,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>84011</v>
+        <v>84247</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4808,14 +4808,14 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>45183.50347222222</v>
+        <v>45190.74472222223</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45183.62430555555</v>
+        <v>45190.86</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4824,11 +4824,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>84012</v>
+        <v>84249</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4837,14 +4837,14 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45183.32152777778</v>
+        <v>45190.36319444444</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4853,11 +4853,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>84012</v>
+        <v>84249</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4866,14 +4866,14 @@
         </is>
       </c>
       <c r="E153" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45183.46180555555</v>
+        <v>45190.48777777778</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4882,27 +4882,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>84012</v>
+        <v>84251</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>45183.46180555555</v>
+        <v>45190.65416666667</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45183.58055555556</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4911,23 +4911,23 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>84013</v>
+        <v>84251</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45183.52638888889</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45183.59583333333</v>
+        <v>45190.83361111111</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4940,23 +4940,23 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>84026</v>
+        <v>84275</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45183.57986111111</v>
+        <v>45190.57430555556</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45183.64930555555</v>
+        <v>45190.625</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -4969,27 +4969,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>84027</v>
+        <v>84275</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>45183.29166666666</v>
+        <v>45190.625</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.72708333333</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4998,27 +4998,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>84027</v>
+        <v>84275</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E158" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.72708333333</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>45183.48680555556</v>
+        <v>45190.84166666667</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>84027</v>
+        <v>84280</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>45183.48680555556</v>
+        <v>45190.59722222222</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>45183.56388888889</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5056,11 +5056,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>84028</v>
+        <v>84282</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5069,14 +5069,14 @@
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>45183.38611111111</v>
+        <v>45190.61388888889</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5085,11 +5085,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>84028</v>
+        <v>84282</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5098,14 +5098,14 @@
         </is>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>45183.52847222222</v>
+        <v>45190.76888888889</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5114,27 +5114,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>84028</v>
+        <v>84283</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45183.52847222222</v>
+        <v>45190.3625</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5143,27 +5143,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>84029</v>
+        <v>84283</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45183.42777777778</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.50833333333</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5172,27 +5172,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>84029</v>
+        <v>84283</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.50833333333</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>45183.57013888889</v>
+        <v>45190.625</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5201,27 +5201,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>84029</v>
+        <v>84291</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E165" s="2" t="n">
-        <v>45183.57013888889</v>
+        <v>45190.30972222222</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>45183.64722222222</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5230,27 +5230,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>84030</v>
+        <v>84291</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E166" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.50138888889</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5259,27 +5259,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>84030</v>
+        <v>84291</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E167" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.50138888889</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>45183.61180555556</v>
+        <v>45190.67361111111</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5288,27 +5288,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>84030</v>
+        <v>84295</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E168" s="2" t="n">
-        <v>45183.61180555556</v>
+        <v>45190.31388888889</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>45183.68888888889</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>84031</v>
+        <v>84295</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5326,18 +5326,18 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E169" s="2" t="n">
-        <v>45183.55277777778</v>
+        <v>45190.35416666666</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.4875</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>84031</v>
+        <v>84295</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5355,18 +5355,18 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E170" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.4875</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>45183.69513888889</v>
+        <v>45190.66319444445</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5375,27 +5375,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>84031</v>
+        <v>84303</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E171" s="2" t="n">
-        <v>45183.69513888889</v>
+        <v>45190.25</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>45183.77222222222</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5404,23 +5404,23 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>84039</v>
+        <v>84303</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E172" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5433,23 +5433,23 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>84039</v>
+        <v>84303</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E173" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.63402777778</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5462,23 +5462,23 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>84039</v>
+        <v>84312</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E174" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.47777777778</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>45183.65555555555</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5491,27 +5491,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>84087</v>
+        <v>84312</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E175" s="2" t="n">
-        <v>45183.28958333333</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5520,27 +5520,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>84087</v>
+        <v>84312</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(69, 69)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E176" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.70833333334</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>45183.45104166667</v>
+        <v>45190.925</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5549,11 +5549,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>84120</v>
+        <v>84320</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="E177" s="2" t="n">
-        <v>45183.41111111111</v>
+        <v>45190.52222222222</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>45183.48055555556</v>
+        <v>45190.59166666667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5578,11 +5578,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>84121</v>
+        <v>84321</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="E178" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.33472222222</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.40416666667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5607,23 +5607,23 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>84123</v>
+        <v>84344</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E179" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.25</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -5636,23 +5636,23 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>84125</v>
+        <v>84344</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E180" s="2" t="n">
-        <v>45183.40555555555</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>45183.475</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -5665,23 +5665,23 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>84175</v>
+        <v>84344</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E181" s="2" t="n">
-        <v>45183.525</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>45183.59444444445</v>
+        <v>45190.58680555555</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -5694,27 +5694,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>84208</v>
+        <v>84357</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E182" s="2" t="n">
-        <v>45183.57083333333</v>
+        <v>45190.34166666667</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>45183.64027777778</v>
+        <v>45190.40625</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -5723,27 +5723,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>84295</v>
+        <v>84357</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E183" s="2" t="n">
-        <v>45183.31597222222</v>
+        <v>45190.40625</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>45183.44097222222</v>
+        <v>45190.48166666667</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -5752,27 +5752,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>84298</v>
+        <v>84357</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E184" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.48166666667</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.6025</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -5781,23 +5781,23 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>84298</v>
+        <v>84363</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E185" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.55555555555</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.625</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5810,23 +5810,23 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>84298</v>
+        <v>84363</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E186" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.625</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>45183.69444444445</v>
+        <v>45190.73055555556</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5839,27 +5839,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>84302</v>
+        <v>84363</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(61, 61)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>45183.28472222222</v>
+        <v>45190.73055555556</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.85208333333</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>lcl?</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5868,27 +5868,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>84302</v>
+        <v>84364</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E188" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.34722222222</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>45183.46284722222</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>lcl?</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5897,23 +5897,23 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>84305</v>
+        <v>84364</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E189" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.52222222222</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5926,23 +5926,23 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>84305</v>
+        <v>84364</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(56, 56)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E190" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.52222222222</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>45183.71909722222</v>
+        <v>45190.64375</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5955,23 +5955,23 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>84305</v>
+        <v>84368</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E191" s="2" t="n">
-        <v>45183.71909722222</v>
+        <v>45190.38888888889</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>45183.871875</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -5984,23 +5984,23 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>84306</v>
+        <v>84368</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E192" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.56388888889</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6013,23 +6013,23 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>84306</v>
+        <v>84368</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E193" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.56388888889</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>45183.59409722222</v>
+        <v>45190.68541666667</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6042,23 +6042,23 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>84306</v>
+        <v>84370</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E194" s="2" t="n">
-        <v>45183.59409722222</v>
+        <v>45190.5</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>45183.746875</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6071,23 +6071,23 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>84326</v>
+        <v>84370</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E195" s="2" t="n">
-        <v>45183.33263888889</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.68888888889</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6100,23 +6100,23 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>84326</v>
+        <v>84372</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(68, 68)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E196" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.30555555555</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.375</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6129,23 +6129,23 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>84326</v>
+        <v>84372</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(68, 68)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E197" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.375</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>45183.64861111111</v>
+        <v>45190.48055555556</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6158,23 +6158,23 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>84331</v>
+        <v>84372</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(68, 68)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E198" s="2" t="n">
-        <v>45183.27777777778</v>
+        <v>45190.48055555556</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.60208333333</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6187,23 +6187,23 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>84331</v>
+        <v>84427</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E199" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.29166666666</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.375</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6216,23 +6216,23 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>84331</v>
+        <v>84427</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E200" s="2" t="n">
-        <v>45183.45833333334</v>
+        <v>45190.375</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>45183.58263888889</v>
+        <v>45190.5</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6245,23 +6245,23 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>84338</v>
+        <v>84427</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E201" s="2" t="n">
-        <v>45183.40833333333</v>
+        <v>45190.5</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>45183.47777777778</v>
+        <v>45190.66805555556</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6274,27 +6274,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>84339</v>
+        <v>84429</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>45183.33611111111</v>
+        <v>45190.25</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>45183.40555555555</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -6303,27 +6303,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>84340</v>
+        <v>84429</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>(68, 68)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E203" s="2" t="n">
-        <v>45183.41805555556</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>45183.4875</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -6332,23 +6332,23 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>83410</v>
+        <v>84429</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E204" s="2" t="n">
-        <v>45183.4</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.57708333333</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6361,23 +6361,23 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>83425</v>
+        <v>84430</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E205" s="2" t="n">
-        <v>45183.41875</v>
+        <v>45190.375</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>45183.48819444444</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -6390,23 +6390,23 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>83415</v>
+        <v>84430</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E206" s="2" t="n">
-        <v>45183.42638888889</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="F206" s="2" t="n">
-        <v>45183.49583333333</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6419,23 +6419,23 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>83440</v>
+        <v>84430</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E207" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="F207" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.70208333333</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -6448,23 +6448,23 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>83409</v>
+        <v>84431</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E208" s="2" t="n">
-        <v>45183.54027777778</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="F208" s="2" t="n">
-        <v>45183.60972222222</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -6477,23 +6477,23 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>81416</v>
+        <v>84431</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E209" s="2" t="n">
-        <v>45183.54583333333</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="F209" s="2" t="n">
-        <v>45183.61527777778</v>
+        <v>45190.54166666666</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -6506,25 +6506,1794 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>83407</v>
+        <v>84431</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>45190.66041666667</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>84436</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45190.35069444445</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>84436</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>84436</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>45190.67152777778</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>84442</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45190.33333333334</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>84442</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>45190.52972222222</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>84443</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45190.39583333334</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>45190.47916666666</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>84443</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45190.47916666666</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>45190.59222222222</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>84455</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>45190.5</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>84455</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45190.5</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>84455</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>45190.81111111111</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>84456</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>45190.5</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>84456</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45190.5</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>84456</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>45190.81111111111</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>84457</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45190.4375</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>45190.52083333334</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>84457</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45190.52083333334</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>45190.64583333334</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>84457</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45190.64583333334</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>45190.83194444444</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>84473</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>retiro_full_sai</t>
         </is>
       </c>
-      <c r="E210" s="2" t="n">
-        <v>45183.55138888889</v>
-      </c>
-      <c r="F210" s="2" t="n">
-        <v>45183.62083333333</v>
-      </c>
-      <c r="G210" t="inlineStr">
+      <c r="E227" s="2" t="n">
+        <v>45190.90416666667</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>45190.97361111111</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>84480</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45190.29166666666</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>45190.375</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>84480</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45190.375</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>45190.51375</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>84480</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45190.51375</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>45190.66652777778</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>84482</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45190.43125</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>45190.50069444445</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>84527</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45190.53333333333</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>45190.65833333333</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>84528</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45190.72222222222</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>45190.79166666666</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>84533</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45190.52430555555</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>84533</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45190.625</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>45190.75</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>84533</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45190.75</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>45190.92013888889</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>84534</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45190.36805555555</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>45190.4375</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>84535</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45190.38888888889</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>45190.45833333334</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>84536</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45190.40972222222</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>45190.47916666666</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>84538</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45190.57222222222</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>45190.64166666667</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>84540</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45190.36111111111</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>84540</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>45190.52944444444</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>84540</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45190.52944444444</v>
+      </c>
+      <c r="F243" s="2" t="n">
+        <v>45190.71069444445</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>84543</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45190.42569444444</v>
+      </c>
+      <c r="F244" s="2" t="n">
+        <v>45190.49513888889</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>84553</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45190.39930555555</v>
+      </c>
+      <c r="F245" s="2" t="n">
+        <v>45190.46875</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>84569</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45190.33333333334</v>
+      </c>
+      <c r="F246" s="2" t="n">
+        <v>45190.40277777778</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>84579</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45190.36666666667</v>
+      </c>
+      <c r="F247" s="2" t="n">
+        <v>45190.43611111111</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>84605</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45190.46527777778</v>
+      </c>
+      <c r="F248" s="2" t="n">
+        <v>45190.53472222222</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>84617</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45190.37847222222</v>
+      </c>
+      <c r="F249" s="2" t="n">
+        <v>45190.44791666666</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>84618</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45190.37430555555</v>
+      </c>
+      <c r="F250" s="2" t="n">
+        <v>45190.44375</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>84699</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>(69, 69)</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45190.36388888889</v>
+      </c>
+      <c r="F251" s="2" t="n">
+        <v>45190.43333333333</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>84715</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45190.27083333334</v>
+      </c>
+      <c r="F252" s="2" t="n">
+        <v>45190.35416666666</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>84715</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45190.35416666666</v>
+      </c>
+      <c r="F253" s="2" t="n">
+        <v>45190.48888888889</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>84715</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45190.48888888889</v>
+      </c>
+      <c r="F254" s="2" t="n">
+        <v>45190.68680555555</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>84716</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45190.27083333334</v>
+      </c>
+      <c r="F255" s="2" t="n">
+        <v>45190.35416666666</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>84716</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45190.35416666666</v>
+      </c>
+      <c r="F256" s="2" t="n">
+        <v>45190.48888888889</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>84748</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45190.53819444445</v>
+      </c>
+      <c r="F257" s="2" t="n">
+        <v>45190.60763888889</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>84750</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45190.33888888889</v>
+      </c>
+      <c r="F258" s="2" t="n">
+        <v>45190.40833333333</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>84751</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45190.58263888889</v>
+      </c>
+      <c r="F259" s="2" t="n">
+        <v>45190.70763888889</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>84752</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45190.47222222222</v>
+      </c>
+      <c r="F260" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>84564</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45190.33680555555</v>
+      </c>
+      <c r="F261" s="2" t="n">
+        <v>45190.40625</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>84749</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45190.48541666667</v>
+      </c>
+      <c r="F262" s="2" t="n">
+        <v>45190.61041666667</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>84529</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45190.52291666667</v>
+      </c>
+      <c r="F263" s="2" t="n">
+        <v>45190.64791666667</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>84423</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45190.33472222222</v>
+      </c>
+      <c r="F264" s="2" t="n">
+        <v>45190.40416666667</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>84086</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45190.33472222222</v>
+      </c>
+      <c r="F265" s="2" t="n">
+        <v>45190.40416666667</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>84107</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45190.34166666667</v>
+      </c>
+      <c r="F266" s="2" t="n">
+        <v>45190.41111111111</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>84085</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45190.6875</v>
+      </c>
+      <c r="F267" s="2" t="n">
+        <v>45190.75694444445</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>84101</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45190.69861111111</v>
+      </c>
+      <c r="F268" s="2" t="n">
+        <v>45190.76805555556</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>83763</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45190.725</v>
+      </c>
+      <c r="F269" s="2" t="n">
+        <v>45190.79444444444</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>83759</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45190.89583333334</v>
+      </c>
+      <c r="F270" s="2" t="n">
+        <v>45190.96527777778</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>83760</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45190.90277777778</v>
+      </c>
+      <c r="F271" s="2" t="n">
+        <v>45190.97222222222</v>
+      </c>
+      <c r="G271" t="inlineStr">
         <is>
           <t>40</t>
         </is>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81144</v>
+        <v>83213</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,14 +487,14 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45190.74097222222</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45190.79166666666</v>
+        <v>45194.375</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81144</v>
+        <v>83213</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45190.79166666666</v>
+        <v>45194.375</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45190.97555555555</v>
+        <v>45194.47513888889</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81396</v>
+        <v>83213</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.47513888889</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.62791666666</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81396</v>
+        <v>83574</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.42222222222</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.47916666666</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -590,27 +590,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81396</v>
+        <v>83574</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.47916666666</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45190.86111111111</v>
+        <v>45194.57930555556</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -619,23 +619,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83321</v>
+        <v>83574</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45190.44583333333</v>
+        <v>45194.57930555556</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.74944444445</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,27 +648,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83321</v>
+        <v>83595</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.375</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45190.60125</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -677,27 +677,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83321</v>
+        <v>83595</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45190.60125</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45190.72208333333</v>
+        <v>45194.55847222222</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83330</v>
+        <v>83595</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45190.25</v>
+        <v>45194.55847222222</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.76680555556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -735,23 +735,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83330</v>
+        <v>83747</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.72569444445</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45190.43458333334</v>
+        <v>45194.79513888889</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -764,23 +764,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83330</v>
+        <v>83759</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(61, 61)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45190.43458333334</v>
+        <v>45194.52013888889</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45190.55541666667</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -793,23 +793,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83355</v>
+        <v>83759</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45190.44027777778</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45190.50972222222</v>
+        <v>45194.67805555555</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83355</v>
+        <v>83759</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45190.51805555556</v>
+        <v>45194.67805555555</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.81069444444</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -851,23 +851,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83355</v>
+        <v>83777</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.24444444444</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45190.68708333333</v>
+        <v>45194.3125</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -880,23 +880,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83355</v>
+        <v>83777</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45190.68708333333</v>
+        <v>45194.3125</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45190.81763888889</v>
+        <v>45194.40722222222</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83559</v>
+        <v>83777</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45190.47916666666</v>
+        <v>45194.40722222222</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45190.5625</v>
+        <v>45194.53986111111</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -938,23 +938,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83559</v>
+        <v>83778</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45190.5625</v>
+        <v>45194.24444444444</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45190.62708333333</v>
+        <v>45194.3125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -967,23 +967,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83559</v>
+        <v>83778</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45190.62708333333</v>
+        <v>45194.3125</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45190.74791666667</v>
+        <v>45194.40722222222</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -996,23 +996,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83602</v>
+        <v>83778</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.40722222222</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45190.47916666666</v>
+        <v>45194.53986111111</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1025,23 +1025,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83602</v>
+        <v>83882</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45190.47916666666</v>
+        <v>45194.48472222222</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45190.54375</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1054,23 +1054,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83602</v>
+        <v>83882</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(60, 60)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45190.54375</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45190.66458333333</v>
+        <v>45194.64180555556</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83626</v>
+        <v>83882</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45190.35972222222</v>
+        <v>45194.64180555556</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.76194444444</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1112,23 +1112,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83626</v>
+        <v>83893</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.38611111111</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45190.51680555556</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1141,23 +1141,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83626</v>
+        <v>83893</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>almacenamiento</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45190.59027777778</v>
+        <v>45194.53611111111</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1170,23 +1170,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83626</v>
+        <v>83893</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(53, 53)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45190.51680555556</v>
+        <v>45194.53611111111</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45190.63694444444</v>
+        <v>45194.70347222222</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83632</v>
+        <v>83952</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45190.3125</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.625</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83632</v>
+        <v>83952</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.625</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45190.46041666667</v>
+        <v>45194.75</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1257,11 +1257,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83632</v>
+        <v>83952</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45190.46041666667</v>
+        <v>45194.75</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45190.58125</v>
+        <v>45194.90277777778</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1286,11 +1286,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83661</v>
+        <v>83953</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.625</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.70833333334</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1315,11 +1315,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83661</v>
+        <v>83953</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.70833333334</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45190.68458333334</v>
+        <v>45194.83333333334</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1344,11 +1344,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83661</v>
+        <v>83953</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(48, 48)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45190.68458333334</v>
+        <v>45194.83333333334</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45190.80541666667</v>
+        <v>45194.98611111111</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1373,11 +1373,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83663</v>
+        <v>84032</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45190.57083333333</v>
+        <v>45194.34375</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.35416666666</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83663</v>
+        <v>84032</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.35416666666</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45190.72625</v>
+        <v>45194.475</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1431,11 +1431,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83663</v>
+        <v>84032</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45190.72625</v>
+        <v>45194.475</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45190.84708333333</v>
+        <v>45194.54791666667</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1460,11 +1460,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83704</v>
+        <v>84033</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45190.29166666666</v>
+        <v>45194.40625</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45190.375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1489,11 +1489,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83704</v>
+        <v>84033</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45190.375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.5375</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1518,23 +1518,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83704</v>
+        <v>84033</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(22, 22)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.5375</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45190.68055555555</v>
+        <v>45194.61041666667</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1547,11 +1547,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83708</v>
+        <v>84093</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1560,14 +1560,14 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45190.37013888889</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -1576,11 +1576,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83708</v>
+        <v>84093</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1589,14 +1589,14 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45190.53958333333</v>
+        <v>45194.52430555555</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -1605,27 +1605,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83708</v>
+        <v>84093</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45190.53958333333</v>
+        <v>45194.52430555555</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45190.71041666667</v>
+        <v>45194.70902777778</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83709</v>
+        <v>84097</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45190.43263888889</v>
+        <v>45194.43402777778</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1663,11 +1663,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83709</v>
+        <v>84097</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.5</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45190.60208333333</v>
+        <v>45194.62083333333</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1692,23 +1692,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83709</v>
+        <v>84097</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45190.60208333333</v>
+        <v>45194.62083333333</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45190.77291666667</v>
+        <v>45194.74583333333</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1721,11 +1721,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83772</v>
+        <v>84100</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45190.24444444444</v>
+        <v>45194.26736111111</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45190.3125</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1750,11 +1750,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83772</v>
+        <v>84100</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45190.3125</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45190.40722222222</v>
+        <v>45194.45416666667</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1779,11 +1779,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83772</v>
+        <v>84100</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45190.40722222222</v>
+        <v>45194.45416666667</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45190.53986111111</v>
+        <v>45194.57916666667</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1808,11 +1808,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83774</v>
+        <v>84117</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45190.51527777778</v>
+        <v>45194.57291666666</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1837,11 +1837,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83774</v>
+        <v>84117</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45190.67805555555</v>
+        <v>45194.70416666667</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1866,11 +1866,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83774</v>
+        <v>84117</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45190.67805555555</v>
+        <v>45194.70416666667</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45190.81069444444</v>
+        <v>45194.77708333333</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1895,23 +1895,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83777</v>
+        <v>84118</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45190.55902777778</v>
+        <v>45194.65625</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45190.62847222222</v>
+        <v>45194.66666666666</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1924,23 +1924,23 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83778</v>
+        <v>84118</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(59, 59)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45190.40555555555</v>
+        <v>45194.66666666666</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45190.475</v>
+        <v>45194.7875</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1953,23 +1953,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83781</v>
+        <v>84118</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(65, 65)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45190.56736111111</v>
+        <v>45194.7875</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45190.63680555556</v>
+        <v>45194.86041666667</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1982,27 +1982,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83782</v>
+        <v>84128</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(46, 46)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45190.39513888889</v>
+        <v>45194.46736111111</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45190.46458333333</v>
+        <v>45194.53125</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2011,27 +2011,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83841</v>
+        <v>84128</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45190.38194444445</v>
+        <v>45194.53125</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.60666666667</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2040,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83841</v>
+        <v>84128</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(31, 31)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.60666666667</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45190.51958333333</v>
+        <v>45194.7275</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -2069,23 +2069,23 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83841</v>
+        <v>84132</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(54, 54)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45190.51958333333</v>
+        <v>45194.26597222222</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45190.64041666667</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2098,27 +2098,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83884</v>
+        <v>84132</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45190.25</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.43541666667</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2127,27 +2127,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83884</v>
+        <v>84132</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.43541666667</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.56597222222</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2156,27 +2156,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83884</v>
+        <v>84133</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(67, 67)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.32847222222</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45190.61111111111</v>
+        <v>45194.39583333334</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20 liviano</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2185,23 +2185,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83921</v>
+        <v>84133</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45190.71944444445</v>
+        <v>45194.39583333334</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45190.77083333334</v>
+        <v>45194.49791666667</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2214,23 +2214,23 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83921</v>
+        <v>84133</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45190.77083333334</v>
+        <v>45194.49791666667</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45190.89583333334</v>
+        <v>45194.62847222222</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2243,23 +2243,23 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83921</v>
+        <v>84135</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45190.89583333334</v>
+        <v>45194.36875</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45191.01388888889</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2272,23 +2272,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83935</v>
+        <v>84135</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45190.27083333334</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.5575</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2301,23 +2301,23 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83935</v>
+        <v>84136</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.39097222222</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45190.47916666666</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2330,23 +2330,23 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83935</v>
+        <v>84136</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45190.47916666666</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45190.65555555555</v>
+        <v>45194.56041666667</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2359,23 +2359,23 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83967</v>
+        <v>84136</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.56041666667</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.69097222222</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2388,23 +2388,23 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83967</v>
+        <v>84137</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.43263888889</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45190.51791666666</v>
+        <v>45194.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2417,23 +2417,23 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83967</v>
+        <v>84137</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45190.51791666666</v>
+        <v>45194.5</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45190.63875</v>
+        <v>45194.60208333333</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2446,23 +2446,23 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83976</v>
+        <v>84137</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45190.57222222222</v>
+        <v>45194.60208333333</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45190.64166666667</v>
+        <v>45194.73263888889</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2475,11 +2475,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83987</v>
+        <v>84138</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45190.60208333333</v>
+        <v>45194.51597222222</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45190.64583333334</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2504,11 +2504,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83987</v>
+        <v>84138</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45190.64583333334</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45190.72916666666</v>
+        <v>45194.68541666667</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2533,23 +2533,23 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83987</v>
+        <v>84138</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45190.72916666666</v>
+        <v>45194.68541666667</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45190.91666666666</v>
+        <v>45194.81597222222</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2562,11 +2562,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83988</v>
+        <v>84143</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45190.39375</v>
+        <v>45194.55763888889</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.625</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2591,11 +2591,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83988</v>
+        <v>84143</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.625</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45190.52083333334</v>
+        <v>45194.72708333333</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2620,23 +2620,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83988</v>
+        <v>84143</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45190.52083333334</v>
+        <v>45194.72708333333</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.85763888889</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2649,11 +2649,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83991</v>
+        <v>84151</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45190.45625</v>
+        <v>45194.32291666666</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.40625</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2678,11 +2678,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83991</v>
+        <v>84151</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.40625</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.5</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2707,23 +2707,23 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83991</v>
+        <v>84151</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.5</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45190.77083333334</v>
+        <v>45194.61666666667</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2736,11 +2736,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83992</v>
+        <v>84176</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45190.31041666667</v>
+        <v>45194.34305555555</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.39583333334</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2765,11 +2765,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83992</v>
+        <v>84176</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.39583333334</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.44638888889</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2794,23 +2794,23 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83992</v>
+        <v>84176</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(55, 55)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.44638888889</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.56722222222</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83994</v>
+        <v>84219</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45190.58125</v>
+        <v>45194.55138888889</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.60416666666</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2852,11 +2852,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83994</v>
+        <v>84219</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.60416666666</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.70736111111</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83994</v>
+        <v>84244</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.50972222222</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45190.89583333334</v>
+        <v>45194.5625</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2910,27 +2910,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84024</v>
+        <v>84244</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(36, 36)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45190.27847222222</v>
+        <v>45194.5625</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.61305555556</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2939,27 +2939,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>84024</v>
+        <v>84272</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.63472222222</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.6875</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2968,27 +2968,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>84024</v>
+        <v>84272</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.6875</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45190.57708333333</v>
+        <v>45194.78972222222</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2997,27 +2997,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>84025</v>
+        <v>84272</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45190.36180555556</v>
+        <v>45194.78972222222</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.905</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3026,27 +3026,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>84025</v>
+        <v>84284</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.3625</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45190.54166666666</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3055,27 +3055,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>84025</v>
+        <v>84284</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45190.54166666666</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45190.66041666667</v>
+        <v>45194.50833333333</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3084,11 +3084,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>84034</v>
+        <v>84314</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3097,14 +3097,14 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45190.3125</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.375</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3113,11 +3113,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>84034</v>
+        <v>84314</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3126,14 +3126,14 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.375</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45190.52083333334</v>
+        <v>45194.43416666667</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3142,27 +3142,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>84034</v>
+        <v>84314</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45190.52083333334</v>
+        <v>45194.43416666667</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45190.64166666667</v>
+        <v>45194.60638888889</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3171,11 +3171,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>84036</v>
+        <v>84335</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.375</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3200,11 +3200,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>84036</v>
+        <v>84335</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45190.53611111111</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3229,23 +3229,23 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>84036</v>
+        <v>84335</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(52, 52)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45190.53611111111</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45190.70347222222</v>
+        <v>45194.71111111111</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>84051</v>
+        <v>84336</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45190.3125</v>
+        <v>45194.25</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>84051</v>
+        <v>84336</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45190.485</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3316,23 +3316,23 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>84113</v>
+        <v>84336</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(62, 62)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45190.36875</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45190.43819444445</v>
+        <v>45194.58611111111</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3345,11 +3345,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>84124</v>
+        <v>84353</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45190.36458333334</v>
+        <v>45194.30486111111</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45190.375</v>
+        <v>45194.35416666666</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3374,11 +3374,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>84124</v>
+        <v>84353</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45190.375</v>
+        <v>45194.35416666666</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45190.49583333333</v>
+        <v>45194.47722222222</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3403,23 +3403,23 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>84124</v>
+        <v>84353</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45190.49583333333</v>
+        <v>45194.47722222222</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45190.56875</v>
+        <v>45194.65291666667</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3432,11 +3432,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>84125</v>
+        <v>84370</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45190.48958333334</v>
+        <v>45194.30555555555</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.375</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>84125</v>
+        <v>84370</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45190.5</v>
+        <v>45194.375</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45190.62083333333</v>
+        <v>45194.48055555556</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3490,27 +3490,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>84125</v>
+        <v>84438</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45190.62083333333</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45190.69375</v>
+        <v>45194.375</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3519,27 +3519,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>84126</v>
+        <v>84438</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45190.57291666666</v>
+        <v>45194.375</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.48805555556</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3548,27 +3548,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>84126</v>
+        <v>84438</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45194.48805555556</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45190.70416666667</v>
+        <v>45194.60472222222</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3577,27 +3577,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>84126</v>
+        <v>84440</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>(50, 50)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45190.70416666667</v>
+        <v>45194.25</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45190.77708333333</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>84127</v>
+        <v>84440</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3615,18 +3615,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45190.65625</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45194.44638888889</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>84127</v>
+        <v>84440</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3644,18 +3644,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45194.44638888889</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45190.7875</v>
+        <v>45194.56305555555</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3664,27 +3664,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>84127</v>
+        <v>84441</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45190.7875</v>
+        <v>45194.33333333334</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45190.86041666667</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3693,23 +3693,23 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>84128</v>
+        <v>84441</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45190.875</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45190.94444444445</v>
+        <v>45194.52972222222</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3722,23 +3722,23 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>84129</v>
+        <v>84441</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>(49, 49)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45190.38194444445</v>
+        <v>45194.52972222222</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45190.45138888889</v>
+        <v>45194.64638888889</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3751,11 +3751,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>84130</v>
+        <v>84459</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45190.53680555556</v>
+        <v>45194.55902777778</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45190.60416666666</v>
+        <v>45194.625</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3780,11 +3780,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>84130</v>
+        <v>84459</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45190.60416666666</v>
+        <v>45194.625</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45190.70625</v>
+        <v>45194.74583333333</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3809,11 +3809,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>84130</v>
+        <v>84459</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3822,10 +3822,10 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45190.70625</v>
+        <v>45194.74583333333</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45190.83680555555</v>
+        <v>45194.87083333333</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3838,23 +3838,23 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>84133</v>
+        <v>84486</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45190.32638888889</v>
+        <v>45194.51597222222</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3867,23 +3867,23 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>84138</v>
+        <v>84486</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45190.75972222222</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45190.82916666667</v>
+        <v>45194.68708333333</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3896,23 +3896,23 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>84140</v>
+        <v>84486</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.68708333333</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45190.40277777778</v>
+        <v>45194.81833333334</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3925,11 +3925,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>84141</v>
+        <v>84492</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3938,10 +3938,10 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45190.32847222222</v>
+        <v>45194.34027777778</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3954,11 +3954,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>84141</v>
+        <v>84492</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45190.49791666667</v>
+        <v>45194.5575</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3983,23 +3983,23 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>84141</v>
+        <v>84492</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>(63, 63)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>45190.49791666667</v>
+        <v>45194.5575</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>45190.62847222222</v>
+        <v>45194.73805555556</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4012,27 +4012,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>84142</v>
+        <v>84523</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>45190.35277777778</v>
+        <v>45194.5</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45190.42222222222</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -4041,27 +4041,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>84143</v>
+        <v>84523</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>45190.67222222222</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45190.74166666667</v>
+        <v>45194.70833333334</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -4070,27 +4070,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>84146</v>
+        <v>84523</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>45190.28680555556</v>
+        <v>45194.70833333334</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.83333333334</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -4099,23 +4099,23 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>84146</v>
+        <v>84529</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45190.45625</v>
+        <v>45194.375</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4128,23 +4128,23 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>84146</v>
+        <v>84529</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>45190.45625</v>
+        <v>45194.375</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45190.58680555555</v>
+        <v>45194.5</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4157,23 +4157,23 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>84147</v>
+        <v>84541</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>45190.3625</v>
+        <v>45194.44652777778</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45190.43194444444</v>
+        <v>45194.5</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4186,23 +4186,23 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>84214</v>
+        <v>84541</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.5</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.58472222222</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4215,23 +4215,23 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>84214</v>
+        <v>84541</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.58472222222</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45190.50930555556</v>
+        <v>45194.75694444445</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4244,23 +4244,23 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>84214</v>
+        <v>84557</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>45190.50930555556</v>
+        <v>45194.23958333334</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45190.62597222222</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4273,23 +4273,23 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>84220</v>
+        <v>84557</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>45190.49583333333</v>
+        <v>45194.29166666666</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45190.60416666666</v>
+        <v>45194.38541666666</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4302,23 +4302,23 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>84220</v>
+        <v>84557</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>45190.60416666666</v>
+        <v>45194.38541666666</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45190.72916666666</v>
+        <v>45194.55625</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4331,11 +4331,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>84221</v>
+        <v>84568</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>45190.32916666667</v>
+        <v>45194.36180555556</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4360,11 +4360,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>84221</v>
+        <v>84568</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>45190.4375</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45190.5625</v>
+        <v>45194.46763888889</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4389,23 +4389,23 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>84229</v>
+        <v>84568</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>45190.29583333333</v>
+        <v>45194.46763888889</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.65444444444</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4418,23 +4418,23 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>84229</v>
+        <v>84591</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.48819444444</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45190.49916666667</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>84229</v>
+        <v>84591</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>45190.49916666667</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45190.62</v>
+        <v>45194.65625</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4476,23 +4476,23 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>84232</v>
+        <v>84591</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>45190.34375</v>
+        <v>45194.65625</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.86458333334</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4505,23 +4505,23 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>84232</v>
+        <v>84593</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>45190.39583333334</v>
+        <v>45194.36319444444</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45190.52430555555</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4534,23 +4534,23 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>84232</v>
+        <v>84593</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>45190.52430555555</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45190.64236111111</v>
+        <v>45194.53125</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4563,23 +4563,23 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>84235</v>
+        <v>84593</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>45190.27638888889</v>
+        <v>45194.53125</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.73958333334</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4592,23 +4592,23 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>84235</v>
+        <v>84596</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>45190.33333333334</v>
+        <v>45194.35416666666</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.4375</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4621,23 +4621,23 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>84235</v>
+        <v>84596</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45194.4375</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45190.57638888889</v>
+        <v>45194.59652777778</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4650,23 +4650,23 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>84239</v>
+        <v>84596</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>45190.75</v>
+        <v>45194.59652777778</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45190.83333333334</v>
+        <v>45194.80486111111</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4679,23 +4679,23 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>84239</v>
+        <v>84598</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>45190.83333333334</v>
+        <v>45194.6875</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45190.95833333334</v>
+        <v>45194.77083333334</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4708,23 +4708,23 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>84239</v>
+        <v>84598</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>(58, 58)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E148" s="2" t="n">
-        <v>45190.95833333334</v>
+        <v>45194.77083333334</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45191.11111111111</v>
+        <v>45194.93611111111</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4737,23 +4737,23 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>84247</v>
+        <v>84598</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>45190.57222222222</v>
+        <v>45194.93611111111</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45190.625</v>
+        <v>45195.08888888889</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4766,23 +4766,23 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>84247</v>
+        <v>84656</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.46527777778</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45190.74472222223</v>
+        <v>45194.5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4795,23 +4795,23 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>84247</v>
+        <v>84656</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>45190.74472222223</v>
+        <v>45194.5</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45190.86</v>
+        <v>45194.60555555556</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4824,23 +4824,23 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>84249</v>
+        <v>84656</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45190.36319444444</v>
+        <v>45194.60555555556</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.78611111111</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4853,23 +4853,23 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>84249</v>
+        <v>84657</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E153" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.50694444445</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45190.48777777778</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4882,23 +4882,23 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>84251</v>
+        <v>84657</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>45190.65416666667</v>
+        <v>45194.54166666666</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.64722222222</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -4911,23 +4911,23 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>84251</v>
+        <v>84657</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>(64, 64)</t>
+          <t>(15, 15)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45190.70833333334</v>
+        <v>45194.64722222222</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45190.83361111111</v>
+        <v>45194.82777777778</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4940,11 +4940,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>84275</v>
+        <v>84658</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45190.57430555556</v>
+        <v>45194.54861111111</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -4969,11 +4969,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>84275</v>
+        <v>84658</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.58333333334</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>45190.72708333333</v>
+        <v>45194.68888888889</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4998,23 +4998,23 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>84275</v>
+        <v>84658</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E158" s="2" t="n">
-        <v>45190.72708333333</v>
+        <v>45194.68888888889</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>45190.84166666667</v>
+        <v>45194.86944444444</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5027,23 +5027,23 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>84280</v>
+        <v>84659</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>45190.59722222222</v>
+        <v>45194.42361111111</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>84282</v>
+        <v>84659</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>45190.61388888889</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45194.56388888889</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5085,23 +5085,23 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>84282</v>
+        <v>84659</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>(45, 45)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45194.56388888889</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>45190.76888888889</v>
+        <v>45194.74444444444</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5114,11 +5114,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>84283</v>
+        <v>84739</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45190.3625</v>
+        <v>45194.59305555555</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.64583333334</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5143,11 +5143,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>84283</v>
+        <v>84739</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45190.41666666666</v>
+        <v>45194.64583333334</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>45190.50833333333</v>
+        <v>45194.74902777778</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5172,23 +5172,23 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>84283</v>
+        <v>84784</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>45190.50833333333</v>
+        <v>45194.41666666666</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>45190.625</v>
+        <v>45194.5</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5201,23 +5201,23 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>84291</v>
+        <v>84784</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E165" s="2" t="n">
-        <v>45190.30972222222</v>
+        <v>45194.5</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.625</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5230,23 +5230,23 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>84291</v>
+        <v>84784</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E166" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.625</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>45190.50138888889</v>
+        <v>45194.77361111111</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5259,23 +5259,23 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>84291</v>
+        <v>84796</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>devolucion_vacio_stgo</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E167" s="2" t="n">
-        <v>45190.50138888889</v>
+        <v>45194.45833333334</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>45190.67361111111</v>
+        <v>45194.66666666666</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5288,27 +5288,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>84295</v>
+        <v>84856</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E168" s="2" t="n">
-        <v>45190.31388888889</v>
+        <v>45194.52083333334</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.64583333334</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>lcl?</t>
         </is>
       </c>
     </row>
@@ -5317,2985 +5317,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>84295</v>
+        <v>84857</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(29, 29)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E169" s="2" t="n">
-        <v>45190.35416666666</v>
+        <v>45194.36805555555</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>45190.4875</v>
+        <v>45194.4375</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>84295</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>(13, 13)</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="n">
-        <v>45190.4875</v>
-      </c>
-      <c r="F170" s="2" t="n">
-        <v>45190.66319444445</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>84303</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>(14, 14)</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="n">
-        <v>45190.25</v>
-      </c>
-      <c r="F171" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>84303</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>(14, 14)</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F172" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>84303</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>(14, 14)</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="F173" s="2" t="n">
-        <v>45190.63402777778</v>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>84312</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>(69, 69)</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="n">
-        <v>45190.47777777778</v>
-      </c>
-      <c r="F174" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>84312</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>(69, 69)</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="F175" s="2" t="n">
-        <v>45190.70833333334</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>84312</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>(69, 69)</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="n">
-        <v>45190.70833333334</v>
-      </c>
-      <c r="F176" s="2" t="n">
-        <v>45190.925</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>84320</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>(45, 45)</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="n">
-        <v>45190.52222222222</v>
-      </c>
-      <c r="F177" s="2" t="n">
-        <v>45190.59166666667</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>84321</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>(59, 59)</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="n">
-        <v>45190.33472222222</v>
-      </c>
-      <c r="F178" s="2" t="n">
-        <v>45190.40416666667</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>84344</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>(25, 25)</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="n">
-        <v>45190.25</v>
-      </c>
-      <c r="F179" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>84344</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>(25, 25)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F180" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>84344</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>(25, 25)</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="F181" s="2" t="n">
-        <v>45190.58680555555</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>84357</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>(57, 57)</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="n">
-        <v>45190.34166666667</v>
-      </c>
-      <c r="F182" s="2" t="n">
-        <v>45190.40625</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>84357</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>(57, 57)</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="n">
-        <v>45190.40625</v>
-      </c>
-      <c r="F183" s="2" t="n">
-        <v>45190.48166666667</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>84357</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>(57, 57)</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="n">
-        <v>45190.48166666667</v>
-      </c>
-      <c r="F184" s="2" t="n">
-        <v>45190.6025</v>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>84363</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>(61, 61)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="n">
-        <v>45190.55555555555</v>
-      </c>
-      <c r="F185" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>84363</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>(61, 61)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="F186" s="2" t="n">
-        <v>45190.73055555556</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>84363</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>(61, 61)</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="n">
-        <v>45190.73055555556</v>
-      </c>
-      <c r="F187" s="2" t="n">
-        <v>45190.85208333333</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>84364</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>(56, 56)</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>45190.34722222222</v>
-      </c>
-      <c r="F188" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>84364</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>(56, 56)</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F189" s="2" t="n">
-        <v>45190.52222222222</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>84364</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>(56, 56)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>45190.52222222222</v>
-      </c>
-      <c r="F190" s="2" t="n">
-        <v>45190.64375</v>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>84368</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>(7, 7)</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="n">
-        <v>45190.38888888889</v>
-      </c>
-      <c r="F191" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>84368</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>(7, 7)</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="F192" s="2" t="n">
-        <v>45190.56388888889</v>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>84368</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>(7, 7)</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>45190.56388888889</v>
-      </c>
-      <c r="F193" s="2" t="n">
-        <v>45190.68541666667</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>84370</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>(30, 30)</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>84370</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>(30, 30)</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>45190.68888888889</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>84372</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>(68, 68)</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>45190.30555555555</v>
-      </c>
-      <c r="F196" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>84372</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>(68, 68)</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E197" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="F197" s="2" t="n">
-        <v>45190.48055555556</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>84372</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>(68, 68)</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>45190.48055555556</v>
-      </c>
-      <c r="F198" s="2" t="n">
-        <v>45190.60208333333</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>84427</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>(23, 23)</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>45190.29166666666</v>
-      </c>
-      <c r="F199" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>84427</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>(23, 23)</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="F200" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>84427</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>(23, 23)</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="F201" s="2" t="n">
-        <v>45190.66805555556</v>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>84429</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>(22, 22)</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>45190.25</v>
-      </c>
-      <c r="F202" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>84429</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>(22, 22)</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F203" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>84429</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>(22, 22)</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="F204" s="2" t="n">
-        <v>45190.57708333333</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>84430</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>(21, 21)</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="F205" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>84430</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>(21, 21)</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="F206" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>84430</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>(21, 21)</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="n">
-        <v>45190.58333333334</v>
-      </c>
-      <c r="F207" s="2" t="n">
-        <v>45190.70208333333</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>84431</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>(17, 17)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F208" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>84431</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>(17, 17)</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F209" s="2" t="n">
-        <v>45190.54166666666</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>84431</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>(17, 17)</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="n">
-        <v>45190.54166666666</v>
-      </c>
-      <c r="F210" s="2" t="n">
-        <v>45190.66041666667</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>84436</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>(8, 8)</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="n">
-        <v>45190.35069444445</v>
-      </c>
-      <c r="F211" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>84436</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>(8, 8)</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F212" s="2" t="n">
-        <v>45190.54166666666</v>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>84436</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>(8, 8)</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="n">
-        <v>45190.54166666666</v>
-      </c>
-      <c r="F213" s="2" t="n">
-        <v>45190.67152777778</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>84442</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>(5, 5)</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F214" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>84442</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>(5, 5)</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F215" s="2" t="n">
-        <v>45190.52972222222</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>84443</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>(51, 51)</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="n">
-        <v>45190.39583333334</v>
-      </c>
-      <c r="F216" s="2" t="n">
-        <v>45190.47916666666</v>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>84443</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>(51, 51)</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="n">
-        <v>45190.47916666666</v>
-      </c>
-      <c r="F217" s="2" t="n">
-        <v>45190.59222222222</v>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>84455</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>(38, 38)</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F218" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>84455</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>(38, 38)</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="F219" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>84455</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>(38, 38)</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="F220" s="2" t="n">
-        <v>45190.81111111111</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>84456</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>(32, 32)</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E221" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F221" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>84456</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>(32, 32)</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E222" s="2" t="n">
-        <v>45190.5</v>
-      </c>
-      <c r="F222" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>84456</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>(32, 32)</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E223" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="F223" s="2" t="n">
-        <v>45190.81111111111</v>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>84457</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>(39, 39)</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="n">
-        <v>45190.4375</v>
-      </c>
-      <c r="F224" s="2" t="n">
-        <v>45190.52083333334</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>84457</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>(39, 39)</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="n">
-        <v>45190.52083333334</v>
-      </c>
-      <c r="F225" s="2" t="n">
-        <v>45190.64583333334</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>84457</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>(39, 39)</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E226" s="2" t="n">
-        <v>45190.64583333334</v>
-      </c>
-      <c r="F226" s="2" t="n">
-        <v>45190.83194444444</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>84473</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>(45, 45)</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="n">
-        <v>45190.90416666667</v>
-      </c>
-      <c r="F227" s="2" t="n">
-        <v>45190.97361111111</v>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>84480</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>(66, 66)</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="n">
-        <v>45190.29166666666</v>
-      </c>
-      <c r="F228" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>84480</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>(66, 66)</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="n">
-        <v>45190.375</v>
-      </c>
-      <c r="F229" s="2" t="n">
-        <v>45190.51375</v>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>84480</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>(66, 66)</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E230" s="2" t="n">
-        <v>45190.51375</v>
-      </c>
-      <c r="F230" s="2" t="n">
-        <v>45190.66652777778</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>84482</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>(45, 45)</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="n">
-        <v>45190.43125</v>
-      </c>
-      <c r="F231" s="2" t="n">
-        <v>45190.50069444445</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>84527</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>(19, 19)</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>retiro_full_val</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="n">
-        <v>45190.53333333333</v>
-      </c>
-      <c r="F232" s="2" t="n">
-        <v>45190.65833333333</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>84528</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>(49, 49)</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="n">
-        <v>45190.72222222222</v>
-      </c>
-      <c r="F233" s="2" t="n">
-        <v>45190.79166666666</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>84533</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>(29, 29)</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="n">
-        <v>45190.52430555555</v>
-      </c>
-      <c r="F234" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>84533</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>(29, 29)</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="n">
-        <v>45190.625</v>
-      </c>
-      <c r="F235" s="2" t="n">
-        <v>45190.75</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>84533</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>(29, 29)</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_sai</t>
-        </is>
-      </c>
-      <c r="E236" s="2" t="n">
-        <v>45190.75</v>
-      </c>
-      <c r="F236" s="2" t="n">
-        <v>45190.92013888889</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>84534</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>(39, 39)</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E237" s="2" t="n">
-        <v>45190.36805555555</v>
-      </c>
-      <c r="F237" s="2" t="n">
-        <v>45190.4375</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>84535</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>(1, 1)</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E238" s="2" t="n">
-        <v>45190.38888888889</v>
-      </c>
-      <c r="F238" s="2" t="n">
-        <v>45190.45833333334</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>84536</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>(48, 48)</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E239" s="2" t="n">
-        <v>45190.40972222222</v>
-      </c>
-      <c r="F239" s="2" t="n">
-        <v>45190.47916666666</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>20 pesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>84538</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>(1, 1)</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E240" s="2" t="n">
-        <v>45190.57222222222</v>
-      </c>
-      <c r="F240" s="2" t="n">
-        <v>45190.64166666667</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>84540</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>(28, 28)</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E241" s="2" t="n">
-        <v>45190.36111111111</v>
-      </c>
-      <c r="F241" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>84540</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>(28, 28)</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E242" s="2" t="n">
-        <v>45190.41666666666</v>
-      </c>
-      <c r="F242" s="2" t="n">
-        <v>45190.52944444444</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>84540</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>(28, 28)</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E243" s="2" t="n">
-        <v>45190.52944444444</v>
-      </c>
-      <c r="F243" s="2" t="n">
-        <v>45190.71069444445</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>84543</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>(29, 29)</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E244" s="2" t="n">
-        <v>45190.42569444444</v>
-      </c>
-      <c r="F244" s="2" t="n">
-        <v>45190.49513888889</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>84553</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>(6, 6)</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E245" s="2" t="n">
-        <v>45190.39930555555</v>
-      </c>
-      <c r="F245" s="2" t="n">
-        <v>45190.46875</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>84569</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>(48, 48)</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E246" s="2" t="n">
-        <v>45190.33333333334</v>
-      </c>
-      <c r="F246" s="2" t="n">
-        <v>45190.40277777778</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>84579</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>(65, 65)</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E247" s="2" t="n">
-        <v>45190.36666666667</v>
-      </c>
-      <c r="F247" s="2" t="n">
-        <v>45190.43611111111</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>84605</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>(65, 65)</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E248" s="2" t="n">
-        <v>45190.46527777778</v>
-      </c>
-      <c r="F248" s="2" t="n">
-        <v>45190.53472222222</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>84617</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>(50, 50)</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="n">
-        <v>45190.37847222222</v>
-      </c>
-      <c r="F249" s="2" t="n">
-        <v>45190.44791666666</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>84618</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>(10, 10)</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E250" s="2" t="n">
-        <v>45190.37430555555</v>
-      </c>
-      <c r="F250" s="2" t="n">
-        <v>45190.44375</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>84699</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>(69, 69)</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="n">
-        <v>45190.36388888889</v>
-      </c>
-      <c r="F251" s="2" t="n">
-        <v>45190.43333333333</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>84715</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>(47, 47)</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>45190.27083333334</v>
-      </c>
-      <c r="F252" s="2" t="n">
-        <v>45190.35416666666</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>84715</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>(47, 47)</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="n">
-        <v>45190.35416666666</v>
-      </c>
-      <c r="F253" s="2" t="n">
-        <v>45190.48888888889</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>84715</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>(47, 47)</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>devolucion_vacio_val</t>
-        </is>
-      </c>
-      <c r="E254" s="2" t="n">
-        <v>45190.48888888889</v>
-      </c>
-      <c r="F254" s="2" t="n">
-        <v>45190.68680555555</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>84716</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>(41, 41)</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>trayecto</t>
-        </is>
-      </c>
-      <c r="E255" s="2" t="n">
-        <v>45190.27083333334</v>
-      </c>
-      <c r="F255" s="2" t="n">
-        <v>45190.35416666666</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>84716</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>(41, 41)</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>presentacion</t>
-        </is>
-      </c>
-      <c r="E256" s="2" t="n">
-        <v>45190.35416666666</v>
-      </c>
-      <c r="F256" s="2" t="n">
-        <v>45190.48888888889</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>84748</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>(6, 6)</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E257" s="2" t="n">
-        <v>45190.53819444445</v>
-      </c>
-      <c r="F257" s="2" t="n">
-        <v>45190.60763888889</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>84750</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>(38, 38)</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E258" s="2" t="n">
-        <v>45190.33888888889</v>
-      </c>
-      <c r="F258" s="2" t="n">
-        <v>45190.40833333333</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>84751</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>(3, 3)</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>retiro_full_val</t>
-        </is>
-      </c>
-      <c r="E259" s="2" t="n">
-        <v>45190.58263888889</v>
-      </c>
-      <c r="F259" s="2" t="n">
-        <v>45190.70763888889</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>20 liviano</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>84752</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>(49, 49)</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E260" s="2" t="n">
-        <v>45190.47222222222</v>
-      </c>
-      <c r="F260" s="2" t="n">
-        <v>45190.54166666666</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>84564</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>(30, 30)</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E261" s="2" t="n">
-        <v>45190.33680555555</v>
-      </c>
-      <c r="F261" s="2" t="n">
-        <v>45190.40625</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>84749</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>(46, 46)</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>retiro_full_val</t>
-        </is>
-      </c>
-      <c r="E262" s="2" t="n">
-        <v>45190.48541666667</v>
-      </c>
-      <c r="F262" s="2" t="n">
-        <v>45190.61041666667</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>84529</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>(24, 24)</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>retiro_full_val</t>
-        </is>
-      </c>
-      <c r="E263" s="2" t="n">
-        <v>45190.52291666667</v>
-      </c>
-      <c r="F263" s="2" t="n">
-        <v>45190.64791666667</v>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>84423</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>(29, 29)</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E264" s="2" t="n">
-        <v>45190.33472222222</v>
-      </c>
-      <c r="F264" s="2" t="n">
-        <v>45190.40416666667</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>84086</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>(45, 45)</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E265" s="2" t="n">
-        <v>45190.33472222222</v>
-      </c>
-      <c r="F265" s="2" t="n">
-        <v>45190.40416666667</v>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>84107</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>(32, 32)</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E266" s="2" t="n">
-        <v>45190.34166666667</v>
-      </c>
-      <c r="F266" s="2" t="n">
-        <v>45190.41111111111</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>84085</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(46, 46)</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E267" s="2" t="n">
-        <v>45190.6875</v>
-      </c>
-      <c r="F267" s="2" t="n">
-        <v>45190.75694444445</v>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>84101</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>(65, 65)</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E268" s="2" t="n">
-        <v>45190.69861111111</v>
-      </c>
-      <c r="F268" s="2" t="n">
-        <v>45190.76805555556</v>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>83763</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>(3, 3)</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E269" s="2" t="n">
-        <v>45190.725</v>
-      </c>
-      <c r="F269" s="2" t="n">
-        <v>45190.79444444444</v>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>83759</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>(12, 12)</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E270" s="2" t="n">
-        <v>45190.89583333334</v>
-      </c>
-      <c r="F270" s="2" t="n">
-        <v>45190.96527777778</v>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>83760</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>(34, 34)</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>retiro_full_sai</t>
-        </is>
-      </c>
-      <c r="E271" s="2" t="n">
-        <v>45190.90277777778</v>
-      </c>
-      <c r="F271" s="2" t="n">
-        <v>45190.97222222222</v>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>lcl?</t>
         </is>
       </c>
     </row>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83213</v>
+        <v>82910</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,14 +487,14 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83213</v>
+        <v>82910</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45194.47513888889</v>
+        <v>45219.5125</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83213</v>
+        <v>82910</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(54, 54)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -545,14 +545,14 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45194.47513888889</v>
+        <v>45219.5125</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45194.62791666666</v>
+        <v>45219.66527777778</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -561,11 +561,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83574</v>
+        <v>85088</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45194.42222222222</v>
+        <v>45219.28680555556</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45194.47916666666</v>
+        <v>45219.35416666666</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -590,11 +590,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83574</v>
+        <v>85088</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45194.47916666666</v>
+        <v>45219.35416666666</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45194.57930555556</v>
+        <v>45219.47013888889</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,23 +619,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83574</v>
+        <v>85088</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(23, 23)</t>
+          <t>(33, 33)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45194.57930555556</v>
+        <v>45219.47013888889</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45194.74944444445</v>
+        <v>45219.59444444445</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,11 +648,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83595</v>
+        <v>85108</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,14 +661,14 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.52916666667</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83595</v>
+        <v>85108</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -690,14 +690,14 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45194.55847222222</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83595</v>
+        <v>85108</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45194.55847222222</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45194.76680555556</v>
+        <v>45219.7875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -735,23 +735,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83747</v>
+        <v>85112</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>retiro_full_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45194.72569444445</v>
+        <v>45219.57083333333</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45194.79513888889</v>
+        <v>45219.625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -764,23 +764,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83759</v>
+        <v>85112</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45194.52013888889</v>
+        <v>45219.625</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.70833333334</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -793,23 +793,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83759</v>
+        <v>85112</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.70833333334</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45194.67805555555</v>
+        <v>45219.82916666667</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83759</v>
+        <v>85116</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45194.67805555555</v>
+        <v>45219.44583333333</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45194.81069444444</v>
+        <v>45219.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -851,23 +851,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83777</v>
+        <v>85116</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45194.24444444444</v>
+        <v>45219.5</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45194.3125</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -880,23 +880,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83777</v>
+        <v>85116</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(19, 19)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45194.3125</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45194.40722222222</v>
+        <v>45219.7</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83777</v>
+        <v>85127</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45194.40722222222</v>
+        <v>45219.27916666667</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45194.53986111111</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -938,23 +938,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83778</v>
+        <v>85127</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45194.24444444444</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45194.3125</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -967,23 +967,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83778</v>
+        <v>85127</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45194.3125</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45194.40722222222</v>
+        <v>45219.53333333333</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -996,23 +996,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83778</v>
+        <v>85128</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45194.40722222222</v>
+        <v>45219.3625</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45194.53986111111</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1025,23 +1025,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83882</v>
+        <v>85128</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45194.48472222222</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1054,23 +1054,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83882</v>
+        <v>85128</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.5</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45194.64180555556</v>
+        <v>45219.61666666667</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83882</v>
+        <v>85457</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45194.64180555556</v>
+        <v>45219.39027777778</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45194.76194444444</v>
+        <v>45219.45833333334</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1112,23 +1112,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83893</v>
+        <v>85457</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45194.38611111111</v>
+        <v>45219.45833333334</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.54791666667</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1141,23 +1141,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83893</v>
+        <v>85457</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(52, 52)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.54791666667</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45194.53611111111</v>
+        <v>45219.68055555555</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1170,23 +1170,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83893</v>
+        <v>85460</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(44, 44)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45194.53611111111</v>
+        <v>45219.43194444444</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45194.70347222222</v>
+        <v>45219.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1199,23 +1199,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83952</v>
+        <v>85460</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.5</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.58958333333</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1228,23 +1228,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83952</v>
+        <v>85460</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.58958333333</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45194.75</v>
+        <v>45219.71805555555</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1257,23 +1257,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83952</v>
+        <v>85465</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(21, 21)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45194.75</v>
+        <v>45219.24444444444</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45194.90277777778</v>
+        <v>45219.3125</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1286,23 +1286,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83953</v>
+        <v>85465</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.3125</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45194.70833333334</v>
+        <v>45219.40208333333</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1315,23 +1315,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83953</v>
+        <v>85465</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(42, 42)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45194.70833333334</v>
+        <v>45219.40208333333</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45194.83333333334</v>
+        <v>45219.53055555555</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1344,23 +1344,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83953</v>
+        <v>85481</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45194.83333333334</v>
+        <v>45219.75763888889</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45194.98611111111</v>
+        <v>45219.82708333333</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1373,23 +1373,23 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84032</v>
+        <v>85482</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(51, 51)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45194.34375</v>
+        <v>45219.83958333333</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.90902777778</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1402,23 +1402,23 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>84032</v>
+        <v>85483</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.3875</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45194.475</v>
+        <v>45219.45694444444</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84032</v>
+        <v>85484</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(48, 48)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45194.475</v>
+        <v>45219.35694444444</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45194.54791666667</v>
+        <v>45219.42638888889</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1460,23 +1460,23 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84033</v>
+        <v>85485</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45194.40625</v>
+        <v>45219.67638888889</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.74583333333</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1489,23 +1489,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84033</v>
+        <v>85486</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(0, 0)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.35833333333</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45194.5375</v>
+        <v>45219.42777777778</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1518,23 +1518,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84033</v>
+        <v>85487</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(22, 22)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45194.5375</v>
+        <v>45219.82013888889</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45194.61041666667</v>
+        <v>45219.88958333333</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1547,27 +1547,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84093</v>
+        <v>85488</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.87638888889</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.94583333333</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84093</v>
+        <v>85489</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.67152777778</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45194.52430555555</v>
+        <v>45219.74097222222</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1605,27 +1605,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84093</v>
+        <v>85490</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(27, 27)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45194.52430555555</v>
+        <v>45219.64583333334</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45194.70902777778</v>
+        <v>45219.71527777778</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1634,23 +1634,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84097</v>
+        <v>85491</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45194.43402777778</v>
+        <v>45219.65555555555</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.725</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84097</v>
+        <v>85492</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45194.62083333333</v>
+        <v>45219.73611111111</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1692,23 +1692,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84097</v>
+        <v>85493</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(30, 30)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45194.62083333333</v>
+        <v>45219.65347222222</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45194.74583333333</v>
+        <v>45219.72291666667</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1721,23 +1721,23 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84100</v>
+        <v>85494</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45194.26736111111</v>
+        <v>45219.64930555555</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.71875</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1750,23 +1750,23 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84100</v>
+        <v>85495</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(44, 44)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.64236111111</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45194.45416666667</v>
+        <v>45219.71180555555</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1779,23 +1779,23 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84100</v>
+        <v>85496</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(41, 41)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45194.45416666667</v>
+        <v>45219.66388888889</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45194.57916666667</v>
+        <v>45219.73333333333</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1808,23 +1808,23 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>84117</v>
+        <v>85497</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45194.57291666666</v>
+        <v>45219.65694444445</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.72638888889</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84117</v>
+        <v>85500</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.72013888889</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45194.70416666667</v>
+        <v>45219.78958333333</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1866,23 +1866,23 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84117</v>
+        <v>85501</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(34, 34)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45194.70416666667</v>
+        <v>45219.64375</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45194.77708333333</v>
+        <v>45219.71319444444</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1895,23 +1895,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84118</v>
+        <v>85502</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45194.65625</v>
+        <v>45219.69166666667</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45194.66666666666</v>
+        <v>45219.76111111111</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1924,23 +1924,23 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>84118</v>
+        <v>85505</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(35, 35)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45194.66666666666</v>
+        <v>45219.83680555555</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45194.7875</v>
+        <v>45219.90625</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1953,23 +1953,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>84118</v>
+        <v>85506</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45194.7875</v>
+        <v>45219.44027777778</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45194.86041666667</v>
+        <v>45219.50972222222</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1982,27 +1982,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>84128</v>
+        <v>85508</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(17, 17)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45194.46736111111</v>
+        <v>45219.82152777778</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45194.53125</v>
+        <v>45219.89097222222</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2011,27 +2011,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84128</v>
+        <v>85509</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(26, 26)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45194.53125</v>
+        <v>45219.7125</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45194.60666666667</v>
+        <v>45219.78194444445</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2040,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84128</v>
+        <v>85510</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(31, 31)</t>
+          <t>(63, 63)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45194.60666666667</v>
+        <v>45219.40416666667</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45194.7275</v>
+        <v>45219.47361111111</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2069,23 +2069,23 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>84132</v>
+        <v>85511</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45194.26597222222</v>
+        <v>45219.75486111111</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.82430555556</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2098,23 +2098,23 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>84132</v>
+        <v>85512</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.41111111111</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45194.43541666667</v>
+        <v>45219.48055555556</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2127,23 +2127,23 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>84132</v>
+        <v>85513</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(20, 20)</t>
+          <t>(38, 38)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45194.43541666667</v>
+        <v>45219.75625</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45194.56597222222</v>
+        <v>45219.82569444444</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>84133</v>
+        <v>85514</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45194.32847222222</v>
+        <v>45219.87361111111</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45194.39583333334</v>
+        <v>45219.94305555556</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2185,23 +2185,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>84133</v>
+        <v>85515</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(39, 39)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45194.39583333334</v>
+        <v>45219.68333333333</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45194.49791666667</v>
+        <v>45219.75277777778</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2214,23 +2214,23 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>84133</v>
+        <v>85516</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(6, 6)</t>
+          <t>(53, 53)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45194.49791666667</v>
+        <v>45219.4125</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45194.62847222222</v>
+        <v>45219.48194444444</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2243,23 +2243,23 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>84135</v>
+        <v>85517</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(9, 9)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45194.36875</v>
+        <v>45219.44722222222</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.51666666667</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2272,23 +2272,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>84135</v>
+        <v>85518</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(12, 12)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.75902777778</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45194.5575</v>
+        <v>45219.82847222222</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2301,23 +2301,23 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>84136</v>
+        <v>85519</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(57, 57)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45194.39097222222</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.46527777778</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2330,23 +2330,23 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>84136</v>
+        <v>85520</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.82986111111</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45194.56041666667</v>
+        <v>45219.89930555555</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2359,23 +2359,23 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84136</v>
+        <v>85521</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(42, 42)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45194.56041666667</v>
+        <v>45219.40972222222</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45194.69097222222</v>
+        <v>45219.47916666666</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2388,11 +2388,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>84137</v>
+        <v>85524</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45194.43263888889</v>
+        <v>45219.27152777778</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2417,11 +2417,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>84137</v>
+        <v>85524</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45194.60208333333</v>
+        <v>45219.44236111111</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2446,11 +2446,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>84137</v>
+        <v>85524</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(14, 14)</t>
+          <t>(45, 45)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45194.60208333333</v>
+        <v>45219.44236111111</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45194.73263888889</v>
+        <v>45219.57222222222</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2475,11 +2475,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>84138</v>
+        <v>85528</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45194.51597222222</v>
+        <v>45219.43819444445</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2504,11 +2504,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>84138</v>
+        <v>85528</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.5</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45194.68541666667</v>
+        <v>45219.60902777778</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>84138</v>
+        <v>85528</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(58, 58)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45194.68541666667</v>
+        <v>45219.60902777778</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45194.81597222222</v>
+        <v>45219.73888888889</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2562,11 +2562,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>84143</v>
+        <v>85559</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45194.55763888889</v>
+        <v>45219.53611111111</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2591,11 +2591,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>84143</v>
+        <v>85559</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45194.72708333333</v>
+        <v>45219.70833333334</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2620,23 +2620,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84143</v>
+        <v>85559</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45194.72708333333</v>
+        <v>45219.70833333334</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45194.85763888889</v>
+        <v>45219.88333333333</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2649,11 +2649,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>84151</v>
+        <v>85561</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45194.32291666666</v>
+        <v>45219.28611111111</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45194.40625</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2678,11 +2678,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>84151</v>
+        <v>85561</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45194.40625</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.45833333334</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2707,23 +2707,23 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>84151</v>
+        <v>85561</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>(20, 20)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.45833333334</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45194.61666666667</v>
+        <v>45219.63333333333</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2736,23 +2736,23 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>84176</v>
+        <v>85562</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45194.34305555555</v>
+        <v>45219.38611111111</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45194.39583333334</v>
+        <v>45219.45555555556</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2765,23 +2765,23 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>84176</v>
+        <v>85563</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(43, 43)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45194.39583333334</v>
+        <v>45219.38888888889</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45194.44638888889</v>
+        <v>45219.45833333334</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2794,23 +2794,23 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>84176</v>
+        <v>85579</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(40, 40)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45194.44638888889</v>
+        <v>45219.54305555556</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45194.56722222222</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2823,23 +2823,23 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>84219</v>
+        <v>85579</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45194.55138888889</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45194.60416666666</v>
+        <v>45219.69722222222</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2852,23 +2852,23 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84219</v>
+        <v>85579</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(37, 37)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45194.60416666666</v>
+        <v>45219.69722222222</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45194.70736111111</v>
+        <v>45219.87361111111</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2881,11 +2881,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>84244</v>
+        <v>85597</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2894,10 +2894,10 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45194.50972222222</v>
+        <v>45219.1875</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45194.5625</v>
+        <v>45219.27083333334</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2910,11 +2910,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84244</v>
+        <v>85597</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(36, 36)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45194.5625</v>
+        <v>45219.27083333334</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45194.61305555556</v>
+        <v>45219.36666666667</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2939,23 +2939,23 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>84272</v>
+        <v>85597</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45194.63472222222</v>
+        <v>45219.36666666667</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45194.6875</v>
+        <v>45219.51944444444</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2968,23 +2968,23 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>84272</v>
+        <v>85614</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45194.6875</v>
+        <v>45219.36111111111</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45194.78972222222</v>
+        <v>45219.43055555555</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2997,23 +2997,23 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>84272</v>
+        <v>85614</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45194.78972222222</v>
+        <v>45219.54166666666</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45194.905</v>
+        <v>45219.625</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3026,23 +3026,23 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>84284</v>
+        <v>85614</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45194.3625</v>
+        <v>45219.625</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.75</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3055,23 +3055,23 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>84284</v>
+        <v>85614</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(38, 38)</t>
+          <t>(14, 14)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.75</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45194.50833333333</v>
+        <v>45219.90277777778</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3084,23 +3084,23 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>84314</v>
+        <v>85615</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(41, 41)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.65972222222</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.72916666666</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3113,23 +3113,23 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>84314</v>
+        <v>85629</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.3125</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45194.43416666667</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3142,23 +3142,23 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>84314</v>
+        <v>85629</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45194.43416666667</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45194.60638888889</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3171,23 +3171,23 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>84335</v>
+        <v>85629</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(55, 55)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.72916666666</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3200,23 +3200,23 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>84335</v>
+        <v>85636</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_sai</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.34722222222</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3229,23 +3229,23 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>84335</v>
+        <v>85636</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(11, 11)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45194.71111111111</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3258,23 +3258,23 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>84336</v>
+        <v>85636</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45194.25</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.79166666666</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3287,23 +3287,23 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>84336</v>
+        <v>85636</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(60, 60)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.79166666666</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.94444444445</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3316,23 +3316,23 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>84336</v>
+        <v>85666</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.3125</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45194.58611111111</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3345,23 +3345,23 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>84353</v>
+        <v>85666</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45194.30486111111</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.45486111111</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3374,23 +3374,23 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>84353</v>
+        <v>85666</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(16, 16)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_val</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.45486111111</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45194.47722222222</v>
+        <v>45219.62916666667</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3403,23 +3403,23 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>84353</v>
+        <v>85685</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>(26, 26)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45194.47722222222</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45194.65291666667</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3432,23 +3432,23 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>84370</v>
+        <v>85685</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45194.30555555555</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.53611111111</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3461,27 +3461,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>84370</v>
+        <v>85692</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.31666666667</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45194.48055555556</v>
+        <v>45219.375</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 pesado</t>
         </is>
       </c>
     </row>
@@ -3490,23 +3490,23 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>84438</v>
+        <v>85692</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.375</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>84438</v>
+        <v>85692</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(10, 10)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.5</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45194.48805555556</v>
+        <v>45219.62777777778</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3548,27 +3548,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>84438</v>
+        <v>85740</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>(35, 35)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45194.48805555556</v>
+        <v>45219.43402777778</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45194.60472222222</v>
+        <v>45219.5</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -3577,27 +3577,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>84440</v>
+        <v>85740</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45194.25</v>
+        <v>45219.5</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.60902777778</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -3606,27 +3606,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>84440</v>
+        <v>85740</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(11, 11)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.60902777778</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45194.44638888889</v>
+        <v>45219.73888888889</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>20 liviano</t>
         </is>
       </c>
     </row>
@@ -3635,27 +3635,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>84440</v>
+        <v>85742</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>(24, 24)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45194.44638888889</v>
+        <v>45219.26736111111</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45194.56305555555</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3664,27 +3664,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>84441</v>
+        <v>85742</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.44236111111</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3693,27 +3693,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>84441</v>
+        <v>85742</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(7, 7)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.44236111111</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45194.52972222222</v>
+        <v>45219.57152777778</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3722,27 +3722,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>84441</v>
+        <v>85743</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>(39, 39)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45194.52972222222</v>
+        <v>45219.45347222222</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45194.64638888889</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3751,23 +3751,23 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>84459</v>
+        <v>85743</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45194.55902777778</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.61319444444</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3780,23 +3780,23 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>84459</v>
+        <v>85743</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(37, 37)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.61319444444</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45194.74583333333</v>
+        <v>45219.74375</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3809,23 +3809,23 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>84459</v>
+        <v>85744</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>(33, 33)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45194.74583333333</v>
+        <v>45219.41180555556</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45194.87083333333</v>
+        <v>45219.47916666666</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3838,23 +3838,23 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>84486</v>
+        <v>85744</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45194.51597222222</v>
+        <v>45219.47916666666</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.57152777778</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3867,23 +3867,23 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>84486</v>
+        <v>85744</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(62, 62)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.57152777778</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45194.68708333333</v>
+        <v>45219.70208333333</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3896,23 +3896,23 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>84486</v>
+        <v>85747</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>(13, 13)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45194.68708333333</v>
+        <v>45219.53680555556</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45194.81833333334</v>
+        <v>45219.60416666666</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3925,23 +3925,23 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>84492</v>
+        <v>85747</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45194.34027777778</v>
+        <v>45219.60416666666</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.69652777778</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3954,23 +3954,23 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>84492</v>
+        <v>85747</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.69652777778</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45194.5575</v>
+        <v>45219.82708333333</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3983,23 +3983,23 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>84492</v>
+        <v>85750</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>(32, 32)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>45194.5575</v>
+        <v>45219.37013888889</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>45194.73805555556</v>
+        <v>45219.4375</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4012,27 +4012,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>84523</v>
+        <v>85750</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.4375</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.52986111111</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4041,27 +4041,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>84523</v>
+        <v>85750</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(40, 40)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.52986111111</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45194.70833333334</v>
+        <v>45219.66041666667</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4070,27 +4070,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>84523</v>
+        <v>85758</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(28, 28)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>devolucion_vacio_sai</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>45194.70833333334</v>
+        <v>45219.27013888889</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45194.83333333334</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20 pesado</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4099,23 +4099,23 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>84529</v>
+        <v>85758</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.42569444444</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4128,23 +4128,23 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>84529</v>
+        <v>85758</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(21, 21)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_stgo</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.42569444444</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.59652777778</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4157,11 +4157,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>84541</v>
+        <v>85774</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4170,10 +4170,10 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>45194.44652777778</v>
+        <v>45219.23958333334</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.29166666666</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4186,11 +4186,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>84541</v>
+        <v>85774</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.29166666666</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45194.58472222222</v>
+        <v>45219.378125</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4215,23 +4215,23 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>84541</v>
+        <v>85774</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>(12, 12)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>45194.58472222222</v>
+        <v>45219.378125</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45194.75694444445</v>
+        <v>45219.49270833333</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4244,11 +4244,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>84557</v>
+        <v>85780</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>45194.23958333334</v>
+        <v>45219.60416666666</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.6875</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4273,11 +4273,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>84557</v>
+        <v>85780</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.6875</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45194.38541666666</v>
+        <v>45219.8125</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4302,23 +4302,23 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>84557</v>
+        <v>85780</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>(9, 9)</t>
+          <t>(59, 59)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>45194.38541666666</v>
+        <v>45219.8125</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45194.55625</v>
+        <v>45219.94097222222</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4331,11 +4331,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>84568</v>
+        <v>85812</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>45194.36180555556</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4360,11 +4360,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>84568</v>
+        <v>85812</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.41666666666</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45194.46763888889</v>
+        <v>45219.46666666667</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4389,23 +4389,23 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>84568</v>
+        <v>85812</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>(27, 27)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>45194.46763888889</v>
+        <v>45219.46666666667</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45194.65444444444</v>
+        <v>45219.58541666667</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4418,23 +4418,23 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>84591</v>
+        <v>85832</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(49, 49)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>45194.48819444444</v>
+        <v>45219.625</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.75</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>84591</v>
+        <v>85835</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.375</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45194.65625</v>
+        <v>45219.5</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4476,23 +4476,23 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>84591</v>
+        <v>85835</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>(18, 18)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>45194.65625</v>
+        <v>45219.70833333334</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45194.86458333334</v>
+        <v>45219.79166666666</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4505,23 +4505,23 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>84593</v>
+        <v>85835</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(23, 23)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>45194.36319444444</v>
+        <v>45219.79166666666</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.86284722222</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4534,23 +4534,23 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>84593</v>
+        <v>85840</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(28, 28)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.625</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45194.53125</v>
+        <v>45219.75</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4563,23 +4563,23 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>84593</v>
+        <v>85842</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>(34, 34)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>45194.53125</v>
+        <v>45219.54166666666</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45194.73958333334</v>
+        <v>45219.625</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4592,23 +4592,23 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>84596</v>
+        <v>85842</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.625</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45194.4375</v>
+        <v>45219.6875</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4621,23 +4621,23 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>84596</v>
+        <v>85842</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(18, 18)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>45194.4375</v>
+        <v>45219.6875</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45194.59652777778</v>
+        <v>45219.80902777778</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4650,23 +4650,23 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>84596</v>
+        <v>85843</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>45194.59652777778</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45194.80486111111</v>
+        <v>45219.64583333334</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4679,11 +4679,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>84598</v>
+        <v>85843</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>45194.6875</v>
+        <v>45219.71875</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45194.77083333334</v>
+        <v>45219.77083333334</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4708,11 +4708,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>84598</v>
+        <v>85843</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="E148" s="2" t="n">
-        <v>45194.77083333334</v>
+        <v>45219.77083333334</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45194.93611111111</v>
+        <v>45219.88472222222</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4737,11 +4737,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>84598</v>
+        <v>85843</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>(7, 7)</t>
+          <t>(47, 47)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>45194.93611111111</v>
+        <v>45219.88472222222</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45195.08888888889</v>
+        <v>45220.00347222222</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4766,23 +4766,23 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>84656</v>
+        <v>85844</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(30, 30)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>45194.46527777778</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.64583333334</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4795,23 +4795,23 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>84656</v>
+        <v>85848</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(64, 64)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>retiro_full_val</t>
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.375</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45194.60555555556</v>
+        <v>45219.5</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4824,23 +4824,23 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>84656</v>
+        <v>85852</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45194.60555555556</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45194.78611111111</v>
+        <v>45219.75</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4853,23 +4853,23 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>84657</v>
+        <v>85852</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E153" s="2" t="n">
-        <v>45194.50694444445</v>
+        <v>45219.75</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.8375</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4882,23 +4882,23 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>84657</v>
+        <v>85852</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.8375</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45194.64722222222</v>
+        <v>45219.95555555556</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -4911,23 +4911,23 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>84657</v>
+        <v>85854</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>(15, 15)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45194.64722222222</v>
+        <v>45219.71875</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45194.82777777778</v>
+        <v>45219.77083333334</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4940,23 +4940,23 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>84658</v>
+        <v>85854</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45194.54861111111</v>
+        <v>45219.77083333334</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.84201388889</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -4969,23 +4969,23 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>84658</v>
+        <v>85854</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(24, 24)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>45194.58333333334</v>
+        <v>45219.84201388889</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>45194.68888888889</v>
+        <v>45219.96076388889</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4998,23 +4998,23 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>84658</v>
+        <v>85869</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E158" s="2" t="n">
-        <v>45194.68888888889</v>
+        <v>45219.25</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>45194.86944444444</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5027,23 +5027,23 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>84659</v>
+        <v>85869</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>45194.42361111111</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.43819444445</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>84659</v>
+        <v>85894</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.45138888889</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>45194.56388888889</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5085,23 +5085,23 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>84659</v>
+        <v>85894</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>(10, 10)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45194.56388888889</v>
+        <v>45219.52083333334</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>45194.74444444444</v>
+        <v>45219.61631944445</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5114,23 +5114,23 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>84739</v>
+        <v>85894</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(50, 50)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45194.59305555555</v>
+        <v>45219.61631944445</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>45194.64583333334</v>
+        <v>45219.73784722222</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5143,23 +5143,23 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>84739</v>
+        <v>85903</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(19, 19)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45194.64583333334</v>
+        <v>45219.51388888889</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>45194.74902777778</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5172,23 +5172,23 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>84784</v>
+        <v>85903</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>trayecto</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.67881944445</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5201,23 +5201,23 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>84784</v>
+        <v>85903</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>presentacion</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E165" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.67881944445</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.80034722222</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5230,23 +5230,23 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>84784</v>
+        <v>85906</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>(43, 43)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>trayecto</t>
         </is>
       </c>
       <c r="E166" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.47222222222</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>45194.77361111111</v>
+        <v>45219.54166666666</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5259,23 +5259,23 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>84796</v>
+        <v>85906</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>(29, 29)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>devolucion_vacio_val</t>
+          <t>presentacion</t>
         </is>
       </c>
       <c r="E167" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.54166666666</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>45194.66666666666</v>
+        <v>45219.63715277778</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5288,27 +5288,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>84856</v>
+        <v>85906</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>(17, 17)</t>
+          <t>(13, 13)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>retiro_full_val</t>
+          <t>devolucion_vacio_sai</t>
         </is>
       </c>
       <c r="E168" s="2" t="n">
-        <v>45194.52083333334</v>
+        <v>45219.63715277778</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>45194.64583333334</v>
+        <v>45219.75868055555</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>lcl?</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5317,27 +5317,3391 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>84857</v>
+        <v>85949</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45219.32291666666</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>45219.40625</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>85949</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45219.40625</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>45219.47361111111</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>85970</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>85970</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>45219.64652777778</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85971</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45219.89583333334</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>45219.96527777778</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>85974</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45219.3125</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>85974</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>45219.45</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>85974</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45219.45</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>45219.60277777778</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>85983</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45219.70347222222</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>45219.77291666667</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>85984</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45219.73541666667</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>85984</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>45219.89861111111</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>85984</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45219.89861111111</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>45220.10694444444</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>85992</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>(29, 29)</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45219.36319444444</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>85992</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>45219.48402777778</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>85992</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45219.48402777778</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>45219.65694444445</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>85996</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45219.6875</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>85996</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>45219.89583333334</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>85996</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45219.89583333334</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>45220.04861111111</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>86002</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45219.40208333333</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>86002</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>45219.50625</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>86002</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45219.50625</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>45219.62916666667</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>86007</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>86007</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>45219.51805555556</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>86007</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45219.51805555556</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>45219.64375</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>86019</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>retiro_full_sai</t>
         </is>
       </c>
-      <c r="E169" s="2" t="n">
-        <v>45194.36805555555</v>
-      </c>
-      <c r="F169" s="2" t="n">
-        <v>45194.4375</v>
-      </c>
-      <c r="G169" t="inlineStr">
+      <c r="E193" s="2" t="n">
+        <v>45219.66180555556</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>45219.73125</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>86038</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45219.69027777778</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>86038</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>45219.83125</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>86038</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45219.83125</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>45220.00972222222</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>86039</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45219.59305555555</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>86039</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>45219.77847222222</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>86039</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45219.77847222222</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>45219.89722222222</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>86051</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45219.67569444444</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>86051</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>45219.84826388889</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>86051</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45219.84826388889</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>45219.96770833333</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>86054</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>86054</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>45219.83402777778</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>86054</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_stgo</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45219.83402777778</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>45220.07013888889</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>86061</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>45219.4375</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>86061</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45219.4375</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>45219.56875</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>86061</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45219.56875</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>45219.69236111111</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>86087</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45219.46527777778</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>45219.53472222222</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>86088</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45219.43055555555</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>45219.5</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>86089</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45219.35208333333</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>86089</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>45219.48368055555</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>86089</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45219.48368055555</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>45219.66631944444</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>86090</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45219.27083333334</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>86090</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>45219.47708333333</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>86090</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45219.47708333333</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>45219.62986111111</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>20 liviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>86092</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45219.33888888889</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>45219.46388888889</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>86116</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>86116</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>45219.73402777778</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>86116</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45219.73402777778</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>45219.88680555556</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>86157</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45219.29166666666</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>86157</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>45219.5</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>86157</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45219.5</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>45219.62083333333</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>86160</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>45219.47916666666</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>86160</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45219.47916666666</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>86160</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>45219.725</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>86166</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45219.71736111111</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>86166</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>45219.8625</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>86166</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45219.8625</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>45219.98333333333</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>86183</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45219.70138888889</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>86207</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45219.44166666667</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>45219.51111111111</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>86211</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45219.53055555555</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>86211</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>45219.64236111111</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>86211</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45219.64236111111</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>45219.76319444444</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>86239</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>86249</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45219.26944444444</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>86249</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>86252</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45219.34027777778</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>45219.40972222222</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>86259</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45219.63055555556</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>45219.75555555556</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>86260</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>retiro_full_val</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45219.62847222222</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>45219.75347222222</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>86262</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45219.6625</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>45219.73194444444</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>86269</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45219.43888888889</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>45219.50833333333</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>86302</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45219.56319444445</v>
+      </c>
+      <c r="F243" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>86302</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F244" s="2" t="n">
+        <v>45219.71458333333</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>86302</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45219.71458333333</v>
+      </c>
+      <c r="F245" s="2" t="n">
+        <v>45219.89930555555</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>86304</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45219.4125</v>
+      </c>
+      <c r="F246" s="2" t="n">
+        <v>45219.48194444444</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>86306</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45219.52152777778</v>
+      </c>
+      <c r="F247" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>86306</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F248" s="2" t="n">
+        <v>45219.67291666667</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>86306</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_val</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45219.67291666667</v>
+      </c>
+      <c r="F249" s="2" t="n">
+        <v>45219.85763888889</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>86308</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45219.34861111111</v>
+      </c>
+      <c r="F250" s="2" t="n">
+        <v>45219.41805555556</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>86309</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45219.38472222222</v>
+      </c>
+      <c r="F251" s="2" t="n">
+        <v>45219.45416666667</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>86310</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45219.39027777778</v>
+      </c>
+      <c r="F252" s="2" t="n">
+        <v>45219.45972222222</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>86311</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45219.37638888889</v>
+      </c>
+      <c r="F253" s="2" t="n">
+        <v>45219.44583333333</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>86347</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="F254" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>86347</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="F255" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>86347</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F256" s="2" t="n">
+        <v>45219.7125</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>86369</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45219.23263888889</v>
+      </c>
+      <c r="F257" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>86369</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="F258" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>86369</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="F259" s="2" t="n">
+        <v>45219.6625</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>86422</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45219.83125</v>
+      </c>
+      <c r="F260" s="2" t="n">
+        <v>45219.90069444444</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>86494</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45219.30972222222</v>
+      </c>
+      <c r="F261" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>86494</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="F262" s="2" t="n">
+        <v>45219.49930555555</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>86494</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45219.49930555555</v>
+      </c>
+      <c r="F263" s="2" t="n">
+        <v>45219.61041666667</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>20 pesado</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>86601</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45219.41388888889</v>
+      </c>
+      <c r="F264" s="2" t="n">
+        <v>45219.48333333333</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>86602</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45219.43611111111</v>
+      </c>
+      <c r="F265" s="2" t="n">
+        <v>45219.50555555556</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>86629</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45219.63888888889</v>
+      </c>
+      <c r="F266" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>86665</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45219.57638888889</v>
+      </c>
+      <c r="F267" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="G267" t="inlineStr">
         <is>
           <t>lcl?</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>86666</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F268" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>86666</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45219.52222222222</v>
+      </c>
+      <c r="F269" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>86666</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F270" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>86666</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F271" s="2" t="n">
+        <v>45219.86111111111</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>86667</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F272" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>86667</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45219.54305555556</v>
+      </c>
+      <c r="F273" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>86667</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="F274" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>86667</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="F275" s="2" t="n">
+        <v>45219.88194444445</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>86668</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F276" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>86668</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45219.52222222222</v>
+      </c>
+      <c r="F277" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>86668</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F278" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>86668</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>devolucion_vacio_sai</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F279" s="2" t="n">
+        <v>45219.86111111111</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>86669</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F280" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>86669</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>trayecto</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45219.54305555556</v>
+      </c>
+      <c r="F281" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>86669</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>presentacion</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="F282" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>86688</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="F283" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>85519</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45219.45138888889</v>
+      </c>
+      <c r="F284" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>85483</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>retiro_full_sai</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45219.45138888889</v>
+      </c>
+      <c r="F285" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -34,154 +34,220 @@
     <t>tipo_cont</t>
   </si>
   <si>
+    <t>(11, 11)</t>
+  </si>
+  <si>
+    <t>(33, 33)</t>
+  </si>
+  <si>
+    <t>(2, 2)</t>
+  </si>
+  <si>
+    <t>(52, 52)</t>
+  </si>
+  <si>
+    <t>(10, 10)</t>
+  </si>
+  <si>
+    <t>(29, 29)</t>
+  </si>
+  <si>
+    <t>(57, 57)</t>
+  </si>
+  <si>
+    <t>(46, 46)</t>
+  </si>
+  <si>
+    <t>(50, 50)</t>
+  </si>
+  <si>
+    <t>(25, 25)</t>
+  </si>
+  <si>
+    <t>(5, 5)</t>
+  </si>
+  <si>
+    <t>(39, 39)</t>
+  </si>
+  <si>
+    <t>(43, 43)</t>
+  </si>
+  <si>
+    <t>(13, 13)</t>
+  </si>
+  <si>
+    <t>(51, 51)</t>
+  </si>
+  <si>
+    <t>(12, 12)</t>
+  </si>
+  <si>
+    <t>(47, 47)</t>
+  </si>
+  <si>
+    <t>(26, 26)</t>
+  </si>
+  <si>
+    <t>(32, 32)</t>
+  </si>
+  <si>
+    <t>(42, 42)</t>
+  </si>
+  <si>
+    <t>(49, 49)</t>
+  </si>
+  <si>
+    <t>(16, 16)</t>
+  </si>
+  <si>
+    <t>(21, 21)</t>
+  </si>
+  <si>
+    <t>(20, 20)</t>
+  </si>
+  <si>
+    <t>(18, 18)</t>
+  </si>
+  <si>
+    <t>(35, 35)</t>
+  </si>
+  <si>
+    <t>(8, 8)</t>
+  </si>
+  <si>
+    <t>(3, 3)</t>
+  </si>
+  <si>
+    <t>(48, 48)</t>
+  </si>
+  <si>
+    <t>(17, 17)</t>
+  </si>
+  <si>
+    <t>(30, 30)</t>
+  </si>
+  <si>
+    <t>(22, 22)</t>
+  </si>
+  <si>
+    <t>(19, 19)</t>
+  </si>
+  <si>
     <t>(1, 1)</t>
   </si>
   <si>
-    <t>(26, 26)</t>
+    <t>(45, 45)</t>
+  </si>
+  <si>
+    <t>(7, 7)</t>
+  </si>
+  <si>
+    <t>(59, 59)</t>
+  </si>
+  <si>
+    <t>(54, 54)</t>
+  </si>
+  <si>
+    <t>(24, 24)</t>
+  </si>
+  <si>
+    <t>(14, 14)</t>
+  </si>
+  <si>
+    <t>(37, 37)</t>
+  </si>
+  <si>
+    <t>(27, 27)</t>
+  </si>
+  <si>
+    <t>(53, 53)</t>
+  </si>
+  <si>
+    <t>(36, 36)</t>
+  </si>
+  <si>
+    <t>(55, 55)</t>
+  </si>
+  <si>
+    <t>(38, 38)</t>
+  </si>
+  <si>
+    <t>(23, 23)</t>
+  </si>
+  <si>
+    <t>(31, 31)</t>
+  </si>
+  <si>
+    <t>(58, 58)</t>
+  </si>
+  <si>
+    <t>(56, 56)</t>
+  </si>
+  <si>
+    <t>(0, 0)</t>
+  </si>
+  <si>
+    <t>(41, 41)</t>
   </si>
   <si>
     <t>(6, 6)</t>
   </si>
   <si>
+    <t>(15, 15)</t>
+  </si>
+  <si>
+    <t>(4, 4)</t>
+  </si>
+  <si>
     <t>(34, 34)</t>
   </si>
   <si>
     <t>(40, 40)</t>
   </si>
   <si>
-    <t>(16, 16)</t>
-  </si>
-  <si>
-    <t>(22, 22)</t>
-  </si>
-  <si>
-    <t>(39, 39)</t>
-  </si>
-  <si>
-    <t>(29, 29)</t>
-  </si>
-  <si>
-    <t>(32, 32)</t>
-  </si>
-  <si>
-    <t>(17, 17)</t>
-  </si>
-  <si>
-    <t>(19, 19)</t>
-  </si>
-  <si>
-    <t>(37, 37)</t>
-  </si>
-  <si>
-    <t>(30, 30)</t>
-  </si>
-  <si>
-    <t>(27, 27)</t>
-  </si>
-  <si>
-    <t>(3, 3)</t>
-  </si>
-  <si>
-    <t>(24, 24)</t>
-  </si>
-  <si>
-    <t>(12, 12)</t>
-  </si>
-  <si>
-    <t>(33, 33)</t>
-  </si>
-  <si>
-    <t>(8, 8)</t>
-  </si>
-  <si>
-    <t>(0, 0)</t>
-  </si>
-  <si>
-    <t>(10, 10)</t>
-  </si>
-  <si>
-    <t>(36, 36)</t>
-  </si>
-  <si>
-    <t>(25, 25)</t>
-  </si>
-  <si>
     <t>(28, 28)</t>
   </si>
   <si>
+    <t>(60, 60)</t>
+  </si>
+  <si>
+    <t>(44, 44)</t>
+  </si>
+  <si>
     <t>(9, 9)</t>
   </si>
   <si>
-    <t>(35, 35)</t>
-  </si>
-  <si>
-    <t>(13, 13)</t>
-  </si>
-  <si>
-    <t>(4, 4)</t>
-  </si>
-  <si>
-    <t>(23, 23)</t>
-  </si>
-  <si>
-    <t>(31, 31)</t>
-  </si>
-  <si>
-    <t>(38, 38)</t>
-  </si>
-  <si>
-    <t>(5, 5)</t>
-  </si>
-  <si>
-    <t>(2, 2)</t>
-  </si>
-  <si>
-    <t>(11, 11)</t>
-  </si>
-  <si>
-    <t>(21, 21)</t>
-  </si>
-  <si>
-    <t>(15, 15)</t>
-  </si>
-  <si>
-    <t>(14, 14)</t>
-  </si>
-  <si>
-    <t>(20, 20)</t>
-  </si>
-  <si>
-    <t>(18, 18)</t>
-  </si>
-  <si>
-    <t>(7, 7)</t>
-  </si>
-  <si>
-    <t>(41, 41)</t>
-  </si>
-  <si>
     <t>trayecto</t>
   </si>
   <si>
     <t>presentacion</t>
   </si>
   <si>
+    <t>devolucion_vacio_val</t>
+  </si>
+  <si>
+    <t>devolucion_vacio_sai</t>
+  </si>
+  <si>
     <t>retiro_full_sai</t>
   </si>
   <si>
-    <t>devolucion_vacio_sai</t>
-  </si>
-  <si>
-    <t>devolucion_vacio_val</t>
+    <t>retiro_full_val</t>
+  </si>
+  <si>
+    <t>devolucion_vacio_stgo</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>20 pesado</t>
   </si>
   <si>
     <t>20 liviano</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>20 pesado</t>
+    <t>lcl?</t>
   </si>
 </sst>
 </file>
@@ -543,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,22 +640,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86596</v>
+        <v>83004</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
-        <v>45241.37569444445</v>
+        <v>45244.51388888889</v>
       </c>
       <c r="F2" s="2">
-        <v>45241.4375</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -597,22 +663,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86596</v>
+        <v>83004</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
-        <v>45241.4375</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="F3" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.67881944445</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -620,22 +686,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86611</v>
+        <v>83004</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>45241.34305555555</v>
+        <v>45244.67881944445</v>
       </c>
       <c r="F4" s="2">
-        <v>45241.4125</v>
+        <v>45244.84826388889</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -643,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86613</v>
+        <v>85554</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
-        <v>45241.35</v>
+        <v>45244.52916666667</v>
       </c>
       <c r="F5" s="2">
-        <v>45241.41944444444</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -666,22 +732,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86618</v>
+        <v>85554</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
-        <v>45241.40208333333</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="F6" s="2">
-        <v>45241.47152777778</v>
+        <v>45244.66666666666</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -689,22 +755,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86620</v>
+        <v>85554</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
-        <v>45241.46805555555</v>
+        <v>45244.66666666666</v>
       </c>
       <c r="F7" s="2">
-        <v>45241.5375</v>
+        <v>45244.7875</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -712,22 +778,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86621</v>
+        <v>86276</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
-        <v>45241.54236111111</v>
+        <v>45244.59166666667</v>
       </c>
       <c r="F8" s="2">
-        <v>45241.61180555556</v>
+        <v>45244.64583333334</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -735,22 +801,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>86622</v>
+        <v>86276</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
-        <v>45241.52986111111</v>
+        <v>45244.64583333334</v>
       </c>
       <c r="F9" s="2">
-        <v>45241.59930555556</v>
+        <v>45244.72916666666</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -758,22 +824,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86624</v>
+        <v>86276</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
-        <v>45241.54375</v>
+        <v>45244.72916666666</v>
       </c>
       <c r="F10" s="2">
-        <v>45241.61319444444</v>
+        <v>45244.85</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -781,22 +847,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86694</v>
+        <v>86287</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
-        <v>45241.26736111111</v>
+        <v>45244.63333333333</v>
       </c>
       <c r="F11" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.6875</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -804,22 +870,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86694</v>
+        <v>86287</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.6875</v>
       </c>
       <c r="F12" s="2">
-        <v>45241.44236111111</v>
+        <v>45244.77083333334</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -827,22 +893,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86694</v>
+        <v>86287</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2">
-        <v>45241.44236111111</v>
+        <v>45244.77083333334</v>
       </c>
       <c r="F13" s="2">
-        <v>45241.57222222222</v>
+        <v>45244.89166666667</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -850,22 +916,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86931</v>
+        <v>86606</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
-        <v>45241.37569444445</v>
+        <v>45244.40416666667</v>
       </c>
       <c r="F14" s="2">
-        <v>45241.4375</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -873,22 +939,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86931</v>
+        <v>86606</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2">
-        <v>45241.4375</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F15" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.54166666666</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -896,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86931</v>
+        <v>86606</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.54166666666</v>
       </c>
       <c r="F16" s="2">
-        <v>45241.67569444444</v>
+        <v>45244.6625</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -919,22 +985,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86980</v>
+        <v>86607</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2">
-        <v>45241.34305555555</v>
+        <v>45244.46666666667</v>
       </c>
       <c r="F17" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.52083333334</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -942,22 +1008,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86980</v>
+        <v>86607</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.52083333334</v>
       </c>
       <c r="F18" s="2">
-        <v>45241.44583333333</v>
+        <v>45244.60416666666</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -965,22 +1031,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86980</v>
+        <v>86607</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
-        <v>45241.44583333333</v>
+        <v>45244.60416666666</v>
       </c>
       <c r="F19" s="2">
-        <v>45241.56666666667</v>
+        <v>45244.725</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -988,22 +1054,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87198</v>
+        <v>86610</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2">
-        <v>45241.52152777778</v>
+        <v>45244.34166666667</v>
       </c>
       <c r="F20" s="2">
-        <v>45241.59097222222</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1011,22 +1077,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87205</v>
+        <v>86610</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2">
-        <v>45241.53958333333</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="F21" s="2">
-        <v>45241.60902777778</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1034,22 +1100,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87208</v>
+        <v>86610</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2">
-        <v>45241.37708333333</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="F22" s="2">
-        <v>45241.44652777778</v>
+        <v>45244.6</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1057,22 +1123,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87216</v>
+        <v>86795</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2">
-        <v>45241.40138888889</v>
+        <v>45244.375</v>
       </c>
       <c r="F23" s="2">
-        <v>45241.47083333333</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1080,22 +1146,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87218</v>
+        <v>86795</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2">
-        <v>45241.41388888889</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F24" s="2">
-        <v>45241.48333333333</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1103,22 +1169,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87231</v>
+        <v>86795</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2">
-        <v>45241.54097222222</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="F25" s="2">
-        <v>45241.61041666667</v>
+        <v>45244.75416666667</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1126,22 +1192,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87232</v>
+        <v>86798</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2">
-        <v>45241.36041666667</v>
+        <v>45244.29166666666</v>
       </c>
       <c r="F26" s="2">
-        <v>45241.42986111111</v>
+        <v>45244.375</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1149,22 +1215,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87239</v>
+        <v>86798</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2">
-        <v>45241.35763888889</v>
+        <v>45244.375</v>
       </c>
       <c r="F27" s="2">
-        <v>45241.42708333334</v>
+        <v>45244.5</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1172,22 +1238,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87240</v>
+        <v>86798</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
-        <v>45241.4</v>
+        <v>45244.5</v>
       </c>
       <c r="F28" s="2">
-        <v>45241.46944444445</v>
+        <v>45244.61805555555</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1195,22 +1261,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87244</v>
+        <v>86928</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2">
-        <v>45241.34652777778</v>
+        <v>45244.56319444445</v>
       </c>
       <c r="F29" s="2">
-        <v>45241.41597222222</v>
+        <v>45244.625</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1218,22 +1284,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87248</v>
+        <v>86928</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.625</v>
       </c>
       <c r="F30" s="2">
-        <v>45241.61597222222</v>
+        <v>45244.73402777778</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1241,22 +1307,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87249</v>
+        <v>86928</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2">
-        <v>45241.35902777778</v>
+        <v>45244.73402777778</v>
       </c>
       <c r="F31" s="2">
-        <v>45241.42847222222</v>
+        <v>45244.86388888889</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1264,22 +1330,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87266</v>
+        <v>86929</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2">
-        <v>45241.35069444445</v>
+        <v>45244.43819444445</v>
       </c>
       <c r="F32" s="2">
-        <v>45241.42013888889</v>
+        <v>45244.5</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1287,22 +1353,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87268</v>
+        <v>86929</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2">
-        <v>45241.35208333333</v>
+        <v>45244.5</v>
       </c>
       <c r="F33" s="2">
-        <v>45241.42152777778</v>
+        <v>45244.60902777778</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1310,22 +1376,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87269</v>
+        <v>86929</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2">
-        <v>45241.36180555556</v>
+        <v>45244.60902777778</v>
       </c>
       <c r="F34" s="2">
-        <v>45241.43125</v>
+        <v>45244.73888888889</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1333,22 +1399,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87271</v>
+        <v>86936</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2">
-        <v>45241.3625</v>
+        <v>45244.27152777778</v>
       </c>
       <c r="F35" s="2">
-        <v>45241.43194444444</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1356,22 +1422,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87275</v>
+        <v>86936</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2">
-        <v>45241.36111111111</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="F36" s="2">
-        <v>45241.43055555555</v>
+        <v>45244.44236111111</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1379,22 +1445,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>87277</v>
+        <v>86936</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2">
-        <v>45241.35694444444</v>
+        <v>45244.44236111111</v>
       </c>
       <c r="F37" s="2">
-        <v>45241.42638888889</v>
+        <v>45244.57152777778</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1402,22 +1468,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>87279</v>
+        <v>86955</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2">
-        <v>45241.35833333333</v>
+        <v>45244.47222222222</v>
       </c>
       <c r="F38" s="2">
-        <v>45241.42777777778</v>
+        <v>45244.54166666666</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1425,22 +1491,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>87420</v>
+        <v>87159</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2">
-        <v>45241.38888888889</v>
+        <v>45244.26944444444</v>
       </c>
       <c r="F39" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1448,22 +1514,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>87452</v>
+        <v>87159</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2">
-        <v>45241.22916666666</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="F40" s="2">
-        <v>45241.3125</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1471,22 +1537,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>87452</v>
+        <v>87159</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45241.3125</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F41" s="2">
-        <v>45241.41736111111</v>
+        <v>45244.63472222222</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1494,22 +1560,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>87494</v>
+        <v>87372</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2">
-        <v>45241.375</v>
+        <v>45244.31180555555</v>
       </c>
       <c r="F42" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1517,22 +1583,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>87494</v>
+        <v>87372</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F43" s="2">
-        <v>45241.54513888889</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1540,22 +1606,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>87494</v>
+        <v>87372</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45241.54513888889</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="F44" s="2">
-        <v>45241.69791666666</v>
+        <v>45244.65069444444</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1563,22 +1629,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>87497</v>
+        <v>87373</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.33263888889</v>
       </c>
       <c r="F45" s="2">
-        <v>45241.5</v>
+        <v>45244.375</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1586,22 +1652,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>87497</v>
+        <v>87373</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2">
-        <v>45241.5</v>
+        <v>45244.375</v>
       </c>
       <c r="F46" s="2">
-        <v>45241.58680555555</v>
+        <v>45244.5</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1609,22 +1675,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>87497</v>
+        <v>87373</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45241.58680555555</v>
+        <v>45244.5</v>
       </c>
       <c r="F47" s="2">
-        <v>45241.73958333334</v>
+        <v>45244.67152777778</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1632,22 +1698,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>87501</v>
+        <v>87374</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.35347222222</v>
       </c>
       <c r="F48" s="2">
-        <v>45241.375</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1655,22 +1721,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>87501</v>
+        <v>87374</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2">
-        <v>45241.375</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="F49" s="2">
-        <v>45241.46180555555</v>
+        <v>45244.52083333334</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1678,22 +1744,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>87501</v>
+        <v>87374</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45241.46180555555</v>
+        <v>45244.52083333334</v>
       </c>
       <c r="F50" s="2">
-        <v>45241.61458333334</v>
+        <v>45244.69236111111</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1701,22 +1767,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>87502</v>
+        <v>87375</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E51" s="2">
-        <v>45241.25555555556</v>
+        <v>45244.37430555555</v>
       </c>
       <c r="F51" s="2">
-        <v>45241.3125</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1724,22 +1790,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>87502</v>
+        <v>87375</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E52" s="2">
-        <v>45241.3125</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="F52" s="2">
-        <v>45241.39270833333</v>
+        <v>45244.54166666666</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1747,22 +1813,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>87502</v>
+        <v>87375</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45241.39270833333</v>
+        <v>45244.54166666666</v>
       </c>
       <c r="F53" s="2">
-        <v>45241.51631944445</v>
+        <v>45244.71319444444</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1770,22 +1836,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>87504</v>
+        <v>87405</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.375</v>
       </c>
       <c r="F54" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1793,22 +1859,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>87504</v>
+        <v>87405</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F55" s="2">
-        <v>45241.50347222222</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1816,22 +1882,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>87504</v>
+        <v>87405</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45241.50347222222</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="F56" s="2">
-        <v>45241.65625</v>
+        <v>45244.75972222222</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1839,22 +1905,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>87517</v>
+        <v>87422</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E57" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.27083333334</v>
       </c>
       <c r="F57" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1862,22 +1928,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>87517</v>
+        <v>87422</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F58" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.40833333333</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1885,22 +1951,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>87517</v>
+        <v>87422</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.40833333333</v>
       </c>
       <c r="F59" s="2">
-        <v>45241.81944444445</v>
+        <v>45244.53402777778</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1908,22 +1974,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>87522</v>
+        <v>87541</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2">
-        <v>45241.48958333334</v>
+        <v>45244.34305555555</v>
       </c>
       <c r="F60" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1931,22 +1997,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>87522</v>
+        <v>87541</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E61" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.39583333334</v>
       </c>
       <c r="F61" s="2">
-        <v>45241.70659722222</v>
+        <v>45244.44583333333</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1954,22 +2020,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>87522</v>
+        <v>87541</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2">
-        <v>45241.70659722222</v>
+        <v>45244.44583333333</v>
       </c>
       <c r="F62" s="2">
-        <v>45241.82465277778</v>
+        <v>45244.56666666667</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1977,22 +2043,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>87523</v>
+        <v>87558</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E63" s="2">
-        <v>45241.60694444444</v>
+        <v>45244.50972222222</v>
       </c>
       <c r="F63" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.5625</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2000,22 +2066,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>87523</v>
+        <v>87558</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E64" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.5625</v>
       </c>
       <c r="F64" s="2">
-        <v>45241.79166666666</v>
+        <v>45244.6125</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2023,22 +2089,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>87523</v>
+        <v>87558</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45241.79166666666</v>
+        <v>45244.6125</v>
       </c>
       <c r="F65" s="2">
-        <v>45241.91597222222</v>
+        <v>45244.78611111111</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2046,22 +2112,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>87527</v>
+        <v>87560</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E66" s="2">
-        <v>45241.36319444444</v>
+        <v>45244.36319444444</v>
       </c>
       <c r="F66" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2069,22 +2135,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>87527</v>
+        <v>87560</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E67" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="F67" s="2">
-        <v>45241.52291666667</v>
+        <v>45244.48402777778</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2092,22 +2158,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>87527</v>
+        <v>87560</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45241.52291666667</v>
+        <v>45244.48402777778</v>
       </c>
       <c r="F68" s="2">
-        <v>45241.64583333334</v>
+        <v>45244.65694444445</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2115,22 +2181,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>87530</v>
+        <v>87575</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E69" s="2">
-        <v>45241.34097222222</v>
+        <v>45244.74513888889</v>
       </c>
       <c r="F69" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.81458333333</v>
       </c>
       <c r="G69" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2138,22 +2204,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>87530</v>
+        <v>87600</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E70" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.33611111111</v>
       </c>
       <c r="F70" s="2">
-        <v>45241.55833333333</v>
+        <v>45244.40555555555</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2161,22 +2227,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>87530</v>
+        <v>87601</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E71" s="2">
-        <v>45241.55833333333</v>
+        <v>45244.29097222222</v>
       </c>
       <c r="F71" s="2">
-        <v>45241.68194444444</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2184,22 +2250,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>87538</v>
+        <v>87601</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E72" s="2">
-        <v>45241.39166666667</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F72" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.428125</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2207,22 +2273,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>87538</v>
+        <v>87601</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.428125</v>
       </c>
       <c r="F73" s="2">
-        <v>45241.74583333333</v>
+        <v>45244.55729166666</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2230,22 +2296,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>87538</v>
+        <v>87603</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2">
-        <v>45241.74583333333</v>
+        <v>45244.36527777778</v>
       </c>
       <c r="F74" s="2">
-        <v>45241.99791666667</v>
+        <v>45244.43472222222</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2253,22 +2319,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>87542</v>
+        <v>87603</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E75" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.43194444444</v>
       </c>
       <c r="F75" s="2">
-        <v>45241.375</v>
+        <v>45244.5</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2276,22 +2342,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>87542</v>
+        <v>87603</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2">
-        <v>45241.375</v>
+        <v>45244.5</v>
       </c>
       <c r="F76" s="2">
-        <v>45241.50833333333</v>
+        <v>45244.57395833333</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2299,22 +2365,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>87542</v>
+        <v>87603</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2">
-        <v>45241.50833333333</v>
+        <v>45244.57395833333</v>
       </c>
       <c r="F77" s="2">
-        <v>45241.63125</v>
+        <v>45244.70451388889</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2322,22 +2388,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>87570</v>
+        <v>87616</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E78" s="2">
-        <v>45241.29652777778</v>
+        <v>45244.80833333333</v>
       </c>
       <c r="F78" s="2">
-        <v>45241.35416666666</v>
+        <v>45244.87777777778</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2345,22 +2411,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>87570</v>
+        <v>87618</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E79" s="2">
-        <v>45241.35416666666</v>
+        <v>45244.32916666667</v>
       </c>
       <c r="F79" s="2">
-        <v>45241.47916666666</v>
+        <v>45244.39861111111</v>
       </c>
       <c r="G79" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2368,22 +2434,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>87570</v>
+        <v>87618</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E80" s="2">
-        <v>45241.47916666666</v>
+        <v>45244.43194444444</v>
       </c>
       <c r="F80" s="2">
-        <v>45241.65625</v>
+        <v>45244.5</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2391,22 +2457,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>87577</v>
+        <v>87618</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E81" s="2">
-        <v>45241.36319444444</v>
+        <v>45244.5</v>
       </c>
       <c r="F81" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.57395833333</v>
       </c>
       <c r="G81" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2414,22 +2480,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>87577</v>
+        <v>87618</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.57395833333</v>
       </c>
       <c r="F82" s="2">
-        <v>45241.48402777778</v>
+        <v>45244.70451388889</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2437,22 +2503,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>87577</v>
+        <v>87619</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E83" s="2">
-        <v>45241.48402777778</v>
+        <v>45244.33194444444</v>
       </c>
       <c r="F83" s="2">
-        <v>45241.65694444445</v>
+        <v>45244.40138888889</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2460,22 +2526,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>87588</v>
+        <v>87619</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E84" s="2">
-        <v>45241.65555555555</v>
+        <v>45244.53611111111</v>
       </c>
       <c r="F84" s="2">
-        <v>45241.70833333334</v>
+        <v>45244.60416666666</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2483,22 +2549,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>87588</v>
+        <v>87619</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E85" s="2">
-        <v>45241.70833333334</v>
+        <v>45244.60416666666</v>
       </c>
       <c r="F85" s="2">
-        <v>45241.82083333333</v>
+        <v>45244.678125</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2506,22 +2572,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>87588</v>
+        <v>87619</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E86" s="2">
-        <v>45241.82083333333</v>
+        <v>45244.678125</v>
       </c>
       <c r="F86" s="2">
-        <v>45241.93958333333</v>
+        <v>45244.80868055556</v>
       </c>
       <c r="G86" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2529,22 +2595,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>87589</v>
+        <v>87624</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E87" s="2">
-        <v>45241.61388888889</v>
+        <v>45244.32361111111</v>
       </c>
       <c r="F87" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.39305555556</v>
       </c>
       <c r="G87" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2552,22 +2618,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>87589</v>
+        <v>87624</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E88" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.36944444444</v>
       </c>
       <c r="F88" s="2">
-        <v>45241.79930555556</v>
+        <v>45244.4375</v>
       </c>
       <c r="G88" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2575,22 +2641,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>87589</v>
+        <v>87624</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E89" s="2">
-        <v>45241.79930555556</v>
+        <v>45244.4375</v>
       </c>
       <c r="F89" s="2">
-        <v>45241.91805555556</v>
+        <v>45244.51145833333</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2598,22 +2664,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>87637</v>
+        <v>87624</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E90" s="2">
-        <v>45241.23611111111</v>
+        <v>45244.51145833333</v>
       </c>
       <c r="F90" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.64201388889</v>
       </c>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2621,22 +2687,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>87637</v>
+        <v>87625</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E91" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.36805555555</v>
       </c>
       <c r="F91" s="2">
-        <v>45241.37708333333</v>
+        <v>45244.4375</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2644,22 +2710,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>87637</v>
+        <v>87625</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E92" s="2">
-        <v>45241.37708333333</v>
+        <v>45244.49444444444</v>
       </c>
       <c r="F92" s="2">
-        <v>45241.49652777778</v>
+        <v>45244.5625</v>
       </c>
       <c r="G92" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2667,22 +2733,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>87638</v>
+        <v>87625</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E93" s="2">
-        <v>45241.625</v>
+        <v>45244.5625</v>
       </c>
       <c r="F93" s="2">
-        <v>45241.70833333334</v>
+        <v>45244.63645833333</v>
       </c>
       <c r="G93" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2690,22 +2756,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>87638</v>
+        <v>87625</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E94" s="2">
-        <v>45241.70833333334</v>
+        <v>45244.63645833333</v>
       </c>
       <c r="F94" s="2">
-        <v>45241.78645833334</v>
+        <v>45244.76701388889</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2713,22 +2779,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>87638</v>
+        <v>87631</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E95" s="2">
-        <v>45241.78645833334</v>
+        <v>45244.27361111111</v>
       </c>
       <c r="F95" s="2">
-        <v>45241.90381944444</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2736,22 +2802,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>87649</v>
+        <v>87631</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E96" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="F96" s="2">
-        <v>45241.625</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2759,22 +2825,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>87649</v>
+        <v>87631</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E97" s="2">
-        <v>45241.625</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F97" s="2">
-        <v>45241.709375</v>
+        <v>45244.58611111111</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2782,22 +2848,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>87649</v>
+        <v>87635</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E98" s="2">
-        <v>45241.709375</v>
+        <v>45244.29583333333</v>
       </c>
       <c r="F98" s="2">
-        <v>45241.86215277778</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2805,22 +2871,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>87669</v>
+        <v>87635</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E99" s="2">
-        <v>45241.53055555555</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F99" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2828,22 +2894,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>87669</v>
+        <v>87635</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E100" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.47916666666</v>
       </c>
       <c r="F100" s="2">
-        <v>45241.64236111111</v>
+        <v>45244.59861111111</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2851,22 +2917,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>87669</v>
+        <v>87668</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E101" s="2">
-        <v>45241.64236111111</v>
+        <v>45244.29930555556</v>
       </c>
       <c r="F101" s="2">
-        <v>45241.76180555556</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2874,22 +2940,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>87675</v>
+        <v>87668</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E102" s="2">
-        <v>45241.57152777778</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F102" s="2">
-        <v>45241.625</v>
+        <v>45244.40833333333</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2897,22 +2963,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>87675</v>
+        <v>87668</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E103" s="2">
-        <v>45241.625</v>
+        <v>45244.40833333333</v>
       </c>
       <c r="F103" s="2">
-        <v>45241.71354166666</v>
+        <v>45244.52638888889</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2920,22 +2986,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>87675</v>
+        <v>87687</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E104" s="2">
-        <v>45241.71354166666</v>
+        <v>45244.625</v>
       </c>
       <c r="F104" s="2">
-        <v>45241.86631944445</v>
+        <v>45244.70833333334</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2943,22 +3009,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>87676</v>
+        <v>87687</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E105" s="2">
-        <v>45241.3125</v>
+        <v>45244.70833333334</v>
       </c>
       <c r="F105" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.75694444445</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2966,22 +3032,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>87676</v>
+        <v>87687</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E106" s="2">
-        <v>45241.39583333334</v>
+        <v>45244.75694444445</v>
       </c>
       <c r="F106" s="2">
-        <v>45241.509375</v>
+        <v>45244.90972222222</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2989,22 +3055,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>87677</v>
+        <v>87690</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E107" s="2">
-        <v>45241.23888888889</v>
+        <v>45244.375</v>
       </c>
       <c r="F107" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="G107" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3012,22 +3078,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>87677</v>
+        <v>87690</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E108" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.45833333334</v>
       </c>
       <c r="F108" s="2">
-        <v>45241.35069444445</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3035,22 +3101,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>87678</v>
+        <v>87690</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E109" s="2">
-        <v>45241.27916666667</v>
+        <v>45244.58333333334</v>
       </c>
       <c r="F109" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.70416666667</v>
       </c>
       <c r="G109" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3058,22 +3124,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>87678</v>
+        <v>87691</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E110" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.29166666666</v>
       </c>
       <c r="F110" s="2">
-        <v>45241.42986111111</v>
+        <v>45244.375</v>
       </c>
       <c r="G110" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3081,22 +3147,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>87678</v>
+        <v>87691</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E111" s="2">
-        <v>45241.42986111111</v>
+        <v>45244.375</v>
       </c>
       <c r="F111" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.5</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3104,22 +3170,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>87689</v>
+        <v>87691</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E112" s="2">
-        <v>45241.41527777778</v>
+        <v>45244.5</v>
       </c>
       <c r="F112" s="2">
-        <v>45241.48472222222</v>
+        <v>45244.62083333333</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3127,22 +3193,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>87716</v>
+        <v>87726</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E113" s="2">
-        <v>45241.27083333334</v>
+        <v>45244.27916666667</v>
       </c>
       <c r="F113" s="2">
-        <v>45241.35416666666</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3150,22 +3216,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>87716</v>
+        <v>87726</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E114" s="2">
-        <v>45241.35416666666</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="F114" s="2">
-        <v>45241.47708333333</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3173,22 +3239,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>87716</v>
+        <v>87726</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E115" s="2">
-        <v>45241.47708333333</v>
+        <v>45244.41666666666</v>
       </c>
       <c r="F115" s="2">
-        <v>45241.61111111111</v>
+        <v>45244.5375</v>
       </c>
       <c r="G115" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3196,22 +3262,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>87728</v>
+        <v>87736</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E116" s="2">
-        <v>45241.56666666667</v>
+        <v>45244.37777777778</v>
       </c>
       <c r="F116" s="2">
-        <v>45241.63611111111</v>
+        <v>45244.44722222222</v>
       </c>
       <c r="G116" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3219,22 +3285,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>87733</v>
+        <v>87738</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E117" s="2">
-        <v>45241.55555555555</v>
+        <v>45244.55763888889</v>
       </c>
       <c r="F117" s="2">
-        <v>45241.625</v>
+        <v>45244.625</v>
       </c>
       <c r="G117" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3242,22 +3308,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>87743</v>
+        <v>87738</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E118" s="2">
-        <v>45241.88611111111</v>
+        <v>45244.625</v>
       </c>
       <c r="F118" s="2">
-        <v>45241.95555555556</v>
+        <v>45244.71736111111</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3265,22 +3331,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>87792</v>
+        <v>87738</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E119" s="2">
-        <v>45241.74305555555</v>
+        <v>45244.71736111111</v>
       </c>
       <c r="F119" s="2">
-        <v>45241.8125</v>
+        <v>45244.84375</v>
       </c>
       <c r="G119" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3288,22 +3354,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>87794</v>
+        <v>87739</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E120" s="2">
-        <v>45241.89444444444</v>
+        <v>45244.8125</v>
       </c>
       <c r="F120" s="2">
-        <v>45241.96388888889</v>
+        <v>45244.88194444445</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3311,22 +3377,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>87827</v>
+        <v>87740</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E121" s="2">
-        <v>45241.34791666667</v>
+        <v>45244.28680555556</v>
       </c>
       <c r="F121" s="2">
-        <v>45241.41736111111</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3334,22 +3400,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>87831</v>
+        <v>87740</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E122" s="2">
-        <v>45241.39513888889</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="F122" s="2">
-        <v>45241.46458333333</v>
+        <v>45244.44652777778</v>
       </c>
       <c r="G122" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3357,22 +3423,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>87832</v>
+        <v>87740</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E123" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.44652777778</v>
       </c>
       <c r="F123" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.57291666666</v>
       </c>
       <c r="G123" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3380,22 +3446,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>87832</v>
+        <v>87743</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E124" s="2">
-        <v>45241.66666666666</v>
+        <v>45244.49513888889</v>
       </c>
       <c r="F124" s="2">
-        <v>45241.74479166666</v>
+        <v>45244.5625</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3403,22 +3469,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>87832</v>
+        <v>87743</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E125" s="2">
-        <v>45241.74479166666</v>
+        <v>45244.5625</v>
       </c>
       <c r="F125" s="2">
-        <v>45241.86215277778</v>
+        <v>45244.65486111111</v>
       </c>
       <c r="G125" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3426,22 +3492,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>87847</v>
+        <v>87743</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E126" s="2">
-        <v>45241.37361111111</v>
+        <v>45244.65486111111</v>
       </c>
       <c r="F126" s="2">
-        <v>45241.44305555556</v>
+        <v>45244.78125</v>
       </c>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3449,22 +3515,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>87851</v>
+        <v>87748</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E127" s="2">
-        <v>45241.45972222222</v>
+        <v>45244.27083333334</v>
       </c>
       <c r="F127" s="2">
-        <v>45241.52916666667</v>
+        <v>45244.35416666666</v>
       </c>
       <c r="G127" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3472,22 +3538,3127 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>87998</v>
+        <v>87748</v>
       </c>
       <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>68</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45244.48402777778</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>87748</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45244.48402777778</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45244.63680555556</v>
+      </c>
+      <c r="G129" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>87749</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" t="s">
+        <v>71</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45244.68888888889</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45244.75833333333</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>87751</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45244.47222222222</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>87751</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>68</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45244.63715277778</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>87751</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45244.63715277778</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45244.75868055555</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>87756</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45244.4375</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45244.50694444445</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>87763</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45244.43819444445</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>87763</v>
+      </c>
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45244.58958333333</v>
+      </c>
+      <c r="G136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>87763</v>
+      </c>
+      <c r="C137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45244.58958333333</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45244.77430555555</v>
+      </c>
+      <c r="G137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>87764</v>
+      </c>
+      <c r="C138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45244.52152777778</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>87764</v>
+      </c>
+      <c r="C139" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="F139" s="2">
+        <v>45244.67291666667</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>87764</v>
+      </c>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45244.67291666667</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45244.85763888889</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>87771</v>
+      </c>
+      <c r="C141" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" t="s">
+        <v>71</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45244.44166666667</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45244.51111111111</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>87793</v>
+      </c>
+      <c r="C142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" t="s">
+        <v>71</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45244.70555555556</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45244.775</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>87794</v>
+      </c>
+      <c r="C143" t="s">
         <v>16</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D143" t="s">
+        <v>67</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45244.625</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>87794</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45244.84097222222</v>
+      </c>
+      <c r="G144" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>87794</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45244.84097222222</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45244.95833333334</v>
+      </c>
+      <c r="G145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>87799</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45244.55138888889</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45244.62083333333</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>87801</v>
+      </c>
+      <c r="C147" t="s">
         <v>50</v>
       </c>
-      <c r="E128" s="2">
-        <v>45241.83611111111</v>
-      </c>
-      <c r="F128" s="2">
-        <v>45241.90555555555</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="D147" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45244.66875</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45244.73819444444</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>87802</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>71</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45244.33055555556</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45244.4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>87803</v>
+      </c>
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45244.55208333334</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45244.62152777778</v>
+      </c>
+      <c r="G149" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>87807</v>
+      </c>
+      <c r="C150" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45244.35694444444</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>87807</v>
+      </c>
+      <c r="C151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>87807</v>
+      </c>
+      <c r="C152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45244.66388888889</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>87809</v>
+      </c>
+      <c r="C153" t="s">
+        <v>52</v>
+      </c>
+      <c r="D153" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45244.27708333333</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>87809</v>
+      </c>
+      <c r="C154" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45244.43819444445</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>87815</v>
+      </c>
+      <c r="C155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45244.20833333334</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45244.29166666666</v>
+      </c>
+      <c r="G155" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>87815</v>
+      </c>
+      <c r="C156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45244.29166666666</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45244.39652777778</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>87818</v>
+      </c>
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45244.69444444445</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45244.76388888889</v>
+      </c>
+      <c r="G157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>87823</v>
+      </c>
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45244.34236111111</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45244.40625</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>87823</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45244.40625</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45244.47361111111</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>87823</v>
+      </c>
+      <c r="C160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45244.47361111111</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45244.59027777778</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>87830</v>
+      </c>
+      <c r="C161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>67</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45244.27986111111</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="G161" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>87830</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="F162" s="2">
+        <v>45244.41805555556</v>
+      </c>
+      <c r="G162" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>87830</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>70</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45244.41805555556</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>87831</v>
+      </c>
+      <c r="C164" t="s">
         <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>67</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F164" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="G164" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>87831</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="F165" s="2">
+        <v>45244.6375</v>
+      </c>
+      <c r="G165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>87831</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>70</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45244.6375</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45244.79027777778</v>
+      </c>
+      <c r="G166" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>87853</v>
+      </c>
+      <c r="C167" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="F167" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>87853</v>
+      </c>
+      <c r="C168" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="F168" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>87853</v>
+      </c>
+      <c r="C169" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45244.66666666666</v>
+      </c>
+      <c r="G169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>87854</v>
+      </c>
+      <c r="C170" t="s">
+        <v>55</v>
+      </c>
+      <c r="D170" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>87854</v>
+      </c>
+      <c r="C171" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171" t="s">
+        <v>68</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="F171" s="2">
+        <v>45244.58819444444</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>87854</v>
+      </c>
+      <c r="C172" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172" t="s">
+        <v>70</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45244.58819444444</v>
+      </c>
+      <c r="F172" s="2">
+        <v>45244.71041666667</v>
+      </c>
+      <c r="G172" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>87873</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>67</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45244.29166666666</v>
+      </c>
+      <c r="F173" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>87873</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>68</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="F174" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>87873</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F175" s="2">
+        <v>45244.62986111111</v>
+      </c>
+      <c r="G175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>87874</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>71</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45244.83333333334</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45244.90277777778</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>87878</v>
+      </c>
+      <c r="C177" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="F177" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="G177" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>87878</v>
+      </c>
+      <c r="C178" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="F178" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>87878</v>
+      </c>
+      <c r="C179" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" t="s">
+        <v>70</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45244.70208333333</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>87879</v>
+      </c>
+      <c r="C180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" t="s">
+        <v>67</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="F180" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>87879</v>
+      </c>
+      <c r="C181" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F181" s="2">
+        <v>45244.625</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>87879</v>
+      </c>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182" t="s">
+        <v>70</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45244.625</v>
+      </c>
+      <c r="F182" s="2">
+        <v>45244.74375</v>
+      </c>
+      <c r="G182" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>87880</v>
+      </c>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183" t="s">
+        <v>67</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="F183" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G183" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>87880</v>
+      </c>
+      <c r="C184" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184" t="s">
+        <v>68</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="F184" s="2">
+        <v>45244.66666666666</v>
+      </c>
+      <c r="G184" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>87880</v>
+      </c>
+      <c r="C185" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" t="s">
+        <v>70</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45244.66666666666</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45244.78541666667</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>87881</v>
+      </c>
+      <c r="C186" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45244.21388888889</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45244.27083333334</v>
+      </c>
+      <c r="G186" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>87881</v>
+      </c>
+      <c r="C187" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" t="s">
+        <v>68</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45244.27083333334</v>
+      </c>
+      <c r="F187" s="2">
+        <v>45244.35104166667</v>
+      </c>
+      <c r="G187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>87881</v>
+      </c>
+      <c r="C188" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" t="s">
+        <v>70</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45244.35104166667</v>
+      </c>
+      <c r="F188" s="2">
+        <v>45244.47465277778</v>
+      </c>
+      <c r="G188" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>87883</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" t="s">
+        <v>71</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45244.67569444444</v>
+      </c>
+      <c r="F189" s="2">
+        <v>45244.74513888889</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>87886</v>
+      </c>
+      <c r="C190" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190" t="s">
+        <v>71</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45244.5375</v>
+      </c>
+      <c r="F190" s="2">
+        <v>45244.60694444444</v>
+      </c>
+      <c r="G190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>87894</v>
+      </c>
+      <c r="C191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D191" t="s">
+        <v>71</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45244.3375</v>
+      </c>
+      <c r="F191" s="2">
+        <v>45244.40694444445</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>87894</v>
+      </c>
+      <c r="C192" t="s">
+        <v>61</v>
+      </c>
+      <c r="D192" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45244.73472222222</v>
+      </c>
+      <c r="F192" s="2">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>87894</v>
+      </c>
+      <c r="C193" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" t="s">
+        <v>68</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="F193" s="2">
+        <v>45244.89166666667</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>87894</v>
+      </c>
+      <c r="C194" t="s">
+        <v>61</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45244.89166666667</v>
+      </c>
+      <c r="F194" s="2">
+        <v>45245.07916666667</v>
+      </c>
+      <c r="G194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>87895</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>71</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="F195" s="2">
+        <v>45244.40277777778</v>
+      </c>
+      <c r="G195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>87899</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>71</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45244.8375</v>
+      </c>
+      <c r="F196" s="2">
+        <v>45244.90694444445</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>87900</v>
+      </c>
+      <c r="C197" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" t="s">
+        <v>71</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45244.82916666667</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45244.89861111111</v>
+      </c>
+      <c r="G197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>87903</v>
+      </c>
+      <c r="C198" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" t="s">
+        <v>67</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45244.44652777778</v>
+      </c>
+      <c r="F198" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>87903</v>
+      </c>
+      <c r="C199" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" t="s">
+        <v>68</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F199" s="2">
+        <v>45244.57881944445</v>
+      </c>
+      <c r="G199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>87903</v>
+      </c>
+      <c r="C200" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45244.57881944445</v>
+      </c>
+      <c r="F200" s="2">
+        <v>45244.75104166667</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>87904</v>
+      </c>
+      <c r="C201" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201" t="s">
+        <v>71</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45244.65902777778</v>
+      </c>
+      <c r="F201" s="2">
+        <v>45244.72847222222</v>
+      </c>
+      <c r="G201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>87905</v>
+      </c>
+      <c r="C202" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202" t="s">
+        <v>71</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45244.42916666667</v>
+      </c>
+      <c r="F202" s="2">
+        <v>45244.49861111111</v>
+      </c>
+      <c r="G202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>87909</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" t="s">
+        <v>71</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45244.54444444444</v>
+      </c>
+      <c r="F203" s="2">
+        <v>45244.61388888889</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>87918</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>71</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45244.71388888889</v>
+      </c>
+      <c r="F204" s="2">
+        <v>45244.78333333333</v>
+      </c>
+      <c r="G204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>87920</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>71</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45244.53194444445</v>
+      </c>
+      <c r="F205" s="2">
+        <v>45244.60138888889</v>
+      </c>
+      <c r="G205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>87921</v>
+      </c>
+      <c r="C206" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" t="s">
+        <v>71</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45244.64166666667</v>
+      </c>
+      <c r="F206" s="2">
+        <v>45244.71111111111</v>
+      </c>
+      <c r="G206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>87926</v>
+      </c>
+      <c r="C207" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" t="s">
+        <v>71</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45244.44583333333</v>
+      </c>
+      <c r="F207" s="2">
+        <v>45244.51527777778</v>
+      </c>
+      <c r="G207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>87927</v>
+      </c>
+      <c r="C208" t="s">
+        <v>64</v>
+      </c>
+      <c r="D208" t="s">
+        <v>71</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45244.85972222222</v>
+      </c>
+      <c r="F208" s="2">
+        <v>45244.92916666667</v>
+      </c>
+      <c r="G208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>87929</v>
+      </c>
+      <c r="C209" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209" t="s">
+        <v>71</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45244.46527777778</v>
+      </c>
+      <c r="F209" s="2">
+        <v>45244.53472222222</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>87931</v>
+      </c>
+      <c r="C210" t="s">
+        <v>31</v>
+      </c>
+      <c r="D210" t="s">
+        <v>71</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45244.85</v>
+      </c>
+      <c r="F210" s="2">
+        <v>45244.91944444444</v>
+      </c>
+      <c r="G210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>87932</v>
+      </c>
+      <c r="C211" t="s">
+        <v>55</v>
+      </c>
+      <c r="D211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45244.8625</v>
+      </c>
+      <c r="F211" s="2">
+        <v>45244.93194444444</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>87935</v>
+      </c>
+      <c r="C212" t="s">
+        <v>64</v>
+      </c>
+      <c r="D212" t="s">
+        <v>71</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45244.72013888889</v>
+      </c>
+      <c r="F212" s="2">
+        <v>45244.78958333333</v>
+      </c>
+      <c r="G212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>87940</v>
+      </c>
+      <c r="C213" t="s">
+        <v>62</v>
+      </c>
+      <c r="D213" t="s">
+        <v>71</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45244.54027777778</v>
+      </c>
+      <c r="F213" s="2">
+        <v>45244.60972222222</v>
+      </c>
+      <c r="G213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>87945</v>
+      </c>
+      <c r="C214" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" t="s">
+        <v>67</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45244.52708333333</v>
+      </c>
+      <c r="F214" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>87945</v>
+      </c>
+      <c r="C215" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" t="s">
+        <v>68</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45244.58333333334</v>
+      </c>
+      <c r="F215" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>87945</v>
+      </c>
+      <c r="C216" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="F216" s="2">
+        <v>45244.88402777778</v>
+      </c>
+      <c r="G216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>87946</v>
+      </c>
+      <c r="C217" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217" t="s">
+        <v>71</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45244.86527777778</v>
+      </c>
+      <c r="F217" s="2">
+        <v>45244.93472222222</v>
+      </c>
+      <c r="G217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>87948</v>
+      </c>
+      <c r="C218" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" t="s">
+        <v>71</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45244.44166666667</v>
+      </c>
+      <c r="F218" s="2">
+        <v>45244.51111111111</v>
+      </c>
+      <c r="G218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>87949</v>
+      </c>
+      <c r="C219" t="s">
+        <v>45</v>
+      </c>
+      <c r="D219" t="s">
+        <v>71</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45244.34305555555</v>
+      </c>
+      <c r="F219" s="2">
+        <v>45244.4125</v>
+      </c>
+      <c r="G219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>87952</v>
+      </c>
+      <c r="C220" t="s">
+        <v>46</v>
+      </c>
+      <c r="D220" t="s">
+        <v>71</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45244.87222222222</v>
+      </c>
+      <c r="F220" s="2">
+        <v>45244.94166666667</v>
+      </c>
+      <c r="G220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>87955</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>71</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45244.66319444445</v>
+      </c>
+      <c r="F221" s="2">
+        <v>45244.73263888889</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>87956</v>
+      </c>
+      <c r="C222" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" t="s">
+        <v>71</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45244.43194444444</v>
+      </c>
+      <c r="F222" s="2">
+        <v>45244.50138888889</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>87957</v>
+      </c>
+      <c r="C223" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223" t="s">
+        <v>71</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45244.63958333333</v>
+      </c>
+      <c r="F223" s="2">
+        <v>45244.70902777778</v>
+      </c>
+      <c r="G223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>87967</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>71</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45244.84166666667</v>
+      </c>
+      <c r="F224" s="2">
+        <v>45244.91111111111</v>
+      </c>
+      <c r="G224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>87968</v>
+      </c>
+      <c r="C225" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" t="s">
+        <v>67</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="F225" s="2">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>87968</v>
+      </c>
+      <c r="C226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" t="s">
+        <v>68</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="F226" s="2">
+        <v>45244.91666666666</v>
+      </c>
+      <c r="G226" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>87968</v>
+      </c>
+      <c r="C227" t="s">
+        <v>43</v>
+      </c>
+      <c r="D227" t="s">
+        <v>70</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45244.91666666666</v>
+      </c>
+      <c r="F227" s="2">
+        <v>45245.04722222222</v>
+      </c>
+      <c r="G227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>87970</v>
+      </c>
+      <c r="C228" t="s">
+        <v>29</v>
+      </c>
+      <c r="D228" t="s">
+        <v>71</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45244.85555555556</v>
+      </c>
+      <c r="F228" s="2">
+        <v>45244.925</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>87973</v>
+      </c>
+      <c r="C229" t="s">
+        <v>65</v>
+      </c>
+      <c r="D229" t="s">
+        <v>67</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45244.36319444444</v>
+      </c>
+      <c r="F229" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="G229" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>87973</v>
+      </c>
+      <c r="C230" t="s">
+        <v>65</v>
+      </c>
+      <c r="D230" t="s">
+        <v>68</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="F230" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="G230" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>87973</v>
+      </c>
+      <c r="C231" t="s">
+        <v>65</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45244.54166666666</v>
+      </c>
+      <c r="F231" s="2">
+        <v>45244.71597222222</v>
+      </c>
+      <c r="G231" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>87979</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>67</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45244.29166666666</v>
+      </c>
+      <c r="F232" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="G232" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>87979</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>68</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45244.375</v>
+      </c>
+      <c r="F233" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="G233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>87979</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="F234" s="2">
+        <v>45244.64861111111</v>
+      </c>
+      <c r="G234" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>87981</v>
+      </c>
+      <c r="C235" t="s">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>71</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45244.39583333334</v>
+      </c>
+      <c r="F235" s="2">
+        <v>45244.46527777778</v>
+      </c>
+      <c r="G235" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>87984</v>
+      </c>
+      <c r="C236" t="s">
+        <v>64</v>
+      </c>
+      <c r="D236" t="s">
+        <v>67</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F236" s="2">
+        <v>45244.4375</v>
+      </c>
+      <c r="G236" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>87984</v>
+      </c>
+      <c r="C237" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" t="s">
+        <v>68</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45244.4375</v>
+      </c>
+      <c r="F237" s="2">
+        <v>45244.50451388889</v>
+      </c>
+      <c r="G237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>87984</v>
+      </c>
+      <c r="C238" t="s">
+        <v>64</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45244.50451388889</v>
+      </c>
+      <c r="F238" s="2">
+        <v>45244.68715277778</v>
+      </c>
+      <c r="G238" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>87987</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>71</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45244.6875</v>
+      </c>
+      <c r="F239" s="2">
+        <v>45244.75694444445</v>
+      </c>
+      <c r="G239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>87988</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>71</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45244.66388888889</v>
+      </c>
+      <c r="F240" s="2">
+        <v>45244.73333333333</v>
+      </c>
+      <c r="G240" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>87991</v>
+      </c>
+      <c r="C241" t="s">
+        <v>41</v>
+      </c>
+      <c r="D241" t="s">
+        <v>71</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45244.68888888889</v>
+      </c>
+      <c r="F241" s="2">
+        <v>45244.75833333333</v>
+      </c>
+      <c r="G241" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>87994</v>
+      </c>
+      <c r="C242" t="s">
+        <v>59</v>
+      </c>
+      <c r="D242" t="s">
+        <v>71</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45244.33888888889</v>
+      </c>
+      <c r="F242" s="2">
+        <v>45244.40833333333</v>
+      </c>
+      <c r="G242" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>87995</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>71</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45244.69027777778</v>
+      </c>
+      <c r="F243" s="2">
+        <v>45244.75972222222</v>
+      </c>
+      <c r="G243" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>88004</v>
+      </c>
+      <c r="C244" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" t="s">
+        <v>67</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45244.29097222222</v>
+      </c>
+      <c r="F244" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="G244" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>88004</v>
+      </c>
+      <c r="C245" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" t="s">
+        <v>68</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F245" s="2">
+        <v>45244.47916666666</v>
+      </c>
+      <c r="G245" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>88008</v>
+      </c>
+      <c r="C246" t="s">
+        <v>60</v>
+      </c>
+      <c r="D246" t="s">
+        <v>71</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45244.50416666667</v>
+      </c>
+      <c r="F246" s="2">
+        <v>45244.57361111111</v>
+      </c>
+      <c r="G246" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>88008</v>
+      </c>
+      <c r="C247" t="s">
+        <v>60</v>
+      </c>
+      <c r="D247" t="s">
+        <v>67</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45244.72916666666</v>
+      </c>
+      <c r="F247" s="2">
+        <v>45244.8125</v>
+      </c>
+      <c r="G247" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>88008</v>
+      </c>
+      <c r="C248" t="s">
+        <v>60</v>
+      </c>
+      <c r="D248" t="s">
+        <v>68</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45244.8125</v>
+      </c>
+      <c r="F248" s="2">
+        <v>45244.92083333333</v>
+      </c>
+      <c r="G248" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>88008</v>
+      </c>
+      <c r="C249" t="s">
+        <v>60</v>
+      </c>
+      <c r="D249" t="s">
+        <v>70</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45244.92083333333</v>
+      </c>
+      <c r="F249" s="2">
+        <v>45245.04513888889</v>
+      </c>
+      <c r="G249" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>88019</v>
+      </c>
+      <c r="C250" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>67</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45244.26319444444</v>
+      </c>
+      <c r="F250" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="G250" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>88019</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>68</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F251" s="2">
+        <v>45244.49930555555</v>
+      </c>
+      <c r="G251" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>88056</v>
+      </c>
+      <c r="C252" t="s">
+        <v>66</v>
+      </c>
+      <c r="D252" t="s">
+        <v>67</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45244.30902777778</v>
+      </c>
+      <c r="F252" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="G252" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>88056</v>
+      </c>
+      <c r="C253" t="s">
+        <v>66</v>
+      </c>
+      <c r="D253" t="s">
+        <v>68</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F253" s="2">
+        <v>45244.49930555555</v>
+      </c>
+      <c r="G253" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>88056</v>
+      </c>
+      <c r="C254" t="s">
+        <v>66</v>
+      </c>
+      <c r="D254" t="s">
+        <v>73</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45244.49930555555</v>
+      </c>
+      <c r="F254" s="2">
+        <v>45244.67152777778</v>
+      </c>
+      <c r="G254" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>88062</v>
+      </c>
+      <c r="C255" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" t="s">
+        <v>67</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45244.29861111111</v>
+      </c>
+      <c r="F255" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="G255" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>88062</v>
+      </c>
+      <c r="C256" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" t="s">
+        <v>68</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="F256" s="2">
+        <v>45244.47916666666</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>88062</v>
+      </c>
+      <c r="C257" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45244.47916666666</v>
+      </c>
+      <c r="F257" s="2">
+        <v>45244.6875</v>
+      </c>
+      <c r="G257" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>88065</v>
+      </c>
+      <c r="C258" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" t="s">
+        <v>71</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45244.73125</v>
+      </c>
+      <c r="F258" s="2">
+        <v>45244.80069444444</v>
+      </c>
+      <c r="G258" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>88069</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>72</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45244.3125</v>
+      </c>
+      <c r="F259" s="2">
+        <v>45244.4375</v>
+      </c>
+      <c r="G259" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>88073</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>71</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45244.45416666667</v>
+      </c>
+      <c r="F260" s="2">
+        <v>45244.52361111111</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>88074</v>
+      </c>
+      <c r="C261" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" t="s">
+        <v>71</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45244.74305555555</v>
+      </c>
+      <c r="F261" s="2">
+        <v>45244.8125</v>
+      </c>
+      <c r="G261" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>88123</v>
+      </c>
+      <c r="C262" t="s">
+        <v>39</v>
+      </c>
+      <c r="D262" t="s">
+        <v>71</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45244.57638888889</v>
+      </c>
+      <c r="F262" s="2">
+        <v>45244.64583333334</v>
+      </c>
+      <c r="G262" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>88125</v>
+      </c>
+      <c r="C263" t="s">
+        <v>20</v>
+      </c>
+      <c r="D263" t="s">
+        <v>71</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45244.85833333333</v>
+      </c>
+      <c r="F263" s="2">
+        <v>45244.92777777778</v>
+      </c>
+      <c r="G263" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -37,166 +37,235 @@
     <t>fk_etapa</t>
   </si>
   <si>
+    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
     <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
   </si>
   <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('LUIS PAILLALEF P', 'PORTEADOR', 0, 1, '10.048.208-8')</t>
+  </si>
+  <si>
+    <t>('MIGUEL PEÑAHERRERA P', 'PORTEADOR', 0, 1, '28.278.056-9')</t>
+  </si>
+  <si>
+    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
+  </si>
+  <si>
+    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
+  </si>
+  <si>
+    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
+  </si>
+  <si>
+    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
+  </si>
+  <si>
+    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+  </si>
+  <si>
+    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
+  </si>
+  <si>
+    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
+  </si>
+  <si>
+    <t>('JOSE GONZALEZ B', 'ASOCIADO', 1, 1, '9.813.300-3')</t>
+  </si>
+  <si>
+    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
+  </si>
+  <si>
+    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
+  </si>
+  <si>
+    <t>('CARLOS PONCE A', 'PROPIO', 0, 1, '14.555.433-0')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
+  </si>
+  <si>
+    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
+  </si>
+  <si>
+    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+  </si>
+  <si>
+    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
+  </si>
+  <si>
+    <t>('MARCO CATALDO C', 'TERCERO', 2, 0, '16.777.267-6')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('GUILLERMO GARAY', 'ASOCIADO', 1, 1, '15.648.946-8')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
+  </si>
+  <si>
+    <t>('CARLOS TAPIA', 'ASOCIADO', 1, 1, '9.262.912-0')</t>
+  </si>
+  <si>
+    <t>('LUIS REYES P', 'ASOCIADO', 1, 1, '8.298.532-8')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
     <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
   </si>
   <si>
-    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
+  </si>
+  <si>
+    <t>('BETHI PROAÑO R', 'PORTEADOR', 0, 1, '28.060.670-7')</t>
+  </si>
+  <si>
+    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
+  </si>
+  <si>
+    <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
+  </si>
+  <si>
+    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
+  </si>
+  <si>
+    <t>('DERWINS CORTEZ G', 'ASOCIADO', 1, 1, '26.536.138-2')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+  </si>
+  <si>
+    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
+  </si>
+  <si>
+    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
+  </si>
+  <si>
+    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
+  </si>
+  <si>
+    <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
+  </si>
+  <si>
+    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
+  </si>
+  <si>
+    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
+  </si>
+  <si>
+    <t>('ABELARDO CONSTANTE T', 'PROPIO', 0, 1, '28.036.888-1')</t>
+  </si>
+  <si>
+    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
   </si>
   <si>
     <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
   </si>
   <si>
-    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
-  </si>
-  <si>
-    <t>('MIGUEL PEÑAHERRERA P', 'PORTEADOR', 0, 1, '28.278.056-9')</t>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
+  </si>
+  <si>
+    <t>('ALEX MILLAR', 'ASOCIADO', 1, 1, '9.716.038-4')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
+  </si>
+  <si>
+    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
+  </si>
+  <si>
+    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
+  </si>
+  <si>
+    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
+  </si>
+  <si>
+    <t>('JOSE VIDAL J', 'ASOCIADO', 1, 1, '8.780.104-7')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
+  </si>
+  <si>
+    <t>('YOSMAR PEREZ P', 'PROPIO', 0, 1, '11.257.434-4')</t>
+  </si>
+  <si>
+    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
+  </si>
+  <si>
+    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
+  </si>
+  <si>
+    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
+  </si>
+  <si>
+    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
   </si>
   <si>
     <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
   </si>
   <si>
-    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
-  </si>
-  <si>
-    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
-  </si>
-  <si>
-    <t>('CARLOS PONCE A', 'PROPIO', 0, 1, '14.555.433-0')</t>
-  </si>
-  <si>
-    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
-  </si>
-  <si>
-    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
-  </si>
-  <si>
-    <t>('YOSMAR PEREZ P', 'PROPIO', 0, 1, '11.257.434-4')</t>
-  </si>
-  <si>
-    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
-  </si>
-  <si>
-    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
-  </si>
-  <si>
-    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
-  </si>
-  <si>
-    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
-  </si>
-  <si>
-    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
-  </si>
-  <si>
-    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
-  </si>
-  <si>
-    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
-  </si>
-  <si>
-    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
-  </si>
-  <si>
-    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
-  </si>
-  <si>
-    <t>('GUILLERMO GARAY', 'ASOCIADO', 1, 1, '15.648.946-8')</t>
-  </si>
-  <si>
-    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
-  </si>
-  <si>
-    <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
-  </si>
-  <si>
-    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
-  </si>
-  <si>
-    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
-  </si>
-  <si>
-    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
-  </si>
-  <si>
-    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
-  </si>
-  <si>
-    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
-  </si>
-  <si>
-    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
-  </si>
-  <si>
-    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
-  </si>
-  <si>
-    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
-  </si>
-  <si>
-    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
-  </si>
-  <si>
-    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
-  </si>
-  <si>
-    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
-  </si>
-  <si>
-    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
-  </si>
-  <si>
-    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
-  </si>
-  <si>
-    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
-  </si>
-  <si>
     <t>trayecto</t>
   </si>
   <si>
     <t>presentacion</t>
   </si>
   <si>
+    <t>devolucion_vacio_val</t>
+  </si>
+  <si>
+    <t>devolucion_vacio_sai</t>
+  </si>
+  <si>
     <t>retiro_full_sai</t>
   </si>
   <si>
-    <t>devolucion_vacio_val</t>
-  </si>
-  <si>
-    <t>devolucion_vacio_sai</t>
-  </si>
-  <si>
-    <t>almacenamiento</t>
+    <t>devolucion_vacio_stgo</t>
   </si>
   <si>
     <t>retiro_full_val</t>
   </si>
   <si>
+    <t>20 liviano</t>
+  </si>
+  <si>
+    <t>lcl?</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>20 pesado</t>
-  </si>
-  <si>
-    <t>20 liviano</t>
-  </si>
-  <si>
-    <t>lcl?</t>
   </si>
 </sst>
 </file>
@@ -558,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96035</v>
+        <v>94685</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="F2" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.375</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>305503</v>
+        <v>300008</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -618,25 +687,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>96035</v>
+        <v>94685</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.375</v>
       </c>
       <c r="F3" s="2">
-        <v>45390.50416666667</v>
+        <v>45398.49255555555</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>305503</v>
+        <v>300008</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -644,25 +713,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96038</v>
+        <v>94685</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
-        <v>45390.50555555556</v>
+        <v>45398.49255555555</v>
       </c>
       <c r="F4" s="2">
-        <v>45390.5625</v>
+        <v>45398.66755555556</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>305512</v>
+        <v>300009</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -670,25 +739,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>96038</v>
+        <v>95309</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
-        <v>45390.5625</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F5" s="2">
-        <v>45390.65</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H5">
-        <v>305512</v>
+        <v>302419</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -696,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96039</v>
+        <v>95309</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="F6" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.55501388889</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>305515</v>
+        <v>302419</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -722,25 +791,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96039</v>
+        <v>96349</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.23472222222</v>
       </c>
       <c r="F7" s="2">
-        <v>45390.50416666667</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H7">
-        <v>305515</v>
+        <v>306707</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -748,25 +817,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96263</v>
+        <v>96349</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="F8" s="2">
-        <v>45390.40972222222</v>
+        <v>45398.40658333333</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H8">
-        <v>306448</v>
+        <v>306707</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -774,25 +843,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>96288</v>
+        <v>96349</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
-        <v>45390.46527777778</v>
+        <v>45398.40658333333</v>
       </c>
       <c r="F9" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.52811111111</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H9">
-        <v>306523</v>
+        <v>306708</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -800,25 +869,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96288</v>
+        <v>96665</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2">
-        <v>45390.52847222222</v>
+        <v>45398.33472222222</v>
       </c>
       <c r="F10" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.39027777778</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H10">
-        <v>306524</v>
+        <v>308153</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -826,25 +895,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96288</v>
+        <v>96666</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.54722222222</v>
       </c>
       <c r="F11" s="2">
-        <v>45390.70833333334</v>
+        <v>45398.60277777778</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>306524</v>
+        <v>308156</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -852,25 +921,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96288</v>
+        <v>96667</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
-        <v>45390.70833333334</v>
+        <v>45398.55138888889</v>
       </c>
       <c r="F12" s="2">
-        <v>45390.88125</v>
+        <v>45398.60694444444</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H12">
-        <v>306525</v>
+        <v>308159</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -878,25 +947,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96331</v>
+        <v>96697</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2">
-        <v>45390.45138888889</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F13" s="2">
-        <v>45390.50694444445</v>
+        <v>45398.4375</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>306652</v>
+        <v>308315</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -904,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96402</v>
+        <v>96697</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
-        <v>45390.86111111111</v>
+        <v>45398.4375</v>
       </c>
       <c r="F14" s="2">
-        <v>45390.91666666666</v>
+        <v>45398.5625</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>306950</v>
+        <v>308315</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -930,25 +999,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96488</v>
+        <v>96697</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2">
-        <v>45390.674125</v>
+        <v>45398.5625</v>
       </c>
       <c r="F15" s="2">
-        <v>45390.85051388889</v>
+        <v>45398.71527777778</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H15">
-        <v>307309</v>
+        <v>308316</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -956,25 +1025,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96488</v>
+        <v>96810</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2">
-        <v>45390.52847222222</v>
+        <v>45398.48888888889</v>
       </c>
       <c r="F16" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>307308</v>
+        <v>308809</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -982,25 +1051,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96488</v>
+        <v>96810</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="F17" s="2">
-        <v>45390.674125</v>
+        <v>45398.59333333333</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H17">
-        <v>307308</v>
+        <v>308809</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1008,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96545</v>
+        <v>96810</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2">
-        <v>45390.40927777778</v>
+        <v>45398.59333333333</v>
       </c>
       <c r="F18" s="2">
-        <v>45390.53844444444</v>
+        <v>45398.76625</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>307568</v>
+        <v>308810</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1034,25 +1103,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96545</v>
+        <v>96873</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2">
-        <v>45390.27013888889</v>
+        <v>45398.58333333334</v>
       </c>
       <c r="F19" s="2">
-        <v>45390.33333333334</v>
+        <v>45398.66666666666</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>307567</v>
+        <v>309135</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1060,25 +1129,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96545</v>
+        <v>96873</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2">
-        <v>45390.33333333334</v>
+        <v>45398.66666666666</v>
       </c>
       <c r="F20" s="2">
-        <v>45390.40927777778</v>
+        <v>45398.79166666666</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H20">
-        <v>307567</v>
+        <v>309135</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1086,25 +1155,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96586</v>
+        <v>96873</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2">
-        <v>45390.6875</v>
+        <v>45398.79166666666</v>
       </c>
       <c r="F21" s="2">
-        <v>45390.77083333334</v>
+        <v>45399</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H21">
-        <v>307760</v>
+        <v>309136</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1112,25 +1181,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96586</v>
+        <v>96882</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
-        <v>45390.77083333334</v>
+        <v>45398.26736111111</v>
       </c>
       <c r="F22" s="2">
-        <v>45390.93611111111</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H22">
-        <v>307760</v>
+        <v>309195</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1138,25 +1207,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96586</v>
+        <v>96882</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2">
-        <v>45390.93611111111</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F23" s="2">
-        <v>45391.08888888889</v>
+        <v>45398.40927777778</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H23">
-        <v>307761</v>
+        <v>309195</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1164,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96596</v>
+        <v>96882</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2">
-        <v>45390.61458333334</v>
+        <v>45398.40927777778</v>
       </c>
       <c r="F24" s="2">
-        <v>45390.8</v>
+        <v>45398.53705555556</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H24">
-        <v>307791</v>
+        <v>309196</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1190,25 +1259,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96596</v>
+        <v>96957</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2">
-        <v>45390.43819444445</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="F25" s="2">
-        <v>45390.5</v>
+        <v>45398.60555555556</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H25">
-        <v>307790</v>
+        <v>309465</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1216,25 +1285,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96596</v>
+        <v>96957</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
-        <v>45390.5</v>
+        <v>45398.30277777778</v>
       </c>
       <c r="F26" s="2">
-        <v>45390.61458333334</v>
+        <v>45398.36458333334</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H26">
-        <v>307790</v>
+        <v>309464</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1242,25 +1311,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96621</v>
+        <v>96957</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2">
-        <v>45390.55833333333</v>
+        <v>45398.36458333334</v>
       </c>
       <c r="F27" s="2">
-        <v>45390.68333333333</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H27">
-        <v>307988</v>
+        <v>309464</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1268,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96621</v>
+        <v>96975</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2">
-        <v>45390.38888888889</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="F28" s="2">
-        <v>45390.45833333334</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H28">
-        <v>307987</v>
+        <v>309579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1294,25 +1363,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96621</v>
+        <v>96975</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
-        <v>45390.45833333334</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F29" s="2">
-        <v>45390.55833333333</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H29">
-        <v>307987</v>
+        <v>309579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1320,25 +1389,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96622</v>
+        <v>96975</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2">
-        <v>45390.51666666667</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="F30" s="2">
-        <v>45390.63819444444</v>
+        <v>45398.63194444445</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H30">
-        <v>307991</v>
+        <v>309580</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1346,25 +1415,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96622</v>
+        <v>97004</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2">
-        <v>45390.34722222222</v>
+        <v>45398.61458333334</v>
       </c>
       <c r="F31" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.73958333334</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H31">
-        <v>307990</v>
+        <v>309668</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1372,25 +1441,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96622</v>
+        <v>97004</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.43819444445</v>
       </c>
       <c r="F32" s="2">
-        <v>45390.51666666667</v>
+        <v>45398.5</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>307990</v>
+        <v>309667</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1398,25 +1467,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96623</v>
+        <v>97004</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2">
-        <v>45390.43055555555</v>
+        <v>45398.5</v>
       </c>
       <c r="F33" s="2">
-        <v>45390.5</v>
+        <v>45398.61458333334</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H33">
-        <v>307993</v>
+        <v>309667</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1424,25 +1493,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96623</v>
+        <v>97007</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2">
-        <v>45390.5</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="F34" s="2">
-        <v>45390.6</v>
+        <v>45398.60416666666</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>307993</v>
+        <v>309677</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1450,25 +1519,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96623</v>
+        <v>97007</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2">
-        <v>45390.6</v>
+        <v>45398.30277777778</v>
       </c>
       <c r="F35" s="2">
-        <v>45390.72152777778</v>
+        <v>45398.36458333334</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H35">
-        <v>307994</v>
+        <v>309676</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1476,25 +1545,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96634</v>
+        <v>97007</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2">
-        <v>45390.75</v>
+        <v>45398.36458333334</v>
       </c>
       <c r="F36" s="2">
-        <v>45390.95833333334</v>
+        <v>45398.47916666666</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>308036</v>
+        <v>309676</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1502,25 +1571,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96634</v>
+        <v>97061</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2">
-        <v>45390.54166666666</v>
+        <v>45398.45544444444</v>
       </c>
       <c r="F37" s="2">
-        <v>45390.625</v>
+        <v>45398.62697222222</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>308035</v>
+        <v>309917</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1528,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96634</v>
+        <v>97061</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2">
-        <v>45390.625</v>
+        <v>45398.32152777778</v>
       </c>
       <c r="F38" s="2">
-        <v>45390.75</v>
+        <v>45398.375</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H38">
-        <v>308035</v>
+        <v>309916</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1554,25 +1623,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96645</v>
+        <v>97061</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2">
-        <v>45390.44791666666</v>
+        <v>45398.375</v>
       </c>
       <c r="F39" s="2">
-        <v>45390.57430555556</v>
+        <v>45398.45544444444</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H39">
-        <v>308095</v>
+        <v>309916</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1580,25 +1649,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96645</v>
+        <v>97096</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2">
-        <v>45390.27152777778</v>
+        <v>45398.27013888889</v>
       </c>
       <c r="F40" s="2">
-        <v>45390.33333333334</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H40">
-        <v>308094</v>
+        <v>310057</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1606,25 +1675,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>96645</v>
+        <v>97096</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2">
-        <v>45390.33333333334</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F41" s="2">
-        <v>45390.44791666666</v>
+        <v>45398.48841666667</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H41">
-        <v>308094</v>
+        <v>310057</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1632,25 +1701,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>96729</v>
+        <v>97096</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2">
-        <v>45390.58402777778</v>
+        <v>45398.48841666667</v>
       </c>
       <c r="F42" s="2">
-        <v>45390.64583333334</v>
+        <v>45398.66758333334</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H42">
-        <v>308458</v>
+        <v>310058</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1658,25 +1727,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>96729</v>
+        <v>97097</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2">
-        <v>45390.64583333334</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="F43" s="2">
-        <v>45390.76041666666</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H43">
-        <v>308458</v>
+        <v>310060</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1684,25 +1753,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96729</v>
+        <v>97097</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2">
-        <v>45390.76041666666</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F44" s="2">
-        <v>45390.88680555556</v>
+        <v>45398.48841666667</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H44">
-        <v>308459</v>
+        <v>310060</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1710,25 +1779,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>96736</v>
+        <v>97097</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2">
-        <v>45390.48302777778</v>
+        <v>45398.48841666667</v>
       </c>
       <c r="F45" s="2">
-        <v>45390.61288888889</v>
+        <v>45398.67383333333</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H45">
-        <v>308488</v>
+        <v>310061</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1736,25 +1805,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>96736</v>
+        <v>97105</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2">
-        <v>45390.26875</v>
+        <v>45398.5625</v>
       </c>
       <c r="F46" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.64583333334</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H46">
-        <v>308487</v>
+        <v>310116</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1762,25 +1831,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>96736</v>
+        <v>97105</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.64583333334</v>
       </c>
       <c r="F47" s="2">
-        <v>45390.48302777778</v>
+        <v>45398.77083333334</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H47">
-        <v>308487</v>
+        <v>310116</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1788,25 +1857,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>96737</v>
+        <v>97105</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.77083333334</v>
       </c>
       <c r="F48" s="2">
-        <v>45390.61636111111</v>
+        <v>45398.89861111111</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H48">
-        <v>308493</v>
+        <v>310117</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1814,25 +1883,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>96737</v>
+        <v>97130</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2">
-        <v>45390.26388888889</v>
+        <v>45398.26111111111</v>
       </c>
       <c r="F49" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H49">
-        <v>308492</v>
+        <v>310258</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1840,25 +1909,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>96737</v>
+        <v>97130</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F50" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H50">
-        <v>308492</v>
+        <v>310258</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1866,25 +1935,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>96739</v>
+        <v>97130</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="F51" s="2">
-        <v>45390.61636111111</v>
+        <v>45398.58680555555</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H51">
-        <v>308499</v>
+        <v>310259</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1892,25 +1961,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>96739</v>
+        <v>97131</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2">
-        <v>45390.26388888889</v>
+        <v>45398.34444444445</v>
       </c>
       <c r="F52" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H52">
-        <v>308498</v>
+        <v>310261</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1918,25 +1987,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>96739</v>
+        <v>97131</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="F53" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H53">
-        <v>308498</v>
+        <v>310261</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1944,25 +2013,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>96748</v>
+        <v>97131</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="F54" s="2">
-        <v>45390.61705555556</v>
+        <v>45398.67013888889</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H54">
-        <v>308526</v>
+        <v>310262</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1970,25 +2039,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>96748</v>
+        <v>97139</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2">
-        <v>45390.26805555556</v>
+        <v>45398.4375</v>
       </c>
       <c r="F55" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.5</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H55">
-        <v>308525</v>
+        <v>310286</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1996,25 +2065,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>96748</v>
+        <v>97139</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.5</v>
       </c>
       <c r="F56" s="2">
-        <v>45390.48233333333</v>
+        <v>45398.625</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H56">
-        <v>308525</v>
+        <v>310286</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2022,25 +2091,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>96801</v>
+        <v>97139</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2">
-        <v>45390.71111111111</v>
+        <v>45398.625</v>
       </c>
       <c r="F57" s="2">
-        <v>45390.77083333334</v>
+        <v>45398.75277777778</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H57">
-        <v>308782</v>
+        <v>310287</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2048,25 +2117,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>96801</v>
+        <v>97146</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2">
-        <v>45390.77083333334</v>
+        <v>45398.375</v>
       </c>
       <c r="F58" s="2">
-        <v>45390.87880555556</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H58">
-        <v>308782</v>
+        <v>310313</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2074,25 +2143,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>96801</v>
+        <v>97146</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2">
-        <v>45390.87880555556</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="F59" s="2">
-        <v>45391.0045</v>
+        <v>45398.56630555556</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H59">
-        <v>308783</v>
+        <v>310313</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2100,25 +2169,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>96820</v>
+        <v>97146</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2">
-        <v>45390.44375</v>
+        <v>45398.56630555556</v>
       </c>
       <c r="F60" s="2">
-        <v>45390.5</v>
+        <v>45398.73991666667</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H60">
-        <v>308839</v>
+        <v>310314</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2126,25 +2195,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>96820</v>
+        <v>97149</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2">
-        <v>45390.5</v>
+        <v>45398.54547222222</v>
       </c>
       <c r="F61" s="2">
-        <v>45390.59219444444</v>
+        <v>45398.71908333333</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H61">
-        <v>308839</v>
+        <v>310323</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2152,25 +2221,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>96820</v>
+        <v>97149</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E62" s="2">
-        <v>45390.59219444444</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F62" s="2">
-        <v>45390.76788888889</v>
+        <v>45398.4375</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H62">
-        <v>308840</v>
+        <v>310322</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2178,25 +2247,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>96824</v>
+        <v>97149</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2">
-        <v>45390.79166666666</v>
+        <v>45398.4375</v>
       </c>
       <c r="F63" s="2">
-        <v>45390.96805555555</v>
+        <v>45398.54547222222</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H63">
-        <v>308852</v>
+        <v>310322</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2204,25 +2273,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>96824</v>
+        <v>97150</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.40416666667</v>
       </c>
       <c r="F64" s="2">
-        <v>45390.66666666666</v>
+        <v>45398.45972222222</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H64">
-        <v>308851</v>
+        <v>310324</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2230,25 +2299,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>96824</v>
+        <v>97151</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2">
-        <v>45390.66666666666</v>
+        <v>45398.82291666666</v>
       </c>
       <c r="F65" s="2">
-        <v>45390.79166666666</v>
+        <v>45398.93888888889</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H65">
-        <v>308851</v>
+        <v>310329</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2256,25 +2325,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>96828</v>
+        <v>97151</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E66" s="2">
-        <v>45390.31875</v>
+        <v>45398.625</v>
       </c>
       <c r="F66" s="2">
-        <v>45390.375</v>
+        <v>45398.70833333334</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H66">
-        <v>308863</v>
+        <v>310328</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2282,25 +2351,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>96828</v>
+        <v>97151</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2">
-        <v>45390.375</v>
+        <v>45398.70833333334</v>
       </c>
       <c r="F67" s="2">
-        <v>45390.46719444444</v>
+        <v>45398.82291666666</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H67">
-        <v>308863</v>
+        <v>310328</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2308,25 +2377,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>96828</v>
+        <v>97186</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
-        <v>45390.46719444444</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F68" s="2">
-        <v>45390.64288888889</v>
+        <v>45398.4375</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H68">
-        <v>308864</v>
+        <v>310434</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2334,25 +2403,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>96870</v>
+        <v>97186</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2">
-        <v>45390.56111111111</v>
+        <v>45398.4375</v>
       </c>
       <c r="F69" s="2">
-        <v>45390.61666666667</v>
+        <v>45398.50797222222</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H69">
-        <v>309125</v>
+        <v>310434</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2360,25 +2429,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>96871</v>
+        <v>97190</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2">
-        <v>45390.4125</v>
+        <v>45398.82638888889</v>
       </c>
       <c r="F70" s="2">
-        <v>45390.46805555555</v>
+        <v>45398.88194444445</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H70">
-        <v>309128</v>
+        <v>310465</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2386,25 +2455,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>96897</v>
+        <v>97191</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2">
-        <v>45390.43240277778</v>
+        <v>45398.36527777778</v>
       </c>
       <c r="F71" s="2">
-        <v>45390.58518055556</v>
+        <v>45398.42083333333</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H71">
-        <v>309241</v>
+        <v>310468</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2412,25 +2481,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>96897</v>
+        <v>97192</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2">
-        <v>45390.2875</v>
+        <v>45398.70208333333</v>
       </c>
       <c r="F72" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.75763888889</v>
       </c>
       <c r="G72" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H72">
-        <v>309240</v>
+        <v>310471</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2438,25 +2507,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>96897</v>
+        <v>97193</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.45138888889</v>
       </c>
       <c r="F73" s="2">
-        <v>45390.43240277778</v>
+        <v>45398.62222222222</v>
       </c>
       <c r="G73" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H73">
-        <v>309240</v>
+        <v>310476</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2464,25 +2533,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>96903</v>
+        <v>97193</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2">
-        <v>45390.66388888889</v>
+        <v>45398.29097222222</v>
       </c>
       <c r="F74" s="2">
-        <v>45390.71944444445</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G74" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H74">
-        <v>309257</v>
+        <v>310475</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2490,25 +2559,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>96904</v>
+        <v>97193</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2">
-        <v>45390.37152777778</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F75" s="2">
-        <v>45390.4375</v>
+        <v>45398.45138888889</v>
       </c>
       <c r="G75" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H75">
-        <v>309261</v>
+        <v>310475</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2516,25 +2585,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>96904</v>
+        <v>97194</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2">
-        <v>45390.4375</v>
+        <v>45398.53472222222</v>
       </c>
       <c r="F76" s="2">
-        <v>45390.53472222222</v>
+        <v>45398.70555555556</v>
       </c>
       <c r="G76" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H76">
-        <v>309261</v>
+        <v>310479</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2542,25 +2611,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>96904</v>
+        <v>97194</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2">
-        <v>45390.53472222222</v>
+        <v>45398.37430555555</v>
       </c>
       <c r="F77" s="2">
-        <v>45390.71805555555</v>
+        <v>45398.4375</v>
       </c>
       <c r="G77" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H77">
-        <v>309262</v>
+        <v>310478</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2568,25 +2637,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>96905</v>
+        <v>97194</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2">
-        <v>45390.70555555556</v>
+        <v>45398.4375</v>
       </c>
       <c r="F78" s="2">
-        <v>45390.76111111111</v>
+        <v>45398.53472222222</v>
       </c>
       <c r="G78" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H78">
-        <v>309263</v>
+        <v>310478</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2594,25 +2663,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>96906</v>
+        <v>97210</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E79" s="2">
-        <v>45390.70277777778</v>
+        <v>45398.37291666667</v>
       </c>
       <c r="F79" s="2">
-        <v>45390.75833333333</v>
+        <v>45398.4375</v>
       </c>
       <c r="G79" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H79">
-        <v>309266</v>
+        <v>310543</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2620,25 +2689,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>96907</v>
+        <v>97210</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E80" s="2">
-        <v>45390.45486111111</v>
+        <v>45398.4375</v>
       </c>
       <c r="F80" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.53194444445</v>
       </c>
       <c r="G80" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H80">
-        <v>309270</v>
+        <v>310543</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2646,25 +2715,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>96907</v>
+        <v>97212</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E81" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.45625</v>
       </c>
       <c r="F81" s="2">
-        <v>45390.61805555555</v>
+        <v>45398.52083333334</v>
       </c>
       <c r="G81" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H81">
-        <v>309270</v>
+        <v>310549</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2672,25 +2741,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>96907</v>
+        <v>97212</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E82" s="2">
-        <v>45390.61805555555</v>
+        <v>45398.52083333334</v>
       </c>
       <c r="F82" s="2">
-        <v>45390.80138888889</v>
+        <v>45398.61527777778</v>
       </c>
       <c r="G82" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H82">
-        <v>309271</v>
+        <v>310549</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2698,25 +2767,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>96908</v>
+        <v>97213</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E83" s="2">
-        <v>45390.55555555555</v>
+        <v>45398.28958333333</v>
       </c>
       <c r="F83" s="2">
-        <v>45390.61111111111</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G83" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H83">
-        <v>309272</v>
+        <v>310552</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2724,25 +2793,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>96909</v>
+        <v>97213</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E84" s="2">
-        <v>45390.28819444445</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F84" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.44861111111</v>
       </c>
       <c r="G84" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H84">
-        <v>309276</v>
+        <v>310552</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2750,25 +2819,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>96909</v>
+        <v>97223</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E85" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.65972222222</v>
       </c>
       <c r="F85" s="2">
-        <v>45390.45138888889</v>
+        <v>45398.79027777778</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H85">
-        <v>309276</v>
+        <v>310583</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2776,25 +2845,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>96909</v>
+        <v>97223</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E86" s="2">
-        <v>45390.45138888889</v>
+        <v>45398.49930555555</v>
       </c>
       <c r="F86" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.5625</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H86">
-        <v>309277</v>
+        <v>310582</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2802,25 +2871,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>96910</v>
+        <v>97223</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E87" s="2">
-        <v>45390.35069444445</v>
+        <v>45398.5625</v>
       </c>
       <c r="F87" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.65972222222</v>
       </c>
       <c r="G87" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H87">
-        <v>309279</v>
+        <v>310582</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2828,25 +2897,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>96910</v>
+        <v>97224</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E88" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.54097222222</v>
       </c>
       <c r="F88" s="2">
-        <v>45390.49261111111</v>
+        <v>45398.60416666666</v>
       </c>
       <c r="G88" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H88">
-        <v>309279</v>
+        <v>310585</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2854,25 +2923,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>96910</v>
+        <v>97224</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E89" s="2">
-        <v>45390.49261111111</v>
+        <v>45398.60416666666</v>
       </c>
       <c r="F89" s="2">
-        <v>45390.67525</v>
+        <v>45398.70138888889</v>
       </c>
       <c r="G89" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H89">
-        <v>309280</v>
+        <v>310585</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2880,25 +2949,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>96911</v>
+        <v>97224</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E90" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.70138888889</v>
       </c>
       <c r="F90" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.83194444444</v>
       </c>
       <c r="G90" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H90">
-        <v>309281</v>
+        <v>310586</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2906,25 +2975,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>96922</v>
+        <v>97225</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E91" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.53611111111</v>
       </c>
       <c r="F91" s="2">
-        <v>45390.40972222222</v>
+        <v>45398.65486111111</v>
       </c>
       <c r="G91" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H91">
-        <v>309332</v>
+        <v>310589</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2932,25 +3001,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>96924</v>
+        <v>97225</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E92" s="2">
-        <v>45390.71527777778</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="F92" s="2">
-        <v>45390.77083333334</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="G92" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H92">
-        <v>309338</v>
+        <v>310588</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2958,25 +3027,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>96932</v>
+        <v>97225</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E93" s="2">
-        <v>45390.87777777778</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="F93" s="2">
-        <v>45390.93333333333</v>
+        <v>45398.53611111111</v>
       </c>
       <c r="G93" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H93">
-        <v>309380</v>
+        <v>310588</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2984,25 +3053,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>96935</v>
+        <v>97226</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E94" s="2">
-        <v>45390.38125</v>
+        <v>45398.36805555555</v>
       </c>
       <c r="F94" s="2">
-        <v>45390.39722222222</v>
+        <v>45398.42361111111</v>
       </c>
       <c r="G94" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H94">
-        <v>310247</v>
+        <v>310590</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3010,25 +3079,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>96935</v>
+        <v>97227</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2">
-        <v>45390.3625</v>
+        <v>45398.85277777778</v>
       </c>
       <c r="F95" s="2">
-        <v>45390.41805555556</v>
+        <v>45398.90833333333</v>
       </c>
       <c r="G95" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H95">
-        <v>309393</v>
+        <v>310593</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3036,25 +3105,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>96936</v>
+        <v>97229</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E96" s="2">
-        <v>45390.55833333333</v>
+        <v>45398.6</v>
       </c>
       <c r="F96" s="2">
-        <v>45390.61388888889</v>
+        <v>45398.72152777778</v>
       </c>
       <c r="G96" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H96">
-        <v>309396</v>
+        <v>310607</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3062,25 +3131,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>96948</v>
+        <v>97229</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E97" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.43055555555</v>
       </c>
       <c r="F97" s="2">
-        <v>45390.60588888889</v>
+        <v>45398.5</v>
       </c>
       <c r="G97" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H97">
-        <v>309438</v>
+        <v>310606</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3088,25 +3157,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>96948</v>
+        <v>97229</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E98" s="2">
-        <v>45390.31875</v>
+        <v>45398.5</v>
       </c>
       <c r="F98" s="2">
-        <v>45390.375</v>
+        <v>45398.6</v>
       </c>
       <c r="G98" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H98">
-        <v>309437</v>
+        <v>310606</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3114,25 +3183,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>96948</v>
+        <v>97230</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2">
-        <v>45390.375</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="F99" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.41944444444</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H99">
-        <v>309437</v>
+        <v>310608</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3140,25 +3209,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>96949</v>
+        <v>97231</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E100" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.56666666667</v>
       </c>
       <c r="F100" s="2">
-        <v>45390.60241666667</v>
+        <v>45398.62222222222</v>
       </c>
       <c r="G100" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H100">
-        <v>309441</v>
+        <v>310611</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3166,25 +3235,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>96949</v>
+        <v>97235</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E101" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.56527777778</v>
       </c>
       <c r="F101" s="2">
-        <v>45390.375</v>
+        <v>45398.62083333333</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H101">
-        <v>309440</v>
+        <v>310623</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3192,25 +3261,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>96949</v>
+        <v>97238</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E102" s="2">
-        <v>45390.375</v>
+        <v>45398.38194444445</v>
       </c>
       <c r="F102" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.4375</v>
       </c>
       <c r="G102" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H102">
-        <v>309440</v>
+        <v>310632</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3218,25 +3287,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>96950</v>
+        <v>97239</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E103" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.47222222222</v>
       </c>
       <c r="F103" s="2">
-        <v>45390.375</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="G103" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H103">
-        <v>309443</v>
+        <v>310636</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3244,25 +3313,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>96950</v>
+        <v>97239</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E104" s="2">
-        <v>45390.375</v>
+        <v>45398.54166666666</v>
       </c>
       <c r="F104" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.64166666667</v>
       </c>
       <c r="G104" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H104">
-        <v>309443</v>
+        <v>310636</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3270,25 +3339,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>96950</v>
+        <v>97239</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E105" s="2">
-        <v>45390.48297222222</v>
+        <v>45398.64166666667</v>
       </c>
       <c r="F105" s="2">
-        <v>45390.60241666667</v>
+        <v>45398.76319444444</v>
       </c>
       <c r="G105" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H105">
-        <v>309444</v>
+        <v>310637</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3296,25 +3365,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>96979</v>
+        <v>97241</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E106" s="2">
-        <v>45390.5</v>
+        <v>45398.83055555556</v>
       </c>
       <c r="F106" s="2">
-        <v>45390.61875</v>
+        <v>45398.88611111111</v>
       </c>
       <c r="G106" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H106">
-        <v>309593</v>
+        <v>310641</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3322,25 +3391,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>96979</v>
+        <v>97242</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E107" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.4615</v>
       </c>
       <c r="F107" s="2">
-        <v>45390.375</v>
+        <v>45398.61705555556</v>
       </c>
       <c r="G107" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H107">
-        <v>309592</v>
+        <v>310648</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3348,25 +3417,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>96979</v>
+        <v>97242</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E108" s="2">
-        <v>45390.375</v>
+        <v>45398.29722222222</v>
       </c>
       <c r="F108" s="2">
-        <v>45390.5</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="G108" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H108">
-        <v>309592</v>
+        <v>310647</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3374,25 +3443,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>96980</v>
+        <v>97242</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E109" s="2">
-        <v>45390.75416666667</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F109" s="2">
-        <v>45390.80972222222</v>
+        <v>45398.4615</v>
       </c>
       <c r="G109" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H109">
-        <v>309594</v>
+        <v>310647</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3400,25 +3469,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>96982</v>
+        <v>97243</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E110" s="2">
-        <v>45390.40069444444</v>
+        <v>45398.53472222222</v>
       </c>
       <c r="F110" s="2">
-        <v>45390.45625</v>
+        <v>45398.59027777778</v>
       </c>
       <c r="G110" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H110">
-        <v>309600</v>
+        <v>310651</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3426,25 +3495,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>96983</v>
+        <v>97245</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E111" s="2">
-        <v>45390.36527777778</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="F111" s="2">
-        <v>45390.42083333333</v>
+        <v>45398.64305555556</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H111">
-        <v>309603</v>
+        <v>310682</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3452,25 +3521,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>96988</v>
+        <v>97245</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E112" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.21666666667</v>
       </c>
       <c r="F112" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="G112" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H112">
-        <v>309618</v>
+        <v>310681</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3478,25 +3547,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>96994</v>
+        <v>97245</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E113" s="2">
-        <v>45390.44722222222</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F113" s="2">
-        <v>45390.50277777778</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="G113" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H113">
-        <v>309636</v>
+        <v>310681</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3504,25 +3573,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>96998</v>
+        <v>97250</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E114" s="2">
-        <v>45390.35138888889</v>
+        <v>45398.4125</v>
       </c>
       <c r="F114" s="2">
-        <v>45390.40694444445</v>
+        <v>45398.62083333333</v>
       </c>
       <c r="G114" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H114">
-        <v>309648</v>
+        <v>310701</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3530,25 +3599,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>97000</v>
+        <v>97250</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E115" s="2">
-        <v>45390.40277777778</v>
+        <v>45398.30694444444</v>
       </c>
       <c r="F115" s="2">
-        <v>45390.45833333334</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H115">
-        <v>309654</v>
+        <v>310700</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3556,25 +3625,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>97000</v>
+        <v>97250</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E116" s="2">
-        <v>45390.42152777778</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F116" s="2">
-        <v>45390.4375</v>
+        <v>45398.4125</v>
       </c>
       <c r="G116" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H116">
-        <v>310252</v>
+        <v>310700</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3582,25 +3651,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>97002</v>
+        <v>97289</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E117" s="2">
-        <v>45390.42986111111</v>
+        <v>45398.75069444445</v>
       </c>
       <c r="F117" s="2">
-        <v>45390.48541666667</v>
+        <v>45398.80625</v>
       </c>
       <c r="G117" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H117">
-        <v>309660</v>
+        <v>310822</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3608,25 +3677,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>97006</v>
+        <v>97290</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E118" s="2">
-        <v>45390.45694444444</v>
+        <v>45398.73958333334</v>
       </c>
       <c r="F118" s="2">
-        <v>45390.5125</v>
+        <v>45398.86597222222</v>
       </c>
       <c r="G118" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H118">
-        <v>309672</v>
+        <v>310827</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3634,25 +3703,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>97012</v>
+        <v>97290</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E119" s="2">
-        <v>45390.55972222222</v>
+        <v>45398.56319444445</v>
       </c>
       <c r="F119" s="2">
-        <v>45390.61527777778</v>
+        <v>45398.625</v>
       </c>
       <c r="G119" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H119">
-        <v>309690</v>
+        <v>310826</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3660,25 +3729,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>97013</v>
+        <v>97290</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E120" s="2">
-        <v>45390.74861111111</v>
+        <v>45398.625</v>
       </c>
       <c r="F120" s="2">
-        <v>45390.80416666667</v>
+        <v>45398.73958333334</v>
       </c>
       <c r="G120" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H120">
-        <v>309693</v>
+        <v>310826</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3686,25 +3755,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>97014</v>
+        <v>97293</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E121" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="F121" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.375</v>
       </c>
       <c r="G121" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H121">
-        <v>309700</v>
+        <v>310840</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3712,25 +3781,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>97014</v>
+        <v>97293</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D122" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E122" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.375</v>
       </c>
       <c r="F122" s="2">
-        <v>45390.54166666666</v>
+        <v>45398.5</v>
       </c>
       <c r="G122" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H122">
-        <v>309700</v>
+        <v>310840</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3738,25 +3807,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>97015</v>
+        <v>97293</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E123" s="2">
-        <v>45390.43170833333</v>
+        <v>45398.5</v>
       </c>
       <c r="F123" s="2">
-        <v>45390.58448611111</v>
+        <v>45398.66180555556</v>
       </c>
       <c r="G123" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H123">
-        <v>309710</v>
+        <v>310841</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3764,25 +3833,25 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>97015</v>
+        <v>97294</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E124" s="2">
-        <v>45390.28680555556</v>
+        <v>45398.45694444444</v>
       </c>
       <c r="F124" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.5125</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H124">
-        <v>309709</v>
+        <v>310847</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3790,25 +3859,25 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>97015</v>
+        <v>97294</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E125" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.85416666666</v>
       </c>
       <c r="F125" s="2">
-        <v>45390.43170833333</v>
+        <v>45398.97361111111</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H125">
-        <v>309709</v>
+        <v>310849</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3816,25 +3885,25 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>97016</v>
+        <v>97294</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E126" s="2">
-        <v>45390.42361111111</v>
+        <v>45398.67083333333</v>
       </c>
       <c r="F126" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.72916666666</v>
       </c>
       <c r="G126" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H126">
-        <v>309711</v>
+        <v>310848</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3842,25 +3911,25 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>97018</v>
+        <v>97294</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E127" s="2">
-        <v>45390.43402777778</v>
+        <v>45398.72916666666</v>
       </c>
       <c r="F127" s="2">
-        <v>45390.48958333334</v>
+        <v>45398.85416666666</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H127">
-        <v>309717</v>
+        <v>310848</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3868,25 +3937,25 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>97019</v>
+        <v>97298</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E128" s="2">
-        <v>45390.65833333333</v>
+        <v>45398.45138888889</v>
       </c>
       <c r="F128" s="2">
-        <v>45390.71388888889</v>
+        <v>45398.50694444445</v>
       </c>
       <c r="G128" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H128">
-        <v>309720</v>
+        <v>310871</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3894,25 +3963,25 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>97020</v>
+        <v>97303</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E129" s="2">
-        <v>45390.57222222222</v>
+        <v>45398.55555555555</v>
       </c>
       <c r="F129" s="2">
-        <v>45390.62777777778</v>
+        <v>45398.61111111111</v>
       </c>
       <c r="G129" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H129">
-        <v>309723</v>
+        <v>310886</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3920,25 +3989,25 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>97021</v>
+        <v>97305</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E130" s="2">
-        <v>45390.57916666667</v>
+        <v>45398.42883333333</v>
       </c>
       <c r="F130" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.58161111111</v>
       </c>
       <c r="G130" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H130">
-        <v>309726</v>
+        <v>310894</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3946,25 +4015,25 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>97022</v>
+        <v>97305</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D131" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E131" s="2">
-        <v>45390.42152777778</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="F131" s="2">
-        <v>45390.47708333333</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G131" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H131">
-        <v>309729</v>
+        <v>310893</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3972,25 +4041,25 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>97023</v>
+        <v>97305</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E132" s="2">
-        <v>45390.57916666667</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F132" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.42883333333</v>
       </c>
       <c r="G132" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H132">
-        <v>309732</v>
+        <v>310893</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3998,25 +4067,25 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>97041</v>
+        <v>97308</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E133" s="2">
-        <v>45390.525</v>
+        <v>45398.5</v>
       </c>
       <c r="F133" s="2">
-        <v>45390.63611111111</v>
+        <v>45398.67777777778</v>
       </c>
       <c r="G133" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H133">
-        <v>309843</v>
+        <v>310903</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4024,25 +4093,25 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>97042</v>
+        <v>97308</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E134" s="2">
-        <v>45390.75</v>
+        <v>45398.33194444444</v>
       </c>
       <c r="F134" s="2">
-        <v>45390.80555555555</v>
+        <v>45398.39583333334</v>
       </c>
       <c r="G134" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H134">
-        <v>309846</v>
+        <v>310902</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4050,25 +4119,25 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>97044</v>
+        <v>97308</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E135" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.39583333334</v>
       </c>
       <c r="F135" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.5</v>
       </c>
       <c r="G135" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H135">
-        <v>309853</v>
+        <v>310902</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4076,25 +4145,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>97044</v>
+        <v>97309</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E136" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.56180555555</v>
       </c>
       <c r="F136" s="2">
-        <v>45390.64583333334</v>
+        <v>45398.61736111111</v>
       </c>
       <c r="G136" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H136">
-        <v>309853</v>
+        <v>310904</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4102,25 +4171,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>97046</v>
+        <v>97317</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E137" s="2">
-        <v>45390.45416666667</v>
+        <v>45398.31944444445</v>
       </c>
       <c r="F137" s="2">
-        <v>45390.50972222222</v>
+        <v>45398.375</v>
       </c>
       <c r="G137" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H137">
-        <v>309861</v>
+        <v>310931</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4128,25 +4197,25 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>97051</v>
+        <v>97317</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E138" s="2">
-        <v>45390.57083333333</v>
+        <v>45398.375</v>
       </c>
       <c r="F138" s="2">
-        <v>45390.62638888889</v>
+        <v>45398.465875</v>
       </c>
       <c r="G138" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H138">
-        <v>309885</v>
+        <v>310931</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4154,25 +4223,25 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>97052</v>
+        <v>97317</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E139" s="2">
-        <v>45390.88888888889</v>
+        <v>45398.465875</v>
       </c>
       <c r="F139" s="2">
-        <v>45390.94444444445</v>
+        <v>45398.58809722222</v>
       </c>
       <c r="G139" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H139">
-        <v>309888</v>
+        <v>310932</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4180,25 +4249,25 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>97053</v>
+        <v>97318</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E140" s="2">
-        <v>45390.3375</v>
+        <v>45398.65486111111</v>
       </c>
       <c r="F140" s="2">
-        <v>45390.39305555556</v>
+        <v>45398.70833333334</v>
       </c>
       <c r="G140" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H140">
-        <v>309891</v>
+        <v>310934</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4206,25 +4275,25 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>97054</v>
+        <v>97318</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E141" s="2">
-        <v>45390.56944444445</v>
+        <v>45398.70833333334</v>
       </c>
       <c r="F141" s="2">
-        <v>45390.625</v>
+        <v>45398.80866666666</v>
       </c>
       <c r="G141" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H141">
-        <v>309894</v>
+        <v>310934</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4232,25 +4301,25 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>97057</v>
+        <v>97318</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E142" s="2">
-        <v>45390.87013888889</v>
+        <v>45398.80866666666</v>
       </c>
       <c r="F142" s="2">
-        <v>45390.92569444444</v>
+        <v>45398.96144444445</v>
       </c>
       <c r="G142" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H142">
-        <v>309903</v>
+        <v>310935</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4258,25 +4327,25 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>97064</v>
+        <v>97320</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E143" s="2">
-        <v>45390.68055555555</v>
+        <v>45398.45625</v>
       </c>
       <c r="F143" s="2">
-        <v>45390.73611111111</v>
+        <v>45398.57013888889</v>
       </c>
       <c r="G143" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H143">
-        <v>309924</v>
+        <v>310941</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4284,25 +4353,25 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>97066</v>
+        <v>97320</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E144" s="2">
-        <v>45390.32777777778</v>
+        <v>45398.30208333334</v>
       </c>
       <c r="F144" s="2">
-        <v>45390.38333333333</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G144" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H144">
-        <v>309930</v>
+        <v>310940</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4310,25 +4379,25 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>97067</v>
+        <v>97320</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D145" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E145" s="2">
-        <v>45390.46944444445</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F145" s="2">
-        <v>45390.525</v>
+        <v>45398.45625</v>
       </c>
       <c r="G145" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H145">
-        <v>309933</v>
+        <v>310940</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4336,25 +4405,25 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>97073</v>
+        <v>97327</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D146" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E146" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="F146" s="2">
-        <v>45390.375</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="G146" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H146">
-        <v>309952</v>
+        <v>310975</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4362,25 +4431,25 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>97073</v>
+        <v>97327</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E147" s="2">
-        <v>45390.375</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="F147" s="2">
-        <v>45390.5</v>
+        <v>45398.51005555555</v>
       </c>
       <c r="G147" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H147">
-        <v>309952</v>
+        <v>310975</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4388,25 +4457,25 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>97073</v>
+        <v>97327</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E148" s="2">
-        <v>45390.5</v>
+        <v>45398.51005555555</v>
       </c>
       <c r="F148" s="2">
-        <v>45390.73888888889</v>
+        <v>45398.69547222222</v>
       </c>
       <c r="G148" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H148">
-        <v>309953</v>
+        <v>310976</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4414,25 +4483,25 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>97081</v>
+        <v>97328</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D149" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E149" s="2">
-        <v>45390.29583333333</v>
+        <v>45398.24305555555</v>
       </c>
       <c r="F149" s="2">
-        <v>45390.40694444445</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="G149" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H149">
-        <v>309986</v>
+        <v>310978</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4440,25 +4509,25 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>97082</v>
+        <v>97328</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D150" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E150" s="2">
-        <v>45390.30416666667</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="F150" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.4615</v>
       </c>
       <c r="G150" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H150">
-        <v>309989</v>
+        <v>310978</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4466,25 +4535,25 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>97089</v>
+        <v>97328</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E151" s="2">
-        <v>45390.69166666667</v>
+        <v>45398.4615</v>
       </c>
       <c r="F151" s="2">
-        <v>45390.74722222222</v>
+        <v>45398.59552777778</v>
       </c>
       <c r="G151" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H151">
-        <v>310031</v>
+        <v>310979</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4492,25 +4561,25 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>97091</v>
+        <v>97330</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E152" s="2">
-        <v>45390.89027777778</v>
+        <v>45398.89722222222</v>
       </c>
       <c r="F152" s="2">
-        <v>45390.94583333333</v>
+        <v>45398.95277777778</v>
       </c>
       <c r="G152" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H152">
-        <v>310037</v>
+        <v>310983</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4518,25 +4587,25 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>97092</v>
+        <v>97331</v>
       </c>
       <c r="C153" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E153" s="2">
-        <v>45390.84166666667</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="F153" s="2">
-        <v>45390.89722222222</v>
+        <v>45398.41944444444</v>
       </c>
       <c r="G153" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H153">
-        <v>310044</v>
+        <v>310986</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4544,25 +4613,25 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>97098</v>
+        <v>97335</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E154" s="2">
-        <v>45390.825</v>
+        <v>45398.55833333333</v>
       </c>
       <c r="F154" s="2">
-        <v>45390.88055555556</v>
+        <v>45398.625</v>
       </c>
       <c r="G154" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H154">
-        <v>310063</v>
+        <v>310999</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4570,25 +4639,25 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>97126</v>
+        <v>97335</v>
       </c>
       <c r="C155" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E155" s="2">
-        <v>45390.26666666667</v>
+        <v>45398.625</v>
       </c>
       <c r="F155" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.71944444445</v>
       </c>
       <c r="G155" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H155">
-        <v>310199</v>
+        <v>310999</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4596,25 +4665,25 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>97126</v>
+        <v>97335</v>
       </c>
       <c r="C156" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E156" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.71944444445</v>
       </c>
       <c r="F156" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.90416666667</v>
       </c>
       <c r="G156" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H156">
-        <v>310199</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4622,25 +4691,25 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>97126</v>
+        <v>97336</v>
       </c>
       <c r="C157" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D157" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E157" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.67777777778</v>
       </c>
       <c r="F157" s="2">
-        <v>45390.63194444445</v>
+        <v>45398.8625</v>
       </c>
       <c r="G157" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H157">
-        <v>310200</v>
+        <v>311003</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4648,25 +4717,25 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>97127</v>
+        <v>97336</v>
       </c>
       <c r="C158" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E158" s="2">
-        <v>45390.38958333333</v>
+        <v>45398.51666666667</v>
       </c>
       <c r="F158" s="2">
-        <v>45390.44513888889</v>
+        <v>45398.58333333334</v>
       </c>
       <c r="G158" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H158">
-        <v>310230</v>
+        <v>311002</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4674,25 +4743,1689 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>97128</v>
+        <v>97336</v>
       </c>
       <c r="C159" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E159" s="2">
-        <v>45390.35277777778</v>
+        <v>45398.58333333334</v>
       </c>
       <c r="F159" s="2">
-        <v>45390.40833333333</v>
+        <v>45398.67777777778</v>
       </c>
       <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159">
+        <v>311002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>97356</v>
+      </c>
+      <c r="C160" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160" t="s">
+        <v>77</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45398.88888888889</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45398.94444444445</v>
+      </c>
+      <c r="G160" t="s">
+        <v>82</v>
+      </c>
+      <c r="H160">
+        <v>311065</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>97390</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45398.54861111111</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45398.60416666666</v>
+      </c>
+      <c r="G161" t="s">
+        <v>82</v>
+      </c>
+      <c r="H161">
+        <v>311192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>97391</v>
+      </c>
+      <c r="C162" t="s">
+        <v>55</v>
+      </c>
+      <c r="D162" t="s">
+        <v>75</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45398.50820833333</v>
+      </c>
+      <c r="F162" s="2">
+        <v>45398.69154166667</v>
+      </c>
+      <c r="G162" t="s">
+        <v>83</v>
+      </c>
+      <c r="H162">
+        <v>311201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>97391</v>
+      </c>
+      <c r="C163" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" t="s">
+        <v>73</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45398.35416666666</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45398.4375</v>
+      </c>
+      <c r="G163" t="s">
+        <v>83</v>
+      </c>
+      <c r="H163">
+        <v>311200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>97391</v>
+      </c>
+      <c r="C164" t="s">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>74</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45398.4375</v>
+      </c>
+      <c r="F164" s="2">
+        <v>45398.50820833333</v>
+      </c>
+      <c r="G164" t="s">
+        <v>83</v>
+      </c>
+      <c r="H164">
+        <v>311200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>97396</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>77</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45398.72847222222</v>
+      </c>
+      <c r="F165" s="2">
+        <v>45398.78402777778</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165">
+        <v>311222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>97397</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>77</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45398.44444444445</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>82</v>
+      </c>
+      <c r="H166">
+        <v>311225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>97398</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>77</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45398.57777777778</v>
+      </c>
+      <c r="F167" s="2">
+        <v>45398.63333333333</v>
+      </c>
+      <c r="G167" t="s">
+        <v>82</v>
+      </c>
+      <c r="H167">
+        <v>311228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>97399</v>
+      </c>
+      <c r="C168" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" t="s">
+        <v>77</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45398.54444444444</v>
+      </c>
+      <c r="F168" s="2">
+        <v>45398.6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>82</v>
+      </c>
+      <c r="H168">
+        <v>311231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>97406</v>
+      </c>
+      <c r="C169" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" t="s">
+        <v>76</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45398.66319444445</v>
+      </c>
+      <c r="G169" t="s">
+        <v>82</v>
+      </c>
+      <c r="H169">
+        <v>311275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>97406</v>
+      </c>
+      <c r="C170" t="s">
+        <v>58</v>
+      </c>
+      <c r="D170" t="s">
+        <v>73</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45398.41666666666</v>
+      </c>
+      <c r="G170" t="s">
+        <v>82</v>
+      </c>
+      <c r="H170">
+        <v>311274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>97406</v>
+      </c>
+      <c r="C171" t="s">
+        <v>58</v>
+      </c>
+      <c r="D171" t="s">
+        <v>74</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45398.41666666666</v>
+      </c>
+      <c r="F171" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="G171" t="s">
+        <v>82</v>
+      </c>
+      <c r="H171">
+        <v>311274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>97418</v>
+      </c>
+      <c r="C172" t="s">
         <v>59</v>
       </c>
-      <c r="H159">
-        <v>310241</v>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45398.29166666666</v>
+      </c>
+      <c r="F172" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="G172" t="s">
+        <v>82</v>
+      </c>
+      <c r="H172">
+        <v>311318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>97418</v>
+      </c>
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" t="s">
+        <v>74</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="F173" s="2">
+        <v>45398.43333333333</v>
+      </c>
+      <c r="G173" t="s">
+        <v>82</v>
+      </c>
+      <c r="H173">
+        <v>311318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>97418</v>
+      </c>
+      <c r="C174" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" t="s">
+        <v>76</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45398.43333333333</v>
+      </c>
+      <c r="F174" s="2">
+        <v>45398.55972222222</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174">
+        <v>311319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>97423</v>
+      </c>
+      <c r="C175" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" t="s">
+        <v>73</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45398.29166666666</v>
+      </c>
+      <c r="F175" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="G175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175">
+        <v>311347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>97423</v>
+      </c>
+      <c r="C176" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176" t="s">
+        <v>74</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176">
+        <v>311347</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>97423</v>
+      </c>
+      <c r="C177" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" t="s">
+        <v>75</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="F177" s="2">
+        <v>45398.64861111111</v>
+      </c>
+      <c r="G177" t="s">
+        <v>82</v>
+      </c>
+      <c r="H177">
+        <v>311348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>97438</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>77</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45398.52777777778</v>
+      </c>
+      <c r="F178" s="2">
+        <v>45398.58333333334</v>
+      </c>
+      <c r="G178" t="s">
+        <v>83</v>
+      </c>
+      <c r="H178">
+        <v>311402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>97439</v>
+      </c>
+      <c r="C179" t="s">
+        <v>61</v>
+      </c>
+      <c r="D179" t="s">
+        <v>77</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45398.56944444445</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45398.625</v>
+      </c>
+      <c r="G179" t="s">
+        <v>83</v>
+      </c>
+      <c r="H179">
+        <v>311405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>97440</v>
+      </c>
+      <c r="C180" t="s">
+        <v>62</v>
+      </c>
+      <c r="D180" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45398.44130555556</v>
+      </c>
+      <c r="F180" s="2">
+        <v>45398.56144444444</v>
+      </c>
+      <c r="G180" t="s">
+        <v>82</v>
+      </c>
+      <c r="H180">
+        <v>311410</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>97440</v>
+      </c>
+      <c r="C181" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45398.27708333333</v>
+      </c>
+      <c r="F181" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="G181" t="s">
+        <v>82</v>
+      </c>
+      <c r="H181">
+        <v>311409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>97440</v>
+      </c>
+      <c r="C182" t="s">
+        <v>62</v>
+      </c>
+      <c r="D182" t="s">
+        <v>74</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="F182" s="2">
+        <v>45398.44130555556</v>
+      </c>
+      <c r="G182" t="s">
+        <v>82</v>
+      </c>
+      <c r="H182">
+        <v>311409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>97468</v>
+      </c>
+      <c r="C183" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45398.575</v>
+      </c>
+      <c r="F183" s="2">
+        <v>45398.63055555556</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="H183">
+        <v>311510</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>97469</v>
+      </c>
+      <c r="C184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" t="s">
+        <v>77</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45398.72777777778</v>
+      </c>
+      <c r="F184" s="2">
+        <v>45398.78333333333</v>
+      </c>
+      <c r="G184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H184">
+        <v>311516</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>97474</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45398.43402777778</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45398.48958333334</v>
+      </c>
+      <c r="G185" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185">
+        <v>311531</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>97479</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>76</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45398.67083333333</v>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+      <c r="H186">
+        <v>311549</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>97479</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45398.35416666666</v>
+      </c>
+      <c r="F187" s="2">
+        <v>45398.41666666666</v>
+      </c>
+      <c r="G187" t="s">
+        <v>82</v>
+      </c>
+      <c r="H187">
+        <v>311548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>97479</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>74</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45398.41666666666</v>
+      </c>
+      <c r="F188" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="G188" t="s">
+        <v>82</v>
+      </c>
+      <c r="H188">
+        <v>311548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>97480</v>
+      </c>
+      <c r="C189" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" t="s">
+        <v>76</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="F189" s="2">
+        <v>45398.58611111111</v>
+      </c>
+      <c r="G189" t="s">
+        <v>82</v>
+      </c>
+      <c r="H189">
+        <v>311552</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>97480</v>
+      </c>
+      <c r="C190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" t="s">
+        <v>73</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45398.27083333334</v>
+      </c>
+      <c r="F190" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="G190" t="s">
+        <v>82</v>
+      </c>
+      <c r="H190">
+        <v>311551</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>97480</v>
+      </c>
+      <c r="C191" t="s">
+        <v>64</v>
+      </c>
+      <c r="D191" t="s">
+        <v>74</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="F191" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="G191" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191">
+        <v>311551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>97490</v>
+      </c>
+      <c r="C192" t="s">
+        <v>65</v>
+      </c>
+      <c r="D192" t="s">
+        <v>76</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45398.66666666666</v>
+      </c>
+      <c r="F192" s="2">
+        <v>45398.81944444445</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192">
+        <v>311600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>97490</v>
+      </c>
+      <c r="C193" t="s">
+        <v>65</v>
+      </c>
+      <c r="D193" t="s">
+        <v>73</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="F193" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193">
+        <v>311599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>97490</v>
+      </c>
+      <c r="C194" t="s">
+        <v>65</v>
+      </c>
+      <c r="D194" t="s">
+        <v>74</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F194" s="2">
+        <v>45398.66666666666</v>
+      </c>
+      <c r="G194" t="s">
+        <v>82</v>
+      </c>
+      <c r="H194">
+        <v>311599</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>97491</v>
+      </c>
+      <c r="C195" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" t="s">
+        <v>73</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45398.29166666666</v>
+      </c>
+      <c r="F195" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="G195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H195">
+        <v>311602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>97491</v>
+      </c>
+      <c r="C196" t="s">
+        <v>66</v>
+      </c>
+      <c r="D196" t="s">
+        <v>74</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="F196" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="G196" t="s">
+        <v>82</v>
+      </c>
+      <c r="H196">
+        <v>311602</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>97491</v>
+      </c>
+      <c r="C197" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" t="s">
+        <v>76</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45398.65277777778</v>
+      </c>
+      <c r="G197" t="s">
+        <v>82</v>
+      </c>
+      <c r="H197">
+        <v>311603</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>97492</v>
+      </c>
+      <c r="C198" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" t="s">
+        <v>76</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="F198" s="2">
+        <v>45398.65277777778</v>
+      </c>
+      <c r="G198" t="s">
+        <v>82</v>
+      </c>
+      <c r="H198">
+        <v>311606</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>97492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" t="s">
+        <v>73</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45398.29166666666</v>
+      </c>
+      <c r="F199" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="G199" t="s">
+        <v>82</v>
+      </c>
+      <c r="H199">
+        <v>311605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>97492</v>
+      </c>
+      <c r="C200" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" t="s">
+        <v>74</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45398.375</v>
+      </c>
+      <c r="F200" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200">
+        <v>311605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>97493</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>76</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45398.66666666666</v>
+      </c>
+      <c r="F201" s="2">
+        <v>45398.81944444445</v>
+      </c>
+      <c r="G201" t="s">
+        <v>82</v>
+      </c>
+      <c r="H201">
+        <v>311609</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>97493</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>73</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="F202" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="G202" t="s">
+        <v>82</v>
+      </c>
+      <c r="H202">
+        <v>311608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>97493</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>74</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F203" s="2">
+        <v>45398.66666666666</v>
+      </c>
+      <c r="G203" t="s">
+        <v>82</v>
+      </c>
+      <c r="H203">
+        <v>311608</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>97494</v>
+      </c>
+      <c r="C204" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204" t="s">
+        <v>77</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45398.85555555556</v>
+      </c>
+      <c r="F204" s="2">
+        <v>45398.91111111111</v>
+      </c>
+      <c r="G204" t="s">
+        <v>82</v>
+      </c>
+      <c r="H204">
+        <v>311652</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>97495</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>77</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45398.38611111111</v>
+      </c>
+      <c r="F205" s="2">
+        <v>45398.44166666667</v>
+      </c>
+      <c r="G205" t="s">
+        <v>82</v>
+      </c>
+      <c r="H205">
+        <v>311655</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>97496</v>
+      </c>
+      <c r="C206" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" t="s">
+        <v>77</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45398.38194444445</v>
+      </c>
+      <c r="F206" s="2">
+        <v>45398.4375</v>
+      </c>
+      <c r="G206" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206">
+        <v>311658</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>97497</v>
+      </c>
+      <c r="C207" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45398.86388888889</v>
+      </c>
+      <c r="F207" s="2">
+        <v>45398.91944444444</v>
+      </c>
+      <c r="G207" t="s">
+        <v>82</v>
+      </c>
+      <c r="H207">
+        <v>311661</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>97498</v>
+      </c>
+      <c r="C208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" t="s">
+        <v>77</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45398.81666666667</v>
+      </c>
+      <c r="F208" s="2">
+        <v>45398.87222222222</v>
+      </c>
+      <c r="G208" t="s">
+        <v>82</v>
+      </c>
+      <c r="H208">
+        <v>311664</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>97499</v>
+      </c>
+      <c r="C209" t="s">
+        <v>69</v>
+      </c>
+      <c r="D209" t="s">
+        <v>76</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45398.8625</v>
+      </c>
+      <c r="F209" s="2">
+        <v>45398.98402777778</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
+      </c>
+      <c r="H209">
+        <v>311669</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>97499</v>
+      </c>
+      <c r="C210" t="s">
+        <v>69</v>
+      </c>
+      <c r="D210" t="s">
+        <v>77</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45398.35138888889</v>
+      </c>
+      <c r="F210" s="2">
+        <v>45398.40694444445</v>
+      </c>
+      <c r="G210" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210">
+        <v>311667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>97499</v>
+      </c>
+      <c r="C211" t="s">
+        <v>69</v>
+      </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45398.6875</v>
+      </c>
+      <c r="F211" s="2">
+        <v>45398.77083333334</v>
+      </c>
+      <c r="G211" t="s">
+        <v>82</v>
+      </c>
+      <c r="H211">
+        <v>311668</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>97499</v>
+      </c>
+      <c r="C212" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212" t="s">
+        <v>74</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45398.77083333334</v>
+      </c>
+      <c r="F212" s="2">
+        <v>45398.8625</v>
+      </c>
+      <c r="G212" t="s">
+        <v>82</v>
+      </c>
+      <c r="H212">
+        <v>311668</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>97500</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>77</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45398.39722222222</v>
+      </c>
+      <c r="F213" s="2">
+        <v>45398.45277777778</v>
+      </c>
+      <c r="G213" t="s">
+        <v>82</v>
+      </c>
+      <c r="H213">
+        <v>311670</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>97501</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>77</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45398.40277777778</v>
+      </c>
+      <c r="F214" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="G214" t="s">
+        <v>82</v>
+      </c>
+      <c r="H214">
+        <v>311673</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>97502</v>
+      </c>
+      <c r="C215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" t="s">
+        <v>77</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45398.35833333333</v>
+      </c>
+      <c r="F215" s="2">
+        <v>45398.41388888889</v>
+      </c>
+      <c r="G215" t="s">
+        <v>82</v>
+      </c>
+      <c r="H215">
+        <v>311676</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>97503</v>
+      </c>
+      <c r="C216" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" t="s">
+        <v>77</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45398.35694444444</v>
+      </c>
+      <c r="F216" s="2">
+        <v>45398.4125</v>
+      </c>
+      <c r="G216" t="s">
+        <v>82</v>
+      </c>
+      <c r="H216">
+        <v>311679</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>97521</v>
+      </c>
+      <c r="C217" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" t="s">
+        <v>77</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45398.43055555555</v>
+      </c>
+      <c r="F217" s="2">
+        <v>45398.48611111111</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="H217">
+        <v>311762</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>97560</v>
+      </c>
+      <c r="C218" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="F218" s="2">
+        <v>45398.61111111111</v>
+      </c>
+      <c r="G218" t="s">
+        <v>81</v>
+      </c>
+      <c r="H218">
+        <v>311918</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>97561</v>
+      </c>
+      <c r="C219" t="s">
+        <v>71</v>
+      </c>
+      <c r="D219" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="F219" s="2">
+        <v>45398.44444444445</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219">
+        <v>311943</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>97562</v>
+      </c>
+      <c r="C220" t="s">
+        <v>72</v>
+      </c>
+      <c r="D220" t="s">
+        <v>73</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45398.64513888889</v>
+      </c>
+      <c r="F220" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="G220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220">
+        <v>311947</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>97562</v>
+      </c>
+      <c r="C221" t="s">
+        <v>72</v>
+      </c>
+      <c r="D221" t="s">
+        <v>74</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="F221" s="2">
+        <v>45398.875</v>
+      </c>
+      <c r="G221" t="s">
+        <v>82</v>
+      </c>
+      <c r="H221">
+        <v>311947</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>97562</v>
+      </c>
+      <c r="C222" t="s">
+        <v>72</v>
+      </c>
+      <c r="D222" t="s">
+        <v>77</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45398.40972222222</v>
+      </c>
+      <c r="F222" s="2">
+        <v>45398.46527777778</v>
+      </c>
+      <c r="G222" t="s">
+        <v>82</v>
+      </c>
+      <c r="H222">
+        <v>311946</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>97562</v>
+      </c>
+      <c r="C223" t="s">
+        <v>72</v>
+      </c>
+      <c r="D223" t="s">
+        <v>76</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45398.875</v>
+      </c>
+      <c r="F223" s="2">
+        <v>45399.03680555556</v>
+      </c>
+      <c r="G223" t="s">
+        <v>82</v>
+      </c>
+      <c r="H223">
+        <v>311948</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion2.xlsx
+++ b/static/tmp/planificacion2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -37,204 +37,240 @@
     <t>fk_etapa</t>
   </si>
   <si>
+    <t>('DIEGO NELCASEAU P', 'ASOCIADO', 1, 1, '19.403.588-8')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
+  </si>
+  <si>
+    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+  </si>
+  <si>
+    <t>('LUIS OLIVA M', 'ASOCIADO', 1, 1, '19.383.425-6')</t>
+  </si>
+  <si>
+    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
+  </si>
+  <si>
+    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
+  </si>
+  <si>
+    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
+  </si>
+  <si>
+    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
+  </si>
+  <si>
     <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
   </si>
   <si>
+    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
+  </si>
+  <si>
+    <t>('ROBERTO DIAZ G', 'TERCERO', 2, 0, '14.274.629-8')</t>
+  </si>
+  <si>
+    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
+  </si>
+  <si>
+    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
+  </si>
+  <si>
+    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
+  </si>
+  <si>
+    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
+  </si>
+  <si>
+    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
+  </si>
+  <si>
+    <t>('DERWINS CORTEZ G', 'ASOCIADO', 1, 1, '26.536.138-2')</t>
+  </si>
+  <si>
+    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
+  </si>
+  <si>
+    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
+  </si>
+  <si>
+    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+  </si>
+  <si>
+    <t>('MARCOS ORELLANA ', 'TERCERO', 2, 0, '10.087.863-1')</t>
+  </si>
+  <si>
+    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
+  </si>
+  <si>
+    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
+  </si>
+  <si>
+    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
+  </si>
+  <si>
+    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
+  </si>
+  <si>
+    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
+  </si>
+  <si>
+    <t>('JUAN REYES C', 'ASOCIADO', 1, 1, '17.078.880-K')</t>
+  </si>
+  <si>
     <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
   </si>
   <si>
+    <t>('DIEGO DIAZ M', 'TERCERO', 2, 0, '19.142.870-6')</t>
+  </si>
+  <si>
+    <t>('GUILLERMO GARAY', 'TERCERO', 2, 0, '15.648.946-8')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
+  </si>
+  <si>
+    <t>('RONNY CORONADO T', 'PROPIO', 0, 1, '12.250.331-3')</t>
+  </si>
+  <si>
+    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
+  </si>
+  <si>
+    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
+  </si>
+  <si>
+    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
+  </si>
+  <si>
+    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
+  </si>
+  <si>
+    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
+    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
+  </si>
+  <si>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
+  </si>
+  <si>
+    <t>('DANILO ARMIJO C', 'PROPIO', 0, 1, '14.274.986-6')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('ALAN SANTIS', 'ASOCIADO', 1, 1, '15.089.677-0')</t>
+  </si>
+  <si>
+    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
+  </si>
+  <si>
+    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
+  </si>
+  <si>
+    <t>('ANGEL RIQUELME L', 'TERCERO', 2, 0, '13.041.363-3')</t>
+  </si>
+  <si>
+    <t>('LUIS REYES P', 'ASOCIADO', 1, 1, '8.298.532-8')</t>
+  </si>
+  <si>
+    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+  </si>
+  <si>
     <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
   </si>
   <si>
-    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
-  </si>
-  <si>
-    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
+  </si>
+  <si>
+    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
+  </si>
+  <si>
+    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
   </si>
   <si>
     <t>('CLAUDIO NAVARRO', 'ASOCIADO', 1, 1, '15.375.565-5')</t>
   </si>
   <si>
-    <t>('DIEGO NELCASEAU P', 'ASOCIADO', 1, 1, '19.403.588-8')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
-  </si>
-  <si>
-    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
-  </si>
-  <si>
-    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
-  </si>
-  <si>
-    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
-  </si>
-  <si>
-    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
-  </si>
-  <si>
-    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
-  </si>
-  <si>
-    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
+  </si>
+  <si>
+    <t>('LUIS PAILLALEF P', 'PORTEADOR', 0, 1, '10.048.208-8')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('YOSMAR PEREZ P', 'PORTEADOR', 0, 1, '11.257.434-4')</t>
+  </si>
+  <si>
+    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
   </si>
   <si>
     <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
   </si>
   <si>
-    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
-  </si>
-  <si>
-    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
-  </si>
-  <si>
-    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
-  </si>
-  <si>
-    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
-  </si>
-  <si>
-    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
-  </si>
-  <si>
-    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
-  </si>
-  <si>
-    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
-  </si>
-  <si>
-    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
-  </si>
-  <si>
-    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
-  </si>
-  <si>
-    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
-  </si>
-  <si>
-    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
-  </si>
-  <si>
-    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
-  </si>
-  <si>
-    <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
-  </si>
-  <si>
-    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
-  </si>
-  <si>
-    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
-  </si>
-  <si>
-    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
-  </si>
-  <si>
-    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
-  </si>
-  <si>
-    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
-  </si>
-  <si>
-    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
-  </si>
-  <si>
-    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
-  </si>
-  <si>
-    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
-  </si>
-  <si>
-    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
-  </si>
-  <si>
-    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
-  </si>
-  <si>
-    <t>('LUIS OLIVA M', 'ASOCIADO', 1, 1, '19.383.425-6')</t>
-  </si>
-  <si>
-    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
-  </si>
-  <si>
-    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
-  </si>
-  <si>
-    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
-  </si>
-  <si>
-    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
-  </si>
-  <si>
-    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
-  </si>
-  <si>
     <t>('JOSE CABELLO S', 'ASOCIADO', 1, 1, '17.816.963-7')</t>
   </si>
   <si>
-    <t>('ALAN SANTIS', 'ASOCIADO', 1, 1, '15.089.677-0')</t>
-  </si>
-  <si>
-    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
-  </si>
-  <si>
-    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
-  </si>
-  <si>
-    <t>('LUIS VERA M', 'ASOCIADO', 1, 1, '17.991.239-2')</t>
-  </si>
-  <si>
-    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
-  </si>
-  <si>
-    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
-  </si>
-  <si>
-    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
-  </si>
-  <si>
-    <t>('JUAN REYES C', 'ASOCIADO', 1, 1, '17.078.880-K')</t>
-  </si>
-  <si>
-    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
-  </si>
-  <si>
-    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
-  </si>
-  <si>
-    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
-  </si>
-  <si>
-    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
-  </si>
-  <si>
-    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
-  </si>
-  <si>
-    <t>('RONNY CORONADO T', 'PROPIO', 0, 1, '12.250.331-3')</t>
+    <t>trayecto</t>
+  </si>
+  <si>
+    <t>presentacion</t>
+  </si>
+  <si>
+    <t>devolucion_vacio_sai</t>
   </si>
   <si>
     <t>retiro_full_sai</t>
   </si>
   <si>
-    <t>devolucion_vacio_sai</t>
-  </si>
-  <si>
-    <t>trayecto</t>
-  </si>
-  <si>
-    <t>presentacion</t>
-  </si>
-  <si>
     <t>devolucion_vacio_stgo</t>
   </si>
   <si>
@@ -247,13 +283,10 @@
     <t>40</t>
   </si>
   <si>
+    <t>20 pesado</t>
+  </si>
+  <si>
     <t>20 liviano</t>
-  </si>
-  <si>
-    <t>20 pesado</t>
-  </si>
-  <si>
-    <t>lcl?</t>
   </si>
 </sst>
 </file>
@@ -615,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70736</v>
+        <v>90528</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
-        <v>45446.5625</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="F2" s="2">
-        <v>45446.61805555555</v>
+        <v>45448.5</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>203619</v>
+        <v>282970</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,22 +711,22 @@
         <v>90528</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
-        <v>45446.5625</v>
+        <v>45448.5</v>
       </c>
       <c r="F3" s="2">
-        <v>45446.61805555555</v>
+        <v>45448.625</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H3">
-        <v>282969</v>
+        <v>282970</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -701,25 +734,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98612</v>
+        <v>90528</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
-        <v>45446.69205555556</v>
+        <v>45448.625</v>
       </c>
       <c r="F4" s="2">
-        <v>45446.80872222222</v>
+        <v>45448.77777777778</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H4">
-        <v>316120</v>
+        <v>282971</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -727,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98612</v>
+        <v>97713</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
-        <v>45446.55069444444</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="F5" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.5</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H5">
-        <v>316119</v>
+        <v>312562</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -753,25 +786,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98612</v>
+        <v>97713</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.5</v>
       </c>
       <c r="F6" s="2">
-        <v>45446.69205555556</v>
+        <v>45448.58905555555</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H6">
-        <v>316119</v>
+        <v>312562</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -779,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99136</v>
+        <v>97713</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
-        <v>45446.34236111111</v>
+        <v>45448.58905555555</v>
       </c>
       <c r="F7" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.74183333333</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>318285</v>
+        <v>312563</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -805,25 +838,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99136</v>
+        <v>99087</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="F8" s="2">
-        <v>45446.48372222222</v>
+        <v>45448.375</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H8">
-        <v>318285</v>
+        <v>318080</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -831,25 +864,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99136</v>
+        <v>99087</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
-        <v>45446.48372222222</v>
+        <v>45448.375</v>
       </c>
       <c r="F9" s="2">
-        <v>45446.60038888889</v>
+        <v>45448.46405555555</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H9">
-        <v>318286</v>
+        <v>318080</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -857,25 +890,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99137</v>
+        <v>99087</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2">
-        <v>45446.40486111111</v>
+        <v>45448.46405555555</v>
       </c>
       <c r="F10" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.61683333333</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H10">
-        <v>318288</v>
+        <v>318081</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -883,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99137</v>
+        <v>99088</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.50572222222</v>
       </c>
       <c r="F11" s="2">
-        <v>45446.54622222222</v>
+        <v>45448.6585</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H11">
-        <v>318288</v>
+        <v>318084</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -909,25 +942,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99137</v>
+        <v>99088</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2">
-        <v>45446.54622222222</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="F12" s="2">
-        <v>45446.66288888889</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>318289</v>
+        <v>318083</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -935,25 +968,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99374</v>
+        <v>99088</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="F13" s="2">
-        <v>45446.57222222222</v>
+        <v>45448.50572222222</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>319056</v>
+        <v>318083</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -961,25 +994,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99374</v>
+        <v>99089</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
-        <v>45446.25</v>
+        <v>45448.54738888889</v>
       </c>
       <c r="F14" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.70016666667</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>319055</v>
+        <v>318087</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -987,25 +1020,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99374</v>
+        <v>99089</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.375</v>
       </c>
       <c r="F15" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H15">
-        <v>319055</v>
+        <v>318086</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1013,25 +1046,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99379</v>
+        <v>99089</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2">
-        <v>45446.375</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="F16" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.54738888889</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H16">
-        <v>319070</v>
+        <v>318086</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1039,25 +1072,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99379</v>
+        <v>99141</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.31111111111</v>
       </c>
       <c r="F17" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H17">
-        <v>319070</v>
+        <v>318303</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1065,25 +1098,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99379</v>
+        <v>99141</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="F18" s="2">
-        <v>45446.69722222222</v>
+        <v>45448.45247222222</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H18">
-        <v>319071</v>
+        <v>318303</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1091,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99417</v>
+        <v>99141</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.45247222222</v>
       </c>
       <c r="F19" s="2">
-        <v>45446.36458333334</v>
+        <v>45448.56913888889</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H19">
-        <v>319257</v>
+        <v>318304</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1117,25 +1150,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>99417</v>
+        <v>99143</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2">
-        <v>45446.36458333334</v>
+        <v>45448.34236111111</v>
       </c>
       <c r="F20" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H20">
-        <v>319257</v>
+        <v>318309</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1143,25 +1176,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99417</v>
+        <v>99143</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="F21" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.48372222222</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H21">
-        <v>319258</v>
+        <v>318309</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1169,25 +1202,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99422</v>
+        <v>99143</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
-        <v>45446.61458333334</v>
+        <v>45448.48372222222</v>
       </c>
       <c r="F22" s="2">
-        <v>45446.74375</v>
+        <v>45448.60038888889</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H22">
-        <v>319274</v>
+        <v>318310</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1195,25 +1228,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99422</v>
+        <v>99698</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2">
-        <v>45446.43819444445</v>
+        <v>45448.59830555556</v>
       </c>
       <c r="F23" s="2">
-        <v>45446.5</v>
+        <v>45448.71497222222</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H23">
-        <v>319273</v>
+        <v>320236</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1221,25 +1254,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99422</v>
+        <v>99698</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2">
-        <v>45446.5</v>
+        <v>45448.45694444444</v>
       </c>
       <c r="F24" s="2">
-        <v>45446.61458333334</v>
+        <v>45448.51041666666</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H24">
-        <v>319273</v>
+        <v>320235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1247,25 +1280,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99473</v>
+        <v>99698</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.51041666666</v>
       </c>
       <c r="F25" s="2">
-        <v>45446.375</v>
+        <v>45448.59830555556</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H25">
-        <v>319429</v>
+        <v>320235</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1273,25 +1306,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99473</v>
+        <v>99700</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2">
-        <v>45446.375</v>
+        <v>45448.61319444444</v>
       </c>
       <c r="F26" s="2">
-        <v>45446.43472222222</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>319429</v>
+        <v>320241</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1299,25 +1332,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99473</v>
+        <v>99700</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2">
-        <v>45446.43472222222</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="F27" s="2">
-        <v>45446.55555555555</v>
+        <v>45448.75455555556</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H27">
-        <v>319430</v>
+        <v>320241</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1325,25 +1358,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99508</v>
+        <v>99700</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2">
-        <v>45446.68541666667</v>
+        <v>45448.75455555556</v>
       </c>
       <c r="F28" s="2">
-        <v>45446.75</v>
+        <v>45448.87122222222</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H28">
-        <v>319550</v>
+        <v>320242</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1351,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99508</v>
+        <v>99702</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2">
-        <v>45446.75</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="F29" s="2">
-        <v>45446.875</v>
+        <v>45448.63541666666</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H29">
-        <v>319550</v>
+        <v>320247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1377,25 +1410,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99508</v>
+        <v>99702</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2">
-        <v>45446.875</v>
+        <v>45448.63541666666</v>
       </c>
       <c r="F30" s="2">
-        <v>45447.02777777778</v>
+        <v>45448.72330555556</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H30">
-        <v>319551</v>
+        <v>320247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1403,25 +1436,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99548</v>
+        <v>99702</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.72330555556</v>
       </c>
       <c r="F31" s="2">
-        <v>45446.82777777778</v>
+        <v>45448.83997222222</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H31">
-        <v>319671</v>
+        <v>320248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1429,25 +1462,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99548</v>
+        <v>99706</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2">
-        <v>45446.5</v>
+        <v>45448.56705555556</v>
       </c>
       <c r="F32" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.68372222222</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H32">
-        <v>319670</v>
+        <v>320260</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1455,25 +1488,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99548</v>
+        <v>99706</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.42569444444</v>
       </c>
       <c r="F33" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H33">
-        <v>319670</v>
+        <v>320259</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1481,25 +1514,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99659</v>
+        <v>99706</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2">
-        <v>45446.40208333333</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="F34" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.56705555556</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H34">
-        <v>320079</v>
+        <v>320259</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1507,25 +1540,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99659</v>
+        <v>99711</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.55069444444</v>
       </c>
       <c r="F35" s="2">
-        <v>45446.56630555556</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H35">
-        <v>320079</v>
+        <v>320274</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1533,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99660</v>
+        <v>99711</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2">
-        <v>45446.31875</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="F36" s="2">
-        <v>45446.375</v>
+        <v>45448.69205555556</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H36">
-        <v>320082</v>
+        <v>320274</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1559,25 +1592,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99660</v>
+        <v>99711</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2">
-        <v>45446.375</v>
+        <v>45448.69205555556</v>
       </c>
       <c r="F37" s="2">
-        <v>45446.48297222222</v>
+        <v>45448.80872222222</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>320082</v>
+        <v>320275</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1585,25 +1618,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99663</v>
+        <v>99713</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2">
-        <v>45446.27708333333</v>
+        <v>45448.42122222222</v>
       </c>
       <c r="F38" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.53788888889</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>320091</v>
+        <v>320281</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1611,25 +1644,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99663</v>
+        <v>99713</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.27986111111</v>
       </c>
       <c r="F39" s="2">
-        <v>45446.44130555556</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H39">
-        <v>320091</v>
+        <v>320280</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1637,25 +1670,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99663</v>
+        <v>99713</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2">
-        <v>45446.44130555556</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="F40" s="2">
-        <v>45446.55936111111</v>
+        <v>45448.42122222222</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H40">
-        <v>320092</v>
+        <v>320280</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1663,25 +1696,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99694</v>
+        <v>99751</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2">
-        <v>45446.42122222222</v>
+        <v>45448.5</v>
       </c>
       <c r="F41" s="2">
-        <v>45446.53788888889</v>
+        <v>45448.58333333334</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H41">
-        <v>320224</v>
+        <v>320454</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1689,25 +1722,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>99694</v>
+        <v>99751</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2">
-        <v>45446.27986111111</v>
+        <v>45448.58333333334</v>
       </c>
       <c r="F42" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H42">
-        <v>320223</v>
+        <v>320454</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1715,25 +1748,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99694</v>
+        <v>99751</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F43" s="2">
-        <v>45446.42122222222</v>
+        <v>45448.86111111111</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H43">
-        <v>320223</v>
+        <v>320455</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1741,25 +1774,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>99703</v>
+        <v>99756</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2">
-        <v>45446.72330555556</v>
+        <v>45448.52708333333</v>
       </c>
       <c r="F44" s="2">
-        <v>45446.83997222222</v>
+        <v>45448.58263888889</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H44">
-        <v>320251</v>
+        <v>320479</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1767,25 +1800,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>99703</v>
+        <v>99803</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2">
-        <v>45446.58194444444</v>
+        <v>45448.43333333333</v>
       </c>
       <c r="F45" s="2">
-        <v>45446.63541666666</v>
+        <v>45448.55138888889</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H45">
-        <v>320250</v>
+        <v>320739</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1793,25 +1826,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>99703</v>
+        <v>99803</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2">
-        <v>45446.63541666666</v>
+        <v>45448.32013888889</v>
       </c>
       <c r="F46" s="2">
-        <v>45446.72330555556</v>
+        <v>45448.375</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H46">
-        <v>320250</v>
+        <v>320738</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1819,25 +1852,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>99707</v>
+        <v>99803</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2">
-        <v>45446.61319444444</v>
+        <v>45448.375</v>
       </c>
       <c r="F47" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.43333333333</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H47">
-        <v>320262</v>
+        <v>320738</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1845,25 +1878,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>99707</v>
+        <v>99824</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.32152777778</v>
       </c>
       <c r="F48" s="2">
-        <v>45446.75455555556</v>
+        <v>45448.375</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H48">
-        <v>320262</v>
+        <v>320905</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1871,25 +1904,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>99707</v>
+        <v>99824</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2">
-        <v>45446.75455555556</v>
+        <v>45448.375</v>
       </c>
       <c r="F49" s="2">
-        <v>45446.87122222222</v>
+        <v>45448.45544444444</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H49">
-        <v>320263</v>
+        <v>320905</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1897,25 +1930,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>99708</v>
+        <v>99824</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2">
-        <v>45446.59830555556</v>
+        <v>45448.45544444444</v>
       </c>
       <c r="F50" s="2">
-        <v>45446.71497222222</v>
+        <v>45448.57488888889</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H50">
-        <v>320266</v>
+        <v>320906</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1923,25 +1956,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>99708</v>
+        <v>99854</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2">
-        <v>45446.45694444444</v>
+        <v>45448.85347222222</v>
       </c>
       <c r="F51" s="2">
-        <v>45446.51041666666</v>
+        <v>45448.975</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H51">
-        <v>320265</v>
+        <v>320996</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1949,25 +1982,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>99708</v>
+        <v>99854</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2">
-        <v>45446.51041666666</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F52" s="2">
-        <v>45446.59830555556</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H52">
-        <v>320265</v>
+        <v>320995</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1975,25 +2008,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>99741</v>
+        <v>99854</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2">
-        <v>45446.40927777778</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F53" s="2">
-        <v>45446.53497222222</v>
+        <v>45448.85347222222</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H53">
-        <v>320425</v>
+        <v>320995</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2001,25 +2034,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>99741</v>
+        <v>99907</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2">
-        <v>45446.26736111111</v>
+        <v>45448.6875</v>
       </c>
       <c r="F54" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="G54" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H54">
-        <v>320424</v>
+        <v>321184</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2027,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>99741</v>
+        <v>99907</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="F55" s="2">
-        <v>45446.40927777778</v>
+        <v>45448.866875</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H55">
-        <v>320424</v>
+        <v>321184</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2053,25 +2086,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>99742</v>
+        <v>99907</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2">
-        <v>45446.70094444444</v>
+        <v>45448.866875</v>
       </c>
       <c r="F56" s="2">
-        <v>45446.82663888889</v>
+        <v>45448.98631944445</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H56">
-        <v>320428</v>
+        <v>321185</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2079,25 +2112,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>99742</v>
+        <v>99944</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2">
-        <v>45446.55902777778</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F57" s="2">
-        <v>45446.625</v>
+        <v>45448.91180555556</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H57">
-        <v>320427</v>
+        <v>321297</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2105,25 +2138,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>99742</v>
+        <v>99944</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2">
-        <v>45446.625</v>
+        <v>45448.61736111111</v>
       </c>
       <c r="F58" s="2">
-        <v>45446.70094444444</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H58">
-        <v>320427</v>
+        <v>321296</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2131,25 +2164,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>99743</v>
+        <v>99944</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2">
-        <v>45446.47177777778</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="F59" s="2">
-        <v>45446.59747222222</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H59">
-        <v>320431</v>
+        <v>321296</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2157,25 +2190,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>99743</v>
+        <v>99945</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.75</v>
       </c>
       <c r="F60" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.87777777778</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H60">
-        <v>320430</v>
+        <v>321300</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2183,25 +2216,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>99743</v>
+        <v>99945</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="F61" s="2">
-        <v>45446.47177777778</v>
+        <v>45448.625</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H61">
-        <v>320430</v>
+        <v>321299</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2209,25 +2242,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>99747</v>
+        <v>99945</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2">
-        <v>45446.53427777778</v>
+        <v>45448.625</v>
       </c>
       <c r="F62" s="2">
-        <v>45446.65997222222</v>
+        <v>45448.75</v>
       </c>
       <c r="G62" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H62">
-        <v>320443</v>
+        <v>321299</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2235,25 +2268,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>99747</v>
+        <v>99965</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2">
-        <v>45446.39236111111</v>
+        <v>45448.425</v>
       </c>
       <c r="F63" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H63">
-        <v>320442</v>
+        <v>321368</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2261,25 +2294,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>99747</v>
+        <v>99965</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.31041666667</v>
       </c>
       <c r="F64" s="2">
-        <v>45446.53427777778</v>
+        <v>45448.375</v>
       </c>
       <c r="G64" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H64">
-        <v>320442</v>
+        <v>321367</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2287,25 +2320,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>99749</v>
+        <v>99965</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2">
-        <v>45446.63844444444</v>
+        <v>45448.375</v>
       </c>
       <c r="F65" s="2">
-        <v>45446.76413888889</v>
+        <v>45448.425</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H65">
-        <v>320449</v>
+        <v>321367</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2313,25 +2346,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>99749</v>
+        <v>99968</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2">
-        <v>45446.49652777778</v>
+        <v>45448.59166666667</v>
       </c>
       <c r="F66" s="2">
-        <v>45446.5625</v>
+        <v>45448.71388888889</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H66">
-        <v>320448</v>
+        <v>321377</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2339,25 +2372,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>99749</v>
+        <v>99968</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2">
-        <v>45446.5625</v>
+        <v>45448.47708333333</v>
       </c>
       <c r="F67" s="2">
-        <v>45446.63844444444</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H67">
-        <v>320448</v>
+        <v>321376</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2365,25 +2398,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>99780</v>
+        <v>99968</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2">
-        <v>45446.29930555556</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="F68" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.59166666667</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H68">
-        <v>320588</v>
+        <v>321376</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2391,25 +2424,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>99780</v>
+        <v>99973</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.83333333334</v>
       </c>
       <c r="F69" s="2">
-        <v>45446.4125</v>
+        <v>45448.9625</v>
       </c>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H69">
-        <v>320588</v>
+        <v>321392</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2417,25 +2450,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>99816</v>
+        <v>99973</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2">
-        <v>45446.57638888889</v>
+        <v>45448.625</v>
       </c>
       <c r="F70" s="2">
-        <v>45446.74722222222</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H70">
-        <v>320831</v>
+        <v>321391</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2443,25 +2476,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>99816</v>
+        <v>99973</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2">
-        <v>45446.41319444445</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F71" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.83333333334</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H71">
-        <v>320830</v>
+        <v>321391</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2469,25 +2502,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>99816</v>
+        <v>99997</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.84920833333</v>
       </c>
       <c r="F72" s="2">
-        <v>45446.57638888889</v>
+        <v>45448.96865277778</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H72">
-        <v>320830</v>
+        <v>321464</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2495,25 +2528,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>99817</v>
+        <v>99997</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2">
-        <v>45446.41319444445</v>
+        <v>45448.69722222222</v>
       </c>
       <c r="F73" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H73">
-        <v>320833</v>
+        <v>321463</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2521,25 +2554,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>99817</v>
+        <v>99997</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="F74" s="2">
-        <v>45446.57638888889</v>
+        <v>45448.84920833333</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H74">
-        <v>320833</v>
+        <v>321463</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2547,25 +2580,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>99817</v>
+        <v>100006</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2">
-        <v>45446.57638888889</v>
+        <v>45448.63888888889</v>
       </c>
       <c r="F75" s="2">
-        <v>45446.74722222222</v>
+        <v>45448.80972222222</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H75">
-        <v>320834</v>
+        <v>321501</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2573,25 +2606,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>99841</v>
+        <v>100006</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2">
-        <v>45446.32152777778</v>
+        <v>45448.47569444445</v>
       </c>
       <c r="F76" s="2">
-        <v>45446.375</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="G76" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H76">
-        <v>320956</v>
+        <v>321500</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2599,25 +2632,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>99841</v>
+        <v>100006</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2">
-        <v>45446.375</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="F77" s="2">
-        <v>45446.45544444444</v>
+        <v>45448.63888888889</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H77">
-        <v>320956</v>
+        <v>321500</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2625,25 +2658,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>99841</v>
+        <v>100019</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2">
-        <v>45446.45544444444</v>
+        <v>45448.73341666667</v>
       </c>
       <c r="F78" s="2">
-        <v>45446.57488888889</v>
+        <v>45448.90008333333</v>
       </c>
       <c r="G78" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H78">
-        <v>320957</v>
+        <v>321623</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2651,25 +2684,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>99912</v>
+        <v>100019</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2">
-        <v>45446.34027777778</v>
+        <v>45448.5625</v>
       </c>
       <c r="F79" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H79">
-        <v>321199</v>
+        <v>321622</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2677,25 +2710,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>99912</v>
+        <v>100019</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="F80" s="2">
-        <v>45446.48670833333</v>
+        <v>45448.73341666667</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H80">
-        <v>321199</v>
+        <v>321622</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2703,25 +2736,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>99912</v>
+        <v>100035</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2">
-        <v>45446.48670833333</v>
+        <v>45448.875</v>
       </c>
       <c r="F81" s="2">
-        <v>45446.61170833333</v>
+        <v>45449.08333333334</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H81">
-        <v>321200</v>
+        <v>321671</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2729,25 +2762,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>99913</v>
+        <v>100035</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="F82" s="2">
-        <v>45446.50694444445</v>
+        <v>45448.75</v>
       </c>
       <c r="G82" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H82">
-        <v>321201</v>
+        <v>321670</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2755,25 +2788,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>99920</v>
+        <v>100035</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2">
-        <v>45446.54166666666</v>
+        <v>45448.75</v>
       </c>
       <c r="F83" s="2">
-        <v>45446.625</v>
+        <v>45448.875</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H83">
-        <v>321223</v>
+        <v>321670</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2781,25 +2814,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>99920</v>
+        <v>100043</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2">
-        <v>45446.625</v>
+        <v>45448.81566666667</v>
       </c>
       <c r="F84" s="2">
-        <v>45446.75</v>
+        <v>45448.98858333333</v>
       </c>
       <c r="G84" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H84">
-        <v>321223</v>
+        <v>321695</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2807,25 +2840,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>99920</v>
+        <v>100043</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2">
-        <v>45446.75</v>
+        <v>45448.675</v>
       </c>
       <c r="F85" s="2">
-        <v>45446.87847222222</v>
+        <v>45448.75</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H85">
-        <v>321224</v>
+        <v>321694</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2833,25 +2866,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>99938</v>
+        <v>100043</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2">
-        <v>45446.31319444445</v>
+        <v>45448.75</v>
       </c>
       <c r="F86" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.81566666667</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H86">
-        <v>321278</v>
+        <v>321694</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2859,25 +2892,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>99938</v>
+        <v>100058</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="F87" s="2">
-        <v>45446.44861111111</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H87">
-        <v>321278</v>
+        <v>321739</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2885,25 +2918,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>99938</v>
+        <v>100058</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2">
-        <v>45446.44861111111</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F88" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H88">
-        <v>321279</v>
+        <v>321739</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2911,25 +2944,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>99941</v>
+        <v>100058</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E89" s="2">
-        <v>45446.57222222222</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="F89" s="2">
-        <v>45446.625</v>
+        <v>45448.6875</v>
       </c>
       <c r="G89" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H89">
-        <v>321287</v>
+        <v>321740</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2937,25 +2970,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>99941</v>
+        <v>100069</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E90" s="2">
-        <v>45446.625</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F90" s="2">
-        <v>45446.75833333333</v>
+        <v>45448.4375</v>
       </c>
       <c r="G90" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H90">
-        <v>321287</v>
+        <v>321772</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2963,25 +2996,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>99941</v>
+        <v>100069</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2">
-        <v>45446.75833333333</v>
+        <v>45448.4375</v>
       </c>
       <c r="F91" s="2">
-        <v>45446.87569444445</v>
+        <v>45448.57430555556</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H91">
-        <v>321288</v>
+        <v>321772</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2989,25 +3022,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>99948</v>
+        <v>100069</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E92" s="2">
-        <v>45446.31944444445</v>
+        <v>45448.57430555556</v>
       </c>
       <c r="F92" s="2">
-        <v>45446.375</v>
+        <v>45448.75138888889</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H92">
-        <v>321308</v>
+        <v>321773</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3015,25 +3048,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>99948</v>
+        <v>100070</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E93" s="2">
-        <v>45446.375</v>
+        <v>45448.345875</v>
       </c>
       <c r="F93" s="2">
-        <v>45446.465875</v>
+        <v>45448.520875</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H93">
-        <v>321308</v>
+        <v>321776</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3041,25 +3074,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>99948</v>
+        <v>100070</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E94" s="2">
-        <v>45446.465875</v>
+        <v>45448.1875</v>
       </c>
       <c r="F94" s="2">
-        <v>45446.58948611111</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="G94" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H94">
-        <v>321309</v>
+        <v>321775</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3067,25 +3100,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>99971</v>
+        <v>100070</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2">
-        <v>45446.71666666667</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="F95" s="2">
-        <v>45446.83680555555</v>
+        <v>45448.345875</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H95">
-        <v>321386</v>
+        <v>321775</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3093,25 +3126,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>99971</v>
+        <v>100074</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E96" s="2">
-        <v>45446.5</v>
+        <v>45448.89580555556</v>
       </c>
       <c r="F96" s="2">
-        <v>45446.58333333334</v>
+        <v>45449.06386111111</v>
       </c>
       <c r="G96" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H96">
-        <v>321385</v>
+        <v>321788</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3119,25 +3152,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>99971</v>
+        <v>100074</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.6875</v>
       </c>
       <c r="F97" s="2">
-        <v>45446.71666666667</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H97">
-        <v>321385</v>
+        <v>321787</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3145,25 +3178,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>99985</v>
+        <v>100074</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2">
-        <v>45446.7625</v>
+        <v>45448.77083333334</v>
       </c>
       <c r="F98" s="2">
-        <v>45446.88263888889</v>
+        <v>45448.89580555556</v>
       </c>
       <c r="G98" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H98">
-        <v>321428</v>
+        <v>321787</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3171,25 +3204,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>99985</v>
+        <v>100077</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E99" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.43427777778</v>
       </c>
       <c r="F99" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.60094444444</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H99">
-        <v>321427</v>
+        <v>321797</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3197,25 +3230,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>99985</v>
+        <v>100077</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.25</v>
       </c>
       <c r="F100" s="2">
-        <v>45446.7625</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H100">
-        <v>321427</v>
+        <v>321796</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3223,25 +3256,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>99987</v>
+        <v>100077</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="F101" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.43427777778</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H101">
-        <v>321434</v>
+        <v>321796</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3249,25 +3282,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>99987</v>
+        <v>100092</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.81566666667</v>
       </c>
       <c r="F102" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.93997222222</v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H102">
-        <v>321433</v>
+        <v>321842</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3275,25 +3308,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>99987</v>
+        <v>100092</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E103" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.69166666667</v>
       </c>
       <c r="F103" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.75</v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H103">
-        <v>321433</v>
+        <v>321841</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3301,25 +3334,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>100007</v>
+        <v>100092</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2">
-        <v>45446.65972222222</v>
+        <v>45448.75</v>
       </c>
       <c r="F104" s="2">
-        <v>45446.83055555556</v>
+        <v>45448.81566666667</v>
       </c>
       <c r="G104" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H104">
-        <v>321505</v>
+        <v>321841</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3327,25 +3360,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100007</v>
+        <v>100134</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E105" s="2">
-        <v>45446.49652777778</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="F105" s="2">
-        <v>45446.5625</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="G105" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H105">
-        <v>321504</v>
+        <v>322101</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3353,25 +3386,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>100007</v>
+        <v>100134</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E106" s="2">
-        <v>45446.5625</v>
+        <v>45448.30277777778</v>
       </c>
       <c r="F106" s="2">
-        <v>45446.65972222222</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="G106" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H106">
-        <v>321504</v>
+        <v>322100</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3379,25 +3412,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>100007</v>
+        <v>100134</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2">
-        <v>45446.75416666667</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="F107" s="2">
-        <v>45446.80972222222</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G107" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H107">
-        <v>321503</v>
+        <v>322100</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3405,25 +3438,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100008</v>
+        <v>100142</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E108" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="F108" s="2">
-        <v>45446.62222222222</v>
+        <v>45448.5</v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H108">
-        <v>321508</v>
+        <v>322134</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3431,25 +3464,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100008</v>
+        <v>100142</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2">
-        <v>45446.28819444445</v>
+        <v>45448.5</v>
       </c>
       <c r="F109" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.60797222222</v>
       </c>
       <c r="G109" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H109">
-        <v>321507</v>
+        <v>322134</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3457,25 +3490,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>100008</v>
+        <v>100142</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E110" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.60797222222</v>
       </c>
       <c r="F110" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.72880555555</v>
       </c>
       <c r="G110" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H110">
-        <v>321507</v>
+        <v>322135</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3483,25 +3516,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>100012</v>
+        <v>100261</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2">
-        <v>45446.28819444445</v>
+        <v>45448.49305555555</v>
       </c>
       <c r="F111" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.62361111111</v>
       </c>
       <c r="G111" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H111">
-        <v>321519</v>
+        <v>322508</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3509,25 +3542,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>100012</v>
+        <v>100261</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E112" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.33263888889</v>
       </c>
       <c r="F112" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="G112" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H112">
-        <v>321519</v>
+        <v>322507</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3535,25 +3568,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>100012</v>
+        <v>100261</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="F113" s="2">
-        <v>45446.62222222222</v>
+        <v>45448.49305555555</v>
       </c>
       <c r="G113" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H113">
-        <v>321520</v>
+        <v>322507</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3561,25 +3594,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>100033</v>
+        <v>100262</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E114" s="2">
-        <v>45446.6875</v>
+        <v>45448.41597222222</v>
       </c>
       <c r="F114" s="2">
-        <v>45446.77083333334</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G114" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H114">
-        <v>321664</v>
+        <v>322510</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3587,25 +3620,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>100033</v>
+        <v>100262</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E115" s="2">
-        <v>45446.77083333334</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="F115" s="2">
-        <v>45446.86105555556</v>
+        <v>45448.57638888889</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H115">
-        <v>321664</v>
+        <v>322510</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3613,25 +3646,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>100033</v>
+        <v>100262</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E116" s="2">
-        <v>45446.86105555556</v>
+        <v>45448.57638888889</v>
       </c>
       <c r="F116" s="2">
-        <v>45447.03952777778</v>
+        <v>45448.70694444444</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H116">
-        <v>321665</v>
+        <v>322511</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3639,25 +3672,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>100038</v>
+        <v>100263</v>
       </c>
       <c r="C117" t="s">
         <v>44</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E117" s="2">
-        <v>45446.43091666666</v>
+        <v>45448.37430555555</v>
       </c>
       <c r="F117" s="2">
-        <v>45446.60452777778</v>
+        <v>45448.4375</v>
       </c>
       <c r="G117" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H117">
-        <v>321680</v>
+        <v>322513</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3665,25 +3698,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>100038</v>
+        <v>100263</v>
       </c>
       <c r="C118" t="s">
         <v>44</v>
       </c>
       <c r="D118" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.4375</v>
       </c>
       <c r="F118" s="2">
-        <v>45446.375</v>
+        <v>45448.53472222222</v>
       </c>
       <c r="G118" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H118">
-        <v>321679</v>
+        <v>322513</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3691,25 +3724,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>100038</v>
+        <v>100263</v>
       </c>
       <c r="C119" t="s">
         <v>44</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E119" s="2">
-        <v>45446.375</v>
+        <v>45448.53472222222</v>
       </c>
       <c r="F119" s="2">
-        <v>45446.43091666666</v>
+        <v>45448.66527777778</v>
       </c>
       <c r="G119" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H119">
-        <v>321679</v>
+        <v>322514</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3717,25 +3750,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>100048</v>
+        <v>100264</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
       </c>
       <c r="D120" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E120" s="2">
-        <v>45446.375</v>
+        <v>45448.45138888889</v>
       </c>
       <c r="F120" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="G120" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H120">
-        <v>321709</v>
+        <v>322517</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3743,25 +3776,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>100048</v>
+        <v>100264</v>
       </c>
       <c r="C121" t="s">
         <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E121" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.29097222222</v>
       </c>
       <c r="F121" s="2">
-        <v>45446.50851388889</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="G121" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H121">
-        <v>321709</v>
+        <v>322516</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3769,25 +3802,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>100048</v>
+        <v>100264</v>
       </c>
       <c r="C122" t="s">
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2">
-        <v>45446.50851388889</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F122" s="2">
-        <v>45446.68420833333</v>
+        <v>45448.45138888889</v>
       </c>
       <c r="G122" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H122">
-        <v>321710</v>
+        <v>322516</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3795,25 +3828,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>100056</v>
+        <v>100284</v>
       </c>
       <c r="C123" t="s">
         <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E123" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="F123" s="2">
-        <v>45446.85416666666</v>
+        <v>45448.5</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H123">
-        <v>321734</v>
+        <v>322597</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3821,25 +3854,25 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>100056</v>
+        <v>100284</v>
       </c>
       <c r="C124" t="s">
         <v>46</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E124" s="2">
-        <v>45446.4375</v>
+        <v>45448.5</v>
       </c>
       <c r="F124" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.59444444445</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H124">
-        <v>321733</v>
+        <v>322597</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3847,25 +3880,25 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>100056</v>
+        <v>100284</v>
       </c>
       <c r="C125" t="s">
         <v>46</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E125" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.59444444445</v>
       </c>
       <c r="F125" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.80277777778</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H125">
-        <v>321733</v>
+        <v>322598</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3873,25 +3906,25 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>100057</v>
+        <v>100289</v>
       </c>
       <c r="C126" t="s">
         <v>47</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E126" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="F126" s="2">
-        <v>45446.6875</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="G126" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H126">
-        <v>321737</v>
+        <v>322612</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3899,25 +3932,25 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>100057</v>
+        <v>100289</v>
       </c>
       <c r="C127" t="s">
         <v>47</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E127" s="2">
-        <v>45446.27083333334</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F127" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="G127" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H127">
-        <v>321736</v>
+        <v>322612</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3925,25 +3958,25 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>100057</v>
+        <v>100289</v>
       </c>
       <c r="C128" t="s">
         <v>47</v>
       </c>
       <c r="D128" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E128" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="F128" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.65694444445</v>
       </c>
       <c r="G128" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H128">
-        <v>321736</v>
+        <v>322613</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3951,25 +3984,25 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>100063</v>
+        <v>100326</v>
       </c>
       <c r="C129" t="s">
         <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E129" s="2">
-        <v>45446.625</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F129" s="2">
-        <v>45446.80069444444</v>
+        <v>45448.4375</v>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H129">
-        <v>321755</v>
+        <v>322728</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3977,25 +4010,25 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>100063</v>
+        <v>100326</v>
       </c>
       <c r="C130" t="s">
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.4375</v>
       </c>
       <c r="F130" s="2">
-        <v>45446.5</v>
+        <v>45448.53194444445</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H130">
-        <v>321754</v>
+        <v>322728</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4003,25 +4036,25 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>100063</v>
+        <v>100326</v>
       </c>
       <c r="C131" t="s">
         <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E131" s="2">
-        <v>45446.5</v>
+        <v>45448.53194444445</v>
       </c>
       <c r="F131" s="2">
-        <v>45446.625</v>
+        <v>45448.74027777778</v>
       </c>
       <c r="G131" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H131">
-        <v>321754</v>
+        <v>322729</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4029,25 +4062,25 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>100065</v>
+        <v>100327</v>
       </c>
       <c r="C132" t="s">
         <v>49</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.27708333333</v>
       </c>
       <c r="F132" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="G132" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H132">
-        <v>321760</v>
+        <v>322732</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4055,25 +4088,25 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>100065</v>
+        <v>100327</v>
       </c>
       <c r="C133" t="s">
         <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E133" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="F133" s="2">
-        <v>45446.47258333334</v>
+        <v>45448.44130555556</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H133">
-        <v>321760</v>
+        <v>322732</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4081,25 +4114,25 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>100065</v>
+        <v>100331</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E134" s="2">
-        <v>45446.47258333334</v>
+        <v>45448.56630555556</v>
       </c>
       <c r="F134" s="2">
-        <v>45446.64619444445</v>
+        <v>45448.68783333333</v>
       </c>
       <c r="G134" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H134">
-        <v>321761</v>
+        <v>322745</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4107,25 +4140,25 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>100078</v>
+        <v>100331</v>
       </c>
       <c r="C135" t="s">
         <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E135" s="2">
-        <v>45446.91666666666</v>
+        <v>45448.40208333333</v>
       </c>
       <c r="F135" s="2">
-        <v>45447.125</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="G135" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H135">
-        <v>321800</v>
+        <v>322744</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4133,25 +4166,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>100078</v>
+        <v>100331</v>
       </c>
       <c r="C136" t="s">
         <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="F136" s="2">
-        <v>45446.79166666666</v>
+        <v>45448.56630555556</v>
       </c>
       <c r="G136" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H136">
-        <v>321799</v>
+        <v>322744</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4159,25 +4192,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>100078</v>
+        <v>100335</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D137" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2">
-        <v>45446.79166666666</v>
+        <v>45448.48297222222</v>
       </c>
       <c r="F137" s="2">
-        <v>45446.91666666666</v>
+        <v>45448.6045</v>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H137">
-        <v>321799</v>
+        <v>322757</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4185,25 +4218,25 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>100087</v>
+        <v>100335</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E138" s="2">
-        <v>45446.59652777778</v>
+        <v>45448.31875</v>
       </c>
       <c r="F138" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.375</v>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H138">
-        <v>321826</v>
+        <v>322756</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4211,25 +4244,25 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>100087</v>
+        <v>100335</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D139" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.375</v>
       </c>
       <c r="F139" s="2">
-        <v>45446.72158333333</v>
+        <v>45448.48297222222</v>
       </c>
       <c r="G139" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H139">
-        <v>321826</v>
+        <v>322756</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4237,25 +4270,25 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>100125</v>
+        <v>100341</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E140" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.55555555555</v>
       </c>
       <c r="F140" s="2">
-        <v>45446.64791666667</v>
+        <v>45448.61111111111</v>
       </c>
       <c r="G140" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H140">
-        <v>322074</v>
+        <v>322789</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4263,25 +4296,25 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>100125</v>
+        <v>100362</v>
       </c>
       <c r="C141" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D141" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E141" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.89583333334</v>
       </c>
       <c r="F141" s="2">
-        <v>45446.36458333334</v>
+        <v>45448.95138888889</v>
       </c>
       <c r="G141" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H141">
-        <v>322073</v>
+        <v>322885</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4289,25 +4322,25 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>100125</v>
+        <v>100363</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E142" s="2">
-        <v>45446.36458333334</v>
+        <v>45448.26388888889</v>
       </c>
       <c r="F142" s="2">
-        <v>45446.47916666666</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="G142" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H142">
-        <v>322073</v>
+        <v>322889</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4315,25 +4348,25 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>100128</v>
+        <v>100363</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2">
-        <v>45446.75277777778</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F143" s="2">
-        <v>45446.80833333333</v>
+        <v>45448.48233333333</v>
       </c>
       <c r="G143" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H143">
-        <v>322081</v>
+        <v>322889</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4341,25 +4374,25 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>100138</v>
+        <v>100363</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D144" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E144" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.48233333333</v>
       </c>
       <c r="F144" s="2">
-        <v>45446.54166666666</v>
+        <v>45448.61636111111</v>
       </c>
       <c r="G144" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H144">
-        <v>322120</v>
+        <v>322890</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4367,25 +4400,25 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>100138</v>
+        <v>100364</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D145" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E145" s="2">
-        <v>45446.54166666666</v>
+        <v>45448.64236111111</v>
       </c>
       <c r="F145" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.69791666666</v>
       </c>
       <c r="G145" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H145">
-        <v>322120</v>
+        <v>322891</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4393,25 +4426,25 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>100138</v>
+        <v>100373</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E146" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.48841666667</v>
       </c>
       <c r="F146" s="2">
-        <v>45446.79097222222</v>
+        <v>45448.61202777778</v>
       </c>
       <c r="G146" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H146">
-        <v>322121</v>
+        <v>322945</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4419,25 +4452,25 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>100144</v>
+        <v>100373</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E147" s="2">
-        <v>45446.54547222222</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="F147" s="2">
-        <v>45446.66630555555</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="G147" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H147">
-        <v>322141</v>
+        <v>322944</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4445,25 +4478,25 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>100144</v>
+        <v>100373</v>
       </c>
       <c r="C148" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F148" s="2">
-        <v>45446.4375</v>
+        <v>45448.48841666667</v>
       </c>
       <c r="G148" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H148">
-        <v>322140</v>
+        <v>322944</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4471,25 +4504,25 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>100144</v>
+        <v>100379</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E149" s="2">
-        <v>45446.4375</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="F149" s="2">
-        <v>45446.54547222222</v>
+        <v>45448.375</v>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H149">
-        <v>322140</v>
+        <v>322947</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4497,25 +4530,25 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>100204</v>
+        <v>100379</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.375</v>
       </c>
       <c r="F150" s="2">
-        <v>45446.56597222222</v>
+        <v>45448.5</v>
       </c>
       <c r="G150" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H150">
-        <v>322325</v>
+        <v>322947</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4523,25 +4556,25 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>100204</v>
+        <v>100379</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E151" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.5</v>
       </c>
       <c r="F151" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.67430555556</v>
       </c>
       <c r="G151" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H151">
-        <v>322324</v>
+        <v>322948</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4549,25 +4582,25 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>100204</v>
+        <v>100382</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E152" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="F152" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.375</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H152">
-        <v>322324</v>
+        <v>322970</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4575,25 +4608,25 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>100218</v>
+        <v>100382</v>
       </c>
       <c r="C153" t="s">
         <v>54</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.375</v>
       </c>
       <c r="F153" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.48297222222</v>
       </c>
       <c r="G153" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H153">
-        <v>322366</v>
+        <v>322970</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4601,25 +4634,25 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>100218</v>
+        <v>100386</v>
       </c>
       <c r="C154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E154" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.375</v>
       </c>
       <c r="F154" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="G154" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H154">
-        <v>322366</v>
+        <v>322985</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4627,25 +4660,25 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>100218</v>
+        <v>100386</v>
       </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D155" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E155" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="F155" s="2">
-        <v>45446.69097222222</v>
+        <v>45448.58333333334</v>
       </c>
       <c r="G155" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H155">
-        <v>322367</v>
+        <v>322985</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4653,25 +4686,25 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>100219</v>
+        <v>100386</v>
       </c>
       <c r="C156" t="s">
         <v>55</v>
       </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E156" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.58333333334</v>
       </c>
       <c r="F156" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.70486111111</v>
       </c>
       <c r="G156" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H156">
-        <v>322369</v>
+        <v>322986</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4679,25 +4712,25 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>100219</v>
+        <v>100388</v>
       </c>
       <c r="C157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D157" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E157" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="F157" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.375</v>
       </c>
       <c r="G157" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H157">
-        <v>322369</v>
+        <v>322991</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4705,25 +4738,25 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>100220</v>
+        <v>100388</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E158" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.375</v>
       </c>
       <c r="F158" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.5</v>
       </c>
       <c r="G158" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H158">
-        <v>322372</v>
+        <v>322991</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4731,25 +4764,25 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>100220</v>
+        <v>100388</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E159" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.5</v>
       </c>
       <c r="F159" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.62152777778</v>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H159">
-        <v>322372</v>
+        <v>322992</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4757,25 +4790,25 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>100220</v>
+        <v>100402</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E160" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="F160" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="G160" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H160">
-        <v>322373</v>
+        <v>323068</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4783,25 +4816,25 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>100226</v>
+        <v>100402</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E161" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="F161" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.85416666666</v>
       </c>
       <c r="G161" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H161">
-        <v>322390</v>
+        <v>323068</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4809,25 +4842,25 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>100226</v>
+        <v>100402</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D162" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E162" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.85416666666</v>
       </c>
       <c r="F162" s="2">
-        <v>45446.45833333334</v>
+        <v>45449.0625</v>
       </c>
       <c r="G162" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H162">
-        <v>322390</v>
+        <v>323069</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4835,25 +4868,25 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>100226</v>
+        <v>100417</v>
       </c>
       <c r="C163" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E163" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.71566666666</v>
       </c>
       <c r="F163" s="2">
-        <v>45446.56597222222</v>
+        <v>45448.89691666666</v>
       </c>
       <c r="G163" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H163">
-        <v>322391</v>
+        <v>323114</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4861,25 +4894,25 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>100229</v>
+        <v>100417</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E164" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.54861111111</v>
       </c>
       <c r="F164" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="G164" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H164">
-        <v>322399</v>
+        <v>323113</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4887,25 +4920,25 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>100229</v>
+        <v>100417</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D165" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E165" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="F165" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.71566666666</v>
       </c>
       <c r="G165" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H165">
-        <v>322399</v>
+        <v>323113</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4913,25 +4946,25 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>100229</v>
+        <v>100421</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E166" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.69930555556</v>
       </c>
       <c r="F166" s="2">
-        <v>45446.56597222222</v>
+        <v>45448.75</v>
       </c>
       <c r="G166" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H166">
-        <v>322400</v>
+        <v>323125</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4939,25 +4972,25 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>100234</v>
+        <v>100421</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E167" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.75</v>
       </c>
       <c r="F167" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.85675</v>
       </c>
       <c r="G167" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H167">
-        <v>322414</v>
+        <v>323125</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4965,25 +4998,25 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>100234</v>
+        <v>100421</v>
       </c>
       <c r="C168" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E168" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.85675</v>
       </c>
       <c r="F168" s="2">
-        <v>45446.70833333334</v>
+        <v>45449.02897222222</v>
       </c>
       <c r="G168" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H168">
-        <v>322414</v>
+        <v>323126</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4991,25 +5024,25 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>100236</v>
+        <v>100434</v>
       </c>
       <c r="C169" t="s">
         <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E169" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="F169" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="G169" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H169">
-        <v>322420</v>
+        <v>323164</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5017,25 +5050,25 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>100236</v>
+        <v>100434</v>
       </c>
       <c r="C170" t="s">
         <v>58</v>
       </c>
       <c r="D170" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E170" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="F170" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="G170" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H170">
-        <v>322420</v>
+        <v>323164</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5043,25 +5076,25 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>100236</v>
+        <v>100434</v>
       </c>
       <c r="C171" t="s">
         <v>58</v>
       </c>
       <c r="D171" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E171" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="F171" s="2">
-        <v>45446.69097222222</v>
+        <v>45448.9375</v>
       </c>
       <c r="G171" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H171">
-        <v>322421</v>
+        <v>323165</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5069,25 +5102,25 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>100237</v>
+        <v>100442</v>
       </c>
       <c r="C172" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E172" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.61180555556</v>
       </c>
       <c r="F172" s="2">
-        <v>45446.69097222222</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="G172" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H172">
-        <v>322424</v>
+        <v>323188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5095,25 +5128,25 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>100237</v>
+        <v>100442</v>
       </c>
       <c r="C173" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D173" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E173" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="F173" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.77941666666</v>
       </c>
       <c r="G173" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H173">
-        <v>322423</v>
+        <v>323188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5121,25 +5154,25 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>100237</v>
+        <v>100442</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D174" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E174" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.77941666666</v>
       </c>
       <c r="F174" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.95233333333</v>
       </c>
       <c r="G174" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H174">
-        <v>322423</v>
+        <v>323189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5147,25 +5180,25 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>100238</v>
+        <v>100444</v>
       </c>
       <c r="C175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E175" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.87709722222</v>
       </c>
       <c r="F175" s="2">
-        <v>45446.69097222222</v>
+        <v>45449.05140277778</v>
       </c>
       <c r="G175" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H175">
-        <v>322427</v>
+        <v>323195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5173,25 +5206,25 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>100238</v>
+        <v>100444</v>
       </c>
       <c r="C176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D176" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E176" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.7375</v>
       </c>
       <c r="F176" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G176" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H176">
-        <v>322426</v>
+        <v>323194</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5199,25 +5232,25 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>100238</v>
+        <v>100444</v>
       </c>
       <c r="C177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D177" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E177" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F177" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.87709722222</v>
       </c>
       <c r="G177" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H177">
-        <v>322426</v>
+        <v>323194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5225,25 +5258,25 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>100239</v>
+        <v>100465</v>
       </c>
       <c r="C178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D178" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E178" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.875</v>
       </c>
       <c r="F178" s="2">
-        <v>45446.56597222222</v>
+        <v>45449.08333333334</v>
       </c>
       <c r="G178" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H178">
-        <v>322430</v>
+        <v>323258</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5251,25 +5284,25 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>100239</v>
+        <v>100465</v>
       </c>
       <c r="C179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D179" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E179" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.69236111111</v>
       </c>
       <c r="F179" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.75</v>
       </c>
       <c r="G179" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H179">
-        <v>322429</v>
+        <v>323257</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5277,25 +5310,25 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>100239</v>
+        <v>100465</v>
       </c>
       <c r="C180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D180" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E180" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.75</v>
       </c>
       <c r="F180" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.875</v>
       </c>
       <c r="G180" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H180">
-        <v>322429</v>
+        <v>323257</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5303,25 +5336,25 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>100240</v>
+        <v>100477</v>
       </c>
       <c r="C181" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D181" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E181" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F181" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G181" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H181">
-        <v>322432</v>
+        <v>323293</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5329,25 +5362,25 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>100240</v>
+        <v>100477</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E182" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F182" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.90208333333</v>
       </c>
       <c r="G182" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H182">
-        <v>322432</v>
+        <v>323293</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5355,25 +5388,25 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>100240</v>
+        <v>100477</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E183" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.90208333333</v>
       </c>
       <c r="F183" s="2">
-        <v>45446.56597222222</v>
+        <v>45449.02152777778</v>
       </c>
       <c r="G183" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H183">
-        <v>322433</v>
+        <v>323294</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5381,25 +5414,25 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>100243</v>
+        <v>100479</v>
       </c>
       <c r="C184" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E184" s="2">
-        <v>45446.30555555555</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F184" s="2">
-        <v>45446.36111111111</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G184" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H184">
-        <v>322440</v>
+        <v>323299</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5407,25 +5440,25 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>100243</v>
+        <v>100479</v>
       </c>
       <c r="C185" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E185" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F185" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.97043055556</v>
       </c>
       <c r="G185" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H185">
-        <v>322442</v>
+        <v>323299</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5433,25 +5466,25 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>100243</v>
+        <v>100479</v>
       </c>
       <c r="C186" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E186" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.97043055556</v>
       </c>
       <c r="F186" s="2">
-        <v>45446.58333333334</v>
+        <v>45449.17876388889</v>
       </c>
       <c r="G186" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H186">
-        <v>322441</v>
+        <v>323300</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5459,25 +5492,25 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>100243</v>
+        <v>100490</v>
       </c>
       <c r="C187" t="s">
         <v>62</v>
       </c>
       <c r="D187" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E187" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.61597222222</v>
       </c>
       <c r="F187" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="G187" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H187">
-        <v>322441</v>
+        <v>323332</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5485,25 +5518,25 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>100244</v>
+        <v>100490</v>
       </c>
       <c r="C188" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E188" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="F188" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.75833333333</v>
       </c>
       <c r="G188" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H188">
-        <v>322445</v>
+        <v>323332</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5511,25 +5544,25 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>100244</v>
+        <v>100496</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E189" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="F189" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.72361111111</v>
       </c>
       <c r="G189" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H189">
-        <v>322444</v>
+        <v>323351</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5537,25 +5570,25 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>100244</v>
+        <v>100496</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E190" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="F190" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G190" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H190">
-        <v>322444</v>
+        <v>323350</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5563,25 +5596,25 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>100245</v>
+        <v>100496</v>
       </c>
       <c r="C191" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D191" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E191" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="F191" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.60416666666</v>
       </c>
       <c r="G191" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H191">
-        <v>322447</v>
+        <v>323350</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5589,25 +5622,25 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>100245</v>
+        <v>100511</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E192" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.90525</v>
       </c>
       <c r="F192" s="2">
-        <v>45446.70833333334</v>
+        <v>45449.07955555555</v>
       </c>
       <c r="G192" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H192">
-        <v>322447</v>
+        <v>323396</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5615,25 +5648,25 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>100245</v>
+        <v>100511</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E193" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="F193" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H193">
-        <v>322448</v>
+        <v>323395</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5641,25 +5674,25 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>100262</v>
+        <v>100511</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D194" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E194" s="2">
-        <v>45446.39166666667</v>
+        <v>45448.79166666666</v>
       </c>
       <c r="F194" s="2">
-        <v>45446.44722222222</v>
+        <v>45448.90525</v>
       </c>
       <c r="G194" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H194">
-        <v>322509</v>
+        <v>323395</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5667,25 +5700,25 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>100276</v>
+        <v>100530</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D195" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E195" s="2">
-        <v>45446.39861111111</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="F195" s="2">
-        <v>45446.45416666667</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="G195" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H195">
-        <v>322551</v>
+        <v>323624</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5693,25 +5726,25 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>100359</v>
+        <v>100530</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D196" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E196" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="F196" s="2">
-        <v>45446.375</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="G196" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H196">
-        <v>322876</v>
+        <v>323624</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5719,25 +5752,25 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>100359</v>
+        <v>100530</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D197" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E197" s="2">
-        <v>45446.375</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="F197" s="2">
-        <v>45446.43333333333</v>
+        <v>45448.53611111111</v>
       </c>
       <c r="G197" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H197">
-        <v>322876</v>
+        <v>323625</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5745,25 +5778,25 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>100359</v>
+        <v>100540</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E198" s="2">
-        <v>45446.43333333333</v>
+        <v>45448.41944444444</v>
       </c>
       <c r="F198" s="2">
-        <v>45446.55972222222</v>
+        <v>45448.475</v>
       </c>
       <c r="G198" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H198">
-        <v>322877</v>
+        <v>323710</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5771,25 +5804,25 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>100360</v>
+        <v>100553</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D199" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E199" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.69583333333</v>
       </c>
       <c r="F199" s="2">
-        <v>45446.72222222222</v>
+        <v>45448.75138888889</v>
       </c>
       <c r="G199" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H199">
-        <v>322878</v>
+        <v>323756</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5797,25 +5830,25 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>100361</v>
+        <v>100554</v>
       </c>
       <c r="C200" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D200" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E200" s="2">
-        <v>45446.26805555556</v>
+        <v>45448.8375</v>
       </c>
       <c r="F200" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.89305555556</v>
       </c>
       <c r="G200" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H200">
-        <v>322883</v>
+        <v>323759</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5823,25 +5856,25 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>100361</v>
+        <v>100556</v>
       </c>
       <c r="C201" t="s">
         <v>65</v>
       </c>
       <c r="D201" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E201" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F201" s="2">
-        <v>45446.48233333333</v>
+        <v>45448.4375</v>
       </c>
       <c r="G201" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H201">
-        <v>322883</v>
+        <v>323771</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5849,25 +5882,25 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>100361</v>
+        <v>100556</v>
       </c>
       <c r="C202" t="s">
         <v>65</v>
       </c>
       <c r="D202" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E202" s="2">
-        <v>45446.48233333333</v>
+        <v>45448.4375</v>
       </c>
       <c r="F202" s="2">
-        <v>45446.61219444445</v>
+        <v>45448.54547222222</v>
       </c>
       <c r="G202" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H202">
-        <v>322884</v>
+        <v>323771</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5875,25 +5908,25 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>100368</v>
+        <v>100556</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D203" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E203" s="2">
-        <v>45446.7125</v>
+        <v>45448.54547222222</v>
       </c>
       <c r="F203" s="2">
-        <v>45446.76805555556</v>
+        <v>45448.66491666667</v>
       </c>
       <c r="G203" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H203">
-        <v>322906</v>
+        <v>323772</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5901,25 +5934,25 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>100371</v>
+        <v>100590</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D204" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E204" s="2">
-        <v>45446.39444444444</v>
+        <v>45448.75833333333</v>
       </c>
       <c r="F204" s="2">
-        <v>45446.45</v>
+        <v>45448.81388888889</v>
       </c>
       <c r="G204" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H204">
-        <v>322919</v>
+        <v>323985</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5927,25 +5960,25 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>100372</v>
+        <v>100603</v>
       </c>
       <c r="C205" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D205" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E205" s="2">
-        <v>45446.34722222222</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="F205" s="2">
-        <v>45446.40277777778</v>
+        <v>45448.63263888889</v>
       </c>
       <c r="G205" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H205">
-        <v>322922</v>
+        <v>324031</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5953,25 +5986,25 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>100401</v>
+        <v>100603</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D206" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E206" s="2">
-        <v>45446.63888888889</v>
+        <v>45448.29583333333</v>
       </c>
       <c r="F206" s="2">
-        <v>45446.69444444445</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="G206" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H206">
-        <v>323064</v>
+        <v>324030</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5979,25 +6012,25 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>100406</v>
+        <v>100603</v>
       </c>
       <c r="C207" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D207" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E207" s="2">
-        <v>45446.87222222222</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="F207" s="2">
-        <v>45446.92777777778</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="G207" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H207">
-        <v>323079</v>
+        <v>324030</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6005,25 +6038,25 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>100409</v>
+        <v>100604</v>
       </c>
       <c r="C208" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D208" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E208" s="2">
-        <v>45446.65138888889</v>
+        <v>45448.46944444445</v>
       </c>
       <c r="F208" s="2">
-        <v>45446.70694444444</v>
+        <v>45448.525</v>
       </c>
       <c r="G208" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H208">
-        <v>323088</v>
+        <v>324033</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6031,25 +6064,25 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>100412</v>
+        <v>100610</v>
       </c>
       <c r="C209" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E209" s="2">
-        <v>45446.72638888889</v>
+        <v>45448.41527777778</v>
       </c>
       <c r="F209" s="2">
-        <v>45446.78194444445</v>
+        <v>45448.47083333333</v>
       </c>
       <c r="G209" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H209">
-        <v>323097</v>
+        <v>324059</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6057,25 +6090,25 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>100428</v>
+        <v>100611</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D210" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E210" s="2">
-        <v>45446.71527777778</v>
+        <v>45448.43611111111</v>
       </c>
       <c r="F210" s="2">
-        <v>45446.77083333334</v>
+        <v>45448.49166666667</v>
       </c>
       <c r="G210" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H210">
-        <v>323145</v>
+        <v>324062</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6083,25 +6116,25 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>100430</v>
+        <v>100612</v>
       </c>
       <c r="C211" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E211" s="2">
-        <v>45446.38333333333</v>
+        <v>45448.41388888889</v>
       </c>
       <c r="F211" s="2">
-        <v>45446.43888888889</v>
+        <v>45448.46944444445</v>
       </c>
       <c r="G211" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H211">
-        <v>323151</v>
+        <v>324065</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6109,25 +6142,25 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>100431</v>
+        <v>100613</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D212" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E212" s="2">
-        <v>45446.55972222222</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="F212" s="2">
-        <v>45446.61527777778</v>
+        <v>45448.60277777778</v>
       </c>
       <c r="G212" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H212">
-        <v>323154</v>
+        <v>324068</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6135,25 +6168,25 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>100437</v>
+        <v>100614</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E213" s="2">
-        <v>45446.44652777778</v>
+        <v>45448.32916666667</v>
       </c>
       <c r="F213" s="2">
-        <v>45446.50208333333</v>
+        <v>45448.38472222222</v>
       </c>
       <c r="G213" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H213">
-        <v>323172</v>
+        <v>324071</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6161,25 +6194,25 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>100438</v>
+        <v>100615</v>
       </c>
       <c r="C214" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D214" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E214" s="2">
-        <v>45446.69305555556</v>
+        <v>45448.52708333333</v>
       </c>
       <c r="F214" s="2">
-        <v>45446.74861111111</v>
+        <v>45448.58263888889</v>
       </c>
       <c r="G214" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H214">
-        <v>323175</v>
+        <v>324074</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6187,25 +6220,25 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>100440</v>
+        <v>100616</v>
       </c>
       <c r="C215" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D215" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E215" s="2">
-        <v>45446.65555555555</v>
+        <v>45448.41111111111</v>
       </c>
       <c r="F215" s="2">
-        <v>45446.71111111111</v>
+        <v>45448.46666666667</v>
       </c>
       <c r="G215" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H215">
-        <v>323181</v>
+        <v>324077</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6213,25 +6246,25 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>100447</v>
+        <v>100617</v>
       </c>
       <c r="C216" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D216" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E216" s="2">
-        <v>45446.40972222222</v>
+        <v>45448.34236111111</v>
       </c>
       <c r="F216" s="2">
-        <v>45446.46527777778</v>
+        <v>45448.39791666667</v>
       </c>
       <c r="G216" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H216">
-        <v>323202</v>
+        <v>324080</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6239,25 +6272,25 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>100449</v>
+        <v>100636</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D217" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E217" s="2">
-        <v>45446.73472222222</v>
+        <v>45448.55486111111</v>
       </c>
       <c r="F217" s="2">
-        <v>45446.79027777778</v>
+        <v>45448.61041666667</v>
       </c>
       <c r="G217" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H217">
-        <v>323208</v>
+        <v>324143</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6265,25 +6298,25 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>100450</v>
+        <v>100642</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E218" s="2">
-        <v>45446.54305555556</v>
+        <v>45448.53680555556</v>
       </c>
       <c r="F218" s="2">
-        <v>45446.59861111111</v>
+        <v>45448.59236111111</v>
       </c>
       <c r="G218" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H218">
-        <v>323211</v>
+        <v>324161</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6291,25 +6324,25 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>100455</v>
+        <v>100650</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E219" s="2">
-        <v>45446.70555555556</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="F219" s="2">
-        <v>45446.76111111111</v>
+        <v>45448.50416666667</v>
       </c>
       <c r="G219" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H219">
-        <v>323226</v>
+        <v>324190</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6317,25 +6350,25 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>100456</v>
+        <v>100651</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E220" s="2">
-        <v>45446.65</v>
+        <v>45448.57361111111</v>
       </c>
       <c r="F220" s="2">
-        <v>45446.70555555556</v>
+        <v>45448.62916666667</v>
       </c>
       <c r="G220" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H220">
-        <v>323229</v>
+        <v>324193</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6343,25 +6376,25 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>100468</v>
+        <v>100653</v>
       </c>
       <c r="C221" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D221" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E221" s="2">
-        <v>45446.65486111111</v>
+        <v>45448.51527777778</v>
       </c>
       <c r="F221" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.57083333333</v>
       </c>
       <c r="G221" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H221">
-        <v>323266</v>
+        <v>324199</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6369,25 +6402,25 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>100468</v>
+        <v>100654</v>
       </c>
       <c r="C222" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D222" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E222" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.725</v>
       </c>
       <c r="F222" s="2">
-        <v>45446.80145833334</v>
+        <v>45448.78055555555</v>
       </c>
       <c r="G222" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H222">
-        <v>323266</v>
+        <v>324202</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6395,25 +6428,25 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>100468</v>
+        <v>100656</v>
       </c>
       <c r="C223" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D223" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E223" s="2">
-        <v>45446.80145833334</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="F223" s="2">
-        <v>45446.92090277778</v>
+        <v>45448.70138888889</v>
       </c>
       <c r="G223" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H223">
-        <v>323267</v>
+        <v>324208</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6421,25 +6454,25 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>100471</v>
+        <v>100658</v>
       </c>
       <c r="C224" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D224" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E224" s="2">
-        <v>45446.88611111111</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="F224" s="2">
-        <v>45446.94166666667</v>
+        <v>45448.6125</v>
       </c>
       <c r="G224" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H224">
-        <v>323274</v>
+        <v>324214</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6447,25 +6480,25 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>100472</v>
+        <v>100660</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D225" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E225" s="2">
-        <v>45446.55833333333</v>
+        <v>45448.74722222222</v>
       </c>
       <c r="F225" s="2">
-        <v>45446.61388888889</v>
+        <v>45448.80277777778</v>
       </c>
       <c r="G225" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H225">
-        <v>323277</v>
+        <v>324220</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6473,25 +6506,25 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>100483</v>
+        <v>100663</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E226" s="2">
-        <v>45446.40277777778</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="F226" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.40972222222</v>
       </c>
       <c r="G226" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H226">
-        <v>323310</v>
+        <v>324229</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6499,25 +6532,25 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>100490</v>
+        <v>100667</v>
       </c>
       <c r="C227" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D227" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E227" s="2">
-        <v>45446.75694444445</v>
+        <v>45448.37847222222</v>
       </c>
       <c r="F227" s="2">
-        <v>45446.8125</v>
+        <v>45448.43402777778</v>
       </c>
       <c r="G227" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H227">
-        <v>323331</v>
+        <v>324241</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6525,25 +6558,25 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>100494</v>
+        <v>100669</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D228" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E228" s="2">
-        <v>45446.55416666667</v>
+        <v>45448.44722222222</v>
       </c>
       <c r="F228" s="2">
-        <v>45446.60972222222</v>
+        <v>45448.50277777778</v>
       </c>
       <c r="G228" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H228">
-        <v>323343</v>
+        <v>324247</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6551,25 +6584,25 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>100500</v>
+        <v>100672</v>
       </c>
       <c r="C229" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D229" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E229" s="2">
-        <v>45446.54583333333</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="F229" s="2">
-        <v>45446.60138888889</v>
+        <v>45448.78472222222</v>
       </c>
       <c r="G229" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H229">
-        <v>323361</v>
+        <v>324256</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6577,25 +6610,25 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>100503</v>
+        <v>100673</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D230" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E230" s="2">
-        <v>45446.3375</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="F230" s="2">
-        <v>45446.39305555556</v>
+        <v>45448.61944444444</v>
       </c>
       <c r="G230" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H230">
-        <v>323370</v>
+        <v>324259</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6603,25 +6636,25 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>100504</v>
+        <v>100674</v>
       </c>
       <c r="C231" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D231" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E231" s="2">
-        <v>45446.57083333333</v>
+        <v>45448.73055555556</v>
       </c>
       <c r="F231" s="2">
-        <v>45446.62638888889</v>
+        <v>45448.78611111111</v>
       </c>
       <c r="G231" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H231">
-        <v>323373</v>
+        <v>324262</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6629,25 +6662,25 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>100507</v>
+        <v>100678</v>
       </c>
       <c r="C232" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D232" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E232" s="2">
-        <v>45446.74583333333</v>
+        <v>45448.74305555555</v>
       </c>
       <c r="F232" s="2">
-        <v>45446.80138888889</v>
+        <v>45448.79861111111</v>
       </c>
       <c r="G232" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H232">
-        <v>323382</v>
+        <v>324274</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6655,25 +6688,25 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>100513</v>
+        <v>100680</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D233" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E233" s="2">
-        <v>45446.64861111111</v>
+        <v>45448.50833333333</v>
       </c>
       <c r="F233" s="2">
-        <v>45446.70416666667</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="G233" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H233">
-        <v>323400</v>
+        <v>324280</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6681,25 +6714,25 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>100532</v>
+        <v>100681</v>
       </c>
       <c r="C234" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E234" s="2">
-        <v>45446.3125</v>
+        <v>45448.33611111111</v>
       </c>
       <c r="F234" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.39166666667</v>
       </c>
       <c r="G234" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H234">
-        <v>323637</v>
+        <v>324283</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6707,25 +6740,25 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>100532</v>
+        <v>100682</v>
       </c>
       <c r="C235" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D235" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E235" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.38888888889</v>
       </c>
       <c r="F235" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.44444444445</v>
       </c>
       <c r="G235" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H235">
-        <v>323637</v>
+        <v>324286</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6733,25 +6766,25 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>100532</v>
+        <v>100684</v>
       </c>
       <c r="C236" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D236" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E236" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="F236" s="2">
-        <v>45446.69583333333</v>
+        <v>45448.6375</v>
       </c>
       <c r="G236" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H236">
-        <v>323638</v>
+        <v>324292</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6759,25 +6792,25 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>100537</v>
+        <v>100685</v>
       </c>
       <c r="C237" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D237" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E237" s="2">
-        <v>45446.42222222222</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="F237" s="2">
-        <v>45446.53333333333</v>
+        <v>45448.45138888889</v>
       </c>
       <c r="G237" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H237">
-        <v>323698</v>
+        <v>324295</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6785,25 +6818,25 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>100547</v>
+        <v>100686</v>
       </c>
       <c r="C238" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D238" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E238" s="2">
-        <v>45446.27083333334</v>
+        <v>45448.41944444444</v>
       </c>
       <c r="F238" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.475</v>
       </c>
       <c r="G238" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H238">
-        <v>323737</v>
+        <v>324298</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6811,25 +6844,25 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>100547</v>
+        <v>100689</v>
       </c>
       <c r="C239" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D239" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E239" s="2">
-        <v>45446.35416666666</v>
+        <v>45448.45208333333</v>
       </c>
       <c r="F239" s="2">
-        <v>45446.50008333333</v>
+        <v>45448.50763888889</v>
       </c>
       <c r="G239" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H239">
-        <v>323737</v>
+        <v>324307</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6837,25 +6870,25 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>100547</v>
+        <v>100690</v>
       </c>
       <c r="C240" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D240" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E240" s="2">
-        <v>45446.50008333333</v>
+        <v>45448.375</v>
       </c>
       <c r="F240" s="2">
-        <v>45446.61119444444</v>
+        <v>45448.43055555555</v>
       </c>
       <c r="G240" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H240">
-        <v>323738</v>
+        <v>324310</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6863,25 +6896,25 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>100549</v>
+        <v>100695</v>
       </c>
       <c r="C241" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D241" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E241" s="2">
-        <v>45446.625</v>
+        <v>45448.55416666667</v>
       </c>
       <c r="F241" s="2">
-        <v>45446.80138888889</v>
+        <v>45448.60972222222</v>
       </c>
       <c r="G241" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H241">
-        <v>323745</v>
+        <v>324325</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6889,25 +6922,25 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>100549</v>
+        <v>100696</v>
       </c>
       <c r="C242" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D242" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E242" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.5375</v>
       </c>
       <c r="F242" s="2">
-        <v>45446.5</v>
+        <v>45448.59305555555</v>
       </c>
       <c r="G242" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H242">
-        <v>323744</v>
+        <v>324328</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6915,25 +6948,25 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>100549</v>
+        <v>100702</v>
       </c>
       <c r="C243" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D243" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E243" s="2">
-        <v>45446.5</v>
+        <v>45448.38055555556</v>
       </c>
       <c r="F243" s="2">
-        <v>45446.625</v>
+        <v>45448.43611111111</v>
       </c>
       <c r="G243" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H243">
-        <v>323744</v>
+        <v>324346</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6941,25 +6974,25 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>100550</v>
+        <v>100706</v>
       </c>
       <c r="C244" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D244" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E244" s="2">
-        <v>45446.82638888889</v>
+        <v>45448.42222222222</v>
       </c>
       <c r="F244" s="2">
-        <v>45446.88194444445</v>
+        <v>45448.47777777778</v>
       </c>
       <c r="G244" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H244">
-        <v>323746</v>
+        <v>324358</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6967,25 +7000,25 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>100551</v>
+        <v>100707</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D245" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E245" s="2">
-        <v>45446.75</v>
+        <v>45448.5625</v>
       </c>
       <c r="F245" s="2">
-        <v>45446.80555555555</v>
+        <v>45448.61805555555</v>
       </c>
       <c r="G245" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H245">
-        <v>323749</v>
+        <v>324361</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6993,25 +7026,25 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>100602</v>
+        <v>100710</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D246" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E246" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.72222222222</v>
       </c>
       <c r="F246" s="2">
-        <v>45446.71527777778</v>
+        <v>45448.77777777778</v>
       </c>
       <c r="G246" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H246">
-        <v>324026</v>
+        <v>324370</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7019,25 +7052,25 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>100603</v>
+        <v>100728</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D247" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E247" s="2">
-        <v>45446.29722222222</v>
+        <v>45448.32361111111</v>
       </c>
       <c r="F247" s="2">
-        <v>45446.40833333333</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="G247" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H247">
-        <v>324029</v>
+        <v>324508</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7045,25 +7078,25 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>100734</v>
+        <v>100728</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D248" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E248" s="2">
-        <v>45446.35138888889</v>
+        <v>45448.36458333334</v>
       </c>
       <c r="F248" s="2">
-        <v>45446.40694444445</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="G248" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H248">
-        <v>324580</v>
+        <v>324508</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7071,25 +7104,883 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>100735</v>
+        <v>100729</v>
       </c>
       <c r="C249" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D249" t="s">
+        <v>81</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45448.45902777778</v>
+      </c>
+      <c r="F249" s="2">
+        <v>45448.5</v>
+      </c>
+      <c r="G249" t="s">
+        <v>88</v>
+      </c>
+      <c r="H249">
+        <v>324511</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>100729</v>
+      </c>
+      <c r="C250" t="s">
+        <v>62</v>
+      </c>
+      <c r="D250" t="s">
+        <v>82</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45448.5</v>
+      </c>
+      <c r="F250" s="2">
+        <v>45448.61458333334</v>
+      </c>
+      <c r="G250" t="s">
+        <v>88</v>
+      </c>
+      <c r="H250">
+        <v>324511</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>100734</v>
+      </c>
+      <c r="C251" t="s">
+        <v>77</v>
+      </c>
+      <c r="D251" t="s">
+        <v>81</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45448.58333333334</v>
+      </c>
+      <c r="F251" s="2">
+        <v>45448.66666666666</v>
+      </c>
+      <c r="G251" t="s">
+        <v>88</v>
+      </c>
+      <c r="H251">
+        <v>324581</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>100734</v>
+      </c>
+      <c r="C252" t="s">
+        <v>77</v>
+      </c>
+      <c r="D252" t="s">
+        <v>82</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45448.66666666666</v>
+      </c>
+      <c r="F252" s="2">
+        <v>45448.79166666666</v>
+      </c>
+      <c r="G252" t="s">
+        <v>88</v>
+      </c>
+      <c r="H252">
+        <v>324581</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>100736</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>84</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45448.71388888889</v>
+      </c>
+      <c r="F253" s="2">
+        <v>45448.76944444444</v>
+      </c>
+      <c r="G253" t="s">
+        <v>90</v>
+      </c>
+      <c r="H253">
+        <v>324594</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>100738</v>
+      </c>
+      <c r="C254" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" t="s">
+        <v>84</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45448.55833333333</v>
+      </c>
+      <c r="F254" s="2">
+        <v>45448.61388888889</v>
+      </c>
+      <c r="G254" t="s">
+        <v>89</v>
+      </c>
+      <c r="H254">
+        <v>324600</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>100739</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" t="s">
+        <v>84</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45448.55694444444</v>
+      </c>
+      <c r="F255" s="2">
+        <v>45448.6125</v>
+      </c>
+      <c r="G255" t="s">
+        <v>89</v>
+      </c>
+      <c r="H255">
+        <v>324603</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>100766</v>
+      </c>
+      <c r="C256" t="s">
+        <v>64</v>
+      </c>
+      <c r="D256" t="s">
+        <v>84</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45448.44236111111</v>
+      </c>
+      <c r="F256" s="2">
+        <v>45448.49791666667</v>
+      </c>
+      <c r="G256" t="s">
+        <v>88</v>
+      </c>
+      <c r="H256">
+        <v>324783</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>100767</v>
+      </c>
+      <c r="C257" t="s">
+        <v>29</v>
+      </c>
+      <c r="D257" t="s">
+        <v>84</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45448.39722222222</v>
+      </c>
+      <c r="F257" s="2">
+        <v>45448.45277777778</v>
+      </c>
+      <c r="G257" t="s">
+        <v>88</v>
+      </c>
+      <c r="H257">
+        <v>324786</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>100768</v>
+      </c>
+      <c r="C258" t="s">
+        <v>78</v>
+      </c>
+      <c r="D258" t="s">
+        <v>84</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45448.37847222222</v>
+      </c>
+      <c r="F258" s="2">
+        <v>45448.43402777778</v>
+      </c>
+      <c r="G258" t="s">
+        <v>88</v>
+      </c>
+      <c r="H258">
+        <v>324789</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>100770</v>
+      </c>
+      <c r="C259" t="s">
+        <v>76</v>
+      </c>
+      <c r="D259" t="s">
+        <v>84</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45448.36666666667</v>
+      </c>
+      <c r="F259" s="2">
+        <v>45448.42222222222</v>
+      </c>
+      <c r="G259" t="s">
+        <v>88</v>
+      </c>
+      <c r="H259">
+        <v>324795</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>100771</v>
+      </c>
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+      <c r="D260" t="s">
+        <v>84</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45448.39513888889</v>
+      </c>
+      <c r="F260" s="2">
+        <v>45448.45069444444</v>
+      </c>
+      <c r="G260" t="s">
+        <v>88</v>
+      </c>
+      <c r="H260">
+        <v>324798</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>100772</v>
+      </c>
+      <c r="C261" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261" t="s">
+        <v>84</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45448.35138888889</v>
+      </c>
+      <c r="F261" s="2">
+        <v>45448.40694444445</v>
+      </c>
+      <c r="G261" t="s">
+        <v>88</v>
+      </c>
+      <c r="H261">
+        <v>324801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>100773</v>
+      </c>
+      <c r="C262" t="s">
+        <v>79</v>
+      </c>
+      <c r="D262" t="s">
+        <v>84</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45448.43194444444</v>
+      </c>
+      <c r="F262" s="2">
+        <v>45448.4875</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
+      </c>
+      <c r="H262">
+        <v>324804</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>100774</v>
+      </c>
+      <c r="C263" t="s">
         <v>69</v>
       </c>
-      <c r="E249" s="2">
-        <v>45446.6875</v>
-      </c>
-      <c r="F249" s="2">
-        <v>45446.74305555555</v>
-      </c>
-      <c r="G249" t="s">
-        <v>76</v>
-      </c>
-      <c r="H249">
-        <v>324583</v>
+      <c r="D263" t="s">
+        <v>84</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45448.33194444444</v>
+      </c>
+      <c r="F263" s="2">
+        <v>45448.3875</v>
+      </c>
+      <c r="G263" t="s">
+        <v>88</v>
+      </c>
+      <c r="H263">
+        <v>324807</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>100775</v>
+      </c>
+      <c r="C264" t="s">
+        <v>75</v>
+      </c>
+      <c r="D264" t="s">
+        <v>84</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45448.44027777778</v>
+      </c>
+      <c r="F264" s="2">
+        <v>45448.49583333333</v>
+      </c>
+      <c r="G264" t="s">
+        <v>88</v>
+      </c>
+      <c r="H264">
+        <v>324810</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>100778</v>
+      </c>
+      <c r="C265" t="s">
+        <v>24</v>
+      </c>
+      <c r="D265" t="s">
+        <v>84</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45448.53541666667</v>
+      </c>
+      <c r="F265" s="2">
+        <v>45448.59097222222</v>
+      </c>
+      <c r="G265" t="s">
+        <v>88</v>
+      </c>
+      <c r="H265">
+        <v>324820</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>100782</v>
+      </c>
+      <c r="C266" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" t="s">
+        <v>84</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45448.69305555556</v>
+      </c>
+      <c r="F266" s="2">
+        <v>45448.74861111111</v>
+      </c>
+      <c r="G266" t="s">
+        <v>88</v>
+      </c>
+      <c r="H266">
+        <v>324832</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>100794</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>84</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45448.43472222222</v>
+      </c>
+      <c r="F267" s="2">
+        <v>45448.49027777778</v>
+      </c>
+      <c r="G267" t="s">
+        <v>88</v>
+      </c>
+      <c r="H267">
+        <v>324876</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>100795</v>
+      </c>
+      <c r="C268" t="s">
+        <v>59</v>
+      </c>
+      <c r="D268" t="s">
+        <v>84</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45448.40694444445</v>
+      </c>
+      <c r="F268" s="2">
+        <v>45448.4625</v>
+      </c>
+      <c r="G268" t="s">
+        <v>88</v>
+      </c>
+      <c r="H268">
+        <v>324879</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>100796</v>
+      </c>
+      <c r="C269" t="s">
+        <v>73</v>
+      </c>
+      <c r="D269" t="s">
+        <v>84</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45448.44444444445</v>
+      </c>
+      <c r="F269" s="2">
+        <v>45448.5</v>
+      </c>
+      <c r="G269" t="s">
+        <v>88</v>
+      </c>
+      <c r="H269">
+        <v>324882</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>100797</v>
+      </c>
+      <c r="C270" t="s">
+        <v>80</v>
+      </c>
+      <c r="D270" t="s">
+        <v>84</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45448.45694444444</v>
+      </c>
+      <c r="F270" s="2">
+        <v>45448.5125</v>
+      </c>
+      <c r="G270" t="s">
+        <v>88</v>
+      </c>
+      <c r="H270">
+        <v>324885</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>100801</v>
+      </c>
+      <c r="C271" t="s">
+        <v>56</v>
+      </c>
+      <c r="D271" t="s">
+        <v>84</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45448.66319444445</v>
+      </c>
+      <c r="F271" s="2">
+        <v>45448.71875</v>
+      </c>
+      <c r="G271" t="s">
+        <v>88</v>
+      </c>
+      <c r="H271">
+        <v>324901</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>100802</v>
+      </c>
+      <c r="C272" t="s">
+        <v>79</v>
+      </c>
+      <c r="D272" t="s">
+        <v>84</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45448.67013888889</v>
+      </c>
+      <c r="F272" s="2">
+        <v>45448.72569444445</v>
+      </c>
+      <c r="G272" t="s">
+        <v>88</v>
+      </c>
+      <c r="H272">
+        <v>324904</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>100803</v>
+      </c>
+      <c r="C273" t="s">
+        <v>78</v>
+      </c>
+      <c r="D273" t="s">
+        <v>84</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45448.55555555555</v>
+      </c>
+      <c r="F273" s="2">
+        <v>45448.61111111111</v>
+      </c>
+      <c r="G273" t="s">
+        <v>88</v>
+      </c>
+      <c r="H273">
+        <v>324908</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>100804</v>
+      </c>
+      <c r="C274" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" t="s">
+        <v>87</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45448.375</v>
+      </c>
+      <c r="F274" s="2">
+        <v>45448.48611111111</v>
+      </c>
+      <c r="G274" t="s">
+        <v>88</v>
+      </c>
+      <c r="H274">
+        <v>324911</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>100805</v>
+      </c>
+      <c r="C275" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" t="s">
+        <v>84</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45448.56388888889</v>
+      </c>
+      <c r="F275" s="2">
+        <v>45448.61944444444</v>
+      </c>
+      <c r="G275" t="s">
+        <v>90</v>
+      </c>
+      <c r="H275">
+        <v>324925</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>100821</v>
+      </c>
+      <c r="C276" t="s">
+        <v>80</v>
+      </c>
+      <c r="D276" t="s">
+        <v>84</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45448.56111111111</v>
+      </c>
+      <c r="F276" s="2">
+        <v>45448.61666666667</v>
+      </c>
+      <c r="G276" t="s">
+        <v>88</v>
+      </c>
+      <c r="H276">
+        <v>324998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>100807</v>
+      </c>
+      <c r="C277" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" t="s">
+        <v>84</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45448.38611111111</v>
+      </c>
+      <c r="F277" s="2">
+        <v>45448.44166666667</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277">
+        <v>324955</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>100640</v>
+      </c>
+      <c r="C278" t="s">
+        <v>50</v>
+      </c>
+      <c r="D278" t="s">
+        <v>84</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45448.16875</v>
+      </c>
+      <c r="F278" s="2">
+        <v>45448.22430555556</v>
+      </c>
+      <c r="G278" t="s">
+        <v>88</v>
+      </c>
+      <c r="H278">
+        <v>324155</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>100631</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" t="s">
+        <v>84</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45448.55694444444</v>
+      </c>
+      <c r="F279" s="2">
+        <v>45448.6125</v>
+      </c>
+      <c r="G279" t="s">
+        <v>88</v>
+      </c>
+      <c r="H279">
+        <v>324128</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>100661</v>
+      </c>
+      <c r="C280" t="s">
+        <v>77</v>
+      </c>
+      <c r="D280" t="s">
+        <v>84</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45448.425</v>
+      </c>
+      <c r="F280" s="2">
+        <v>45448.48055555556</v>
+      </c>
+      <c r="G280" t="s">
+        <v>88</v>
+      </c>
+      <c r="H280">
+        <v>324223</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>100703</v>
+      </c>
+      <c r="C281" t="s">
+        <v>74</v>
+      </c>
+      <c r="D281" t="s">
+        <v>84</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45448.55138888889</v>
+      </c>
+      <c r="F281" s="2">
+        <v>45448.60694444444</v>
+      </c>
+      <c r="G281" t="s">
+        <v>88</v>
+      </c>
+      <c r="H281">
+        <v>324349</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>100782</v>
+      </c>
+      <c r="C282" t="s">
+        <v>40</v>
+      </c>
+      <c r="D282" t="s">
+        <v>84</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45448.72083333333</v>
+      </c>
+      <c r="F282" s="2">
+        <v>45448.77638888889</v>
+      </c>
+      <c r="G282" t="s">
+        <v>88</v>
+      </c>
+      <c r="H282">
+        <v>324832</v>
       </c>
     </row>
   </sheetData>
